--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDD4DC0-C0A9-4775-989E-545A86AE96CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0BB000-29EA-4448-8B6B-3675EFDDD8F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" activeTab="13" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" activeTab="12" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="p13" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,21 +70,6 @@
     <t>fresta</t>
   </si>
   <si>
-    <t>2021 年度に広島大学は、オンライン授業環境のさらなる充実をはかるために、オープンソー
-スの e-Learning プラットホームである moodle をもとに開発した、広大 moodle を導入し
-ました。
-広大 moodle では、授業や講習会の単位で作成されたコースと呼ばれる Web ページ群をも
-とに学修活動を行います。そこでは学生に授業資料を提示したり、レポート課題を出したり、
-小テストを課したりすることができます。
-授業での広大 moodle の利便性を高めるために、「もみじ」で開講されている授業科目に対
-応したコースは自動作成され、担当教員や履修生がそのコースに自動的に登録されます。さ
-らに「もみじ」で担当教員や履修生に変更があった場合、その内容が広大 moodle のコース
-に自動的に反映されます。
-ぜひ広大 moodle をご利用ください。
-本書では、広大 moodle の基本的な使い方を簡単にご紹介します</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ログイン／ログアウト</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -95,15 +81,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&lt;h2&gt;&lt;a name="login"&gt;&lt;/a&gt;ログイン&lt;/h2&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ブラウザを起動し、以下の URL にアクセスします
-https://moodle.vle.hiroshima-u.ac.jp</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ログイン画面が表示されたら、［広大 ID でログイン］をクリックします</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -112,10 +89,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&lt;h2&gt;&lt;a name="logout"&gt;&lt;/a&gt;ログアウト&lt;/h2&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>画面右上の▼（ユーザメニュー）をクリックします</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -128,24 +101,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>広大 moodle の初期状態は日本語表示ですが、英語表示で利用することもできます。
-表示言語は、画面上部にある言語メニューで選択するか、優先言語を設定することで切り
-替えることができます。
-言語メニューでの切り替えは一時的なもので、次回ログイン時には初期の日本語表示に
-戻ってしまいます。恒久的に英語表示で使用したい場合は、優先言語を設定します。
-※ 表示言語が切り替わるのは、メニューやボタン、moodle からのメッセージ等です。コース名やユーザ氏
-名、課題の内容等、表示言語が変わらない部分もあります。
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="#language menu"&gt;言語メニューで選択&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="#preferred language"&gt;優先言語の設定&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;a name="language menu"&gt;&lt;/a&gt;言語メニューで選択&lt;/h2&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>画面左上に表示されている[日本語(ja)]右の▼をクリックします</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -154,15 +109,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&lt;h2&gt;&lt;a name="preferred language"&gt;&lt;/a&gt;優先言語の設定&lt;/h2&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>画面右上の▼（ユーザメニュー）をクリックし、［プリファレンス］を選択し、［優
-先言語］をクリックします</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>優先言語の▼をクリックし、リストを表示させ優先させたい言語を選択します</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -175,26 +121,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>初期状態で、広大 moodle にはあなたの姓・名、広大メールアドレスが登録されています。
-これらは、必要に応じて変更することができます。
-特にメールアドレスは、広大 moodle からの通知を見落とさないために、普段よく使ってい
-るものに変更するとよいでしょう。
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="#email change"&gt;登録メールアドレスの変更&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;a name="email change"&gt;&lt;/a&gt;登録メールアドレスの変更&lt;/h2&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>画面右上の▼（ユーザメニュー）をクリックし、［プロファイル］を選択し、［プロファイルを編集する］をクリックします</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>変更したい情報（姓・名、メールアドレス）を入力し、［プロファイルを更新する］
-をクリックします</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -213,12 +140,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&lt;h2&gt;&lt;a name="choosing course template"&gt;&lt;/a&gt;コーステンプレートの選択&lt;/h2&gt;
-はじめてコースを開くと、いくつかのコーステンプレートからコースフォーマットを選
-択するように求められます。好みのコーステンプレートを選択してください。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>好みのコーステンプレートの［このテンプレートを使用する］をクリックします</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -227,22 +148,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&lt;h2&gt;&lt;a name="course edit"&gt;&lt;/a&gt;コース編集&lt;/h2&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="edit mode"&gt;&lt;/a&gt;編集モード&lt;/h3&gt;</t>
-    <rPh sb="28" eb="30">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>コースに資料を掲載したり、課題や小テストを作成したりするためには、画面右上の［編
-集モードの開始］をクリックして、編集モードを ON にする必要があります。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>編集モードになると画面上に編集アイコンなどが表示されます。</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -251,30 +156,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="section"&gt;&lt;/a&gt;セクション&lt;/h3&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>提供する教材を整理するために用意されている領域をセクションと呼びます。
-今回選択したテンプレートには「コメントシート」と「教材」という 2 つのセクション
-があります。
-編集モードを開始すると、セクションを編集したり、追加することができるようになりま
-す。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>上記は、flexible sections format のコースセクションのアイコンですが、以下の機能を
-示します。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>はじめに用意されているセクションの名前を変更したい場合は、セクション名の右にあ
-る鉛筆アイコンをクリックして名前を入力し、エンターキーを押します。
-また［編集］の右▼をクリックして［セクションを編集する］を選択し、名称変更の他、
-説明文を加えることもできます。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>※ セクション名のボックスがグレーになっている時は、カスタムをチェックすると変更できます。</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -283,42 +164,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>セクション名の左横の右向きの三角は、このセクションが折りたたまれていることを表
-しています。クリックすると開くことができます。セクション名をクリックすると、セク
-ションの中を見ることができます。また折りたたまれたセクションは、フォルダのように
-扱うことができます。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>[+ セクションを追加する]をクリックすると、セクションを追加することができます。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>新しいセクションのデフォルトの名前は「トピック n」（そのコースの n 番目のセクショ
-ンの場合）で、開いた状態で作成されます。
-またセクションの中にはサブセクションを作成することもできます。
-授業回ごと、単元ごとなどに教材を分類するなど、お好みの方法でご利用ください。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="course setting"&gt;&lt;/a&gt;コース設定&lt;/h3&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>コースの名前や開講期間などを変更することができます。
-画面右の歯車アイコンの▼をクリックして表示されるメニューで［設定を編集する］をク
-リックしてください。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>一括作成されたコースの名称等は以下のルールに従ってつけられています。
-コース名：授業名＋半角 SP＋年度＋半角 SP＋時間割コード(英数字 8 ケタ)となります。
-例）「野外考古学実習Ｃ 2022 BI306002」
-コース省略名：年度(数字 4 桁)_部局コード(数字 2 桁)_時間割コード(英数字 8 ケタ)と
-なります。
-例）「2022_23_BI306002」
-コースカテゴリ：2022 年の直下ではなく下位のコースカテゴリと紐づけてください。
-コース ID ナンバー：編集できません。</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -339,36 +185,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&lt;h2&gt;&lt;a name="participant"&gt;&lt;/a&gt;参加者&lt;/h2&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="participant confirmation"&gt;&lt;/a&gt;参加者の確認&lt;/h3&gt;</t>
-  </si>
-  <si>
     <t>ナビゲーションドロワーにある［参加者］をクリックすると、コースに登録されている学
 生・教職員を一覧することができます。_x000D_</t>
   </si>
   <si>
-    <t xml:space="preserve">コースに登録されている学生・教職員には、コースロールが割り当てられます。このコー
-スロールによって、各人がコースで何ができるのかが決まります。
-広大 moodle に用意されているコースロールは、以下の通りです。
-・主担当教員
-・世話教員
-・副担当教員
-・学生支援職員
-・ＴＡ
-・ＴＡ（作成補助）
-</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="registration of ta"&gt;&lt;/a&gt;TA の登録&lt;/h3&gt;
-「もみじ」と連携したコースであれば、主担当教員、副担当教員、世話教員、履修登録し
-た学生は自動的に登録されますが、TA や授業を補助する職員は自動登録されません。し
-たがって、TA や授業を補助する職員は、教員がコースで登録する必要があります。
-ここではその登録方法を説明します。</t>
-  </si>
-  <si>
     <t>ナビゲーションドロワーの［参加者］をクリックします</t>
   </si>
   <si>
@@ -386,9 +206,6 @@
     <t>選択内容を確認して、［ユーザを登録する］をクリックします</t>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="course roll"&gt;&lt;/a&gt;コールロールの管理&lt;/h3&gt;</t>
-  </si>
-  <si>
     <t>ロールを追加、変更したい参加者のロールの アイコンをクリックします</t>
   </si>
   <si>
@@ -401,19 +218,6 @@
   </si>
   <si>
     <t>参加者一覧画面でロールが変更されていることが確認できます。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="group management"&gt;&lt;/a&gt;グループ管理&lt;/h2&gt;
-moodle のコースでは学生をグループ分けすることができます。そうすることで、グルー
-プワークをさせたり、グループごとに異なる教材を提示したりすることが可能です。
-ここではグループ作成の方法をご説明します。
-グループでは、メンバー間での共同作業をしたり、異なるグループのメンバーやその提出
-やフォーラム投稿を見えなくするなどの作用があります。
-</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="creating groups"&gt;&lt;/a&gt;グループの手動作成&lt;/h3&gt;
-ここではグループを手動で作成する方法を説明します。</t>
   </si>
   <si>
     <t xml:space="preserve">右上の歯車マークをクリックし、表示されたメニューで［グループ］をクリックし
@@ -426,9 +230,6 @@
   <si>
     <t>グループ名を入力し、画面下の［変更を保存する］をクリックします
 引き続いて次項ではグループメンバーの登録方法を説明します。</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="group members"&gt;&lt;/a&gt;グループメンバーの登録&lt;/h3&gt;</t>
   </si>
   <si>
     <t>ここではグループメンバーを手動登録する方法を説明します。
@@ -452,12 +253,6 @@
 &lt;li&gt;&lt;a href="#file"&gt;ファイル&lt;/a&gt;&lt;/li&gt;
 &lt;li&gt;&lt;a href="#folder"&gt;フォルダ&lt;/a&gt;&lt;/li&gt;
 &lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;a name="file"&gt;&lt;/a&gt;ファイル&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="Publishing files"&gt;&lt;/a&gt;ファイルの公開&lt;/h3&gt;</t>
   </si>
   <si>
     <t>編集モードを開始し、ファイルを掲載したいセクションの［+ 活動またはリソース
@@ -490,9 +285,6 @@
 </t>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="File deletion"&gt;&lt;/a&gt;ファイルの削除&lt;/h3&gt;</t>
-  </si>
-  <si>
     <t>編集モードを開始します</t>
   </si>
   <si>
@@ -502,9 +294,6 @@
     <t>ダイアログが表示されるので［Yes］をクリックして削除します。</t>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="file update"&gt;&lt;/a&gt;ファイルの更新&lt;/h3&gt;</t>
-  </si>
-  <si>
     <t>ファイルの［編集］▼をクリックし、メニューで［設定を編集する］を選択します</t>
   </si>
   <si>
@@ -518,10 +307,6 @@
   </si>
   <si>
     <t>必要に応じてその他の項目も変更し、［保存してコースに戻る］をクリックします</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;a name="folder"&gt;&lt;/a&gt;フォルダ&lt;/h2&gt;
-複数のファイルを 1 つにまとめて掲載できる機能です。</t>
   </si>
   <si>
     <t>複数のファイルを 1 つにまとめて掲載できる機能です。</t>
@@ -564,12 +349,6 @@
 &lt;ul&gt;
 &lt;li&gt;&lt;a href="#work"&gt;課題&lt;/a&gt;&lt;/li&gt;
 &lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;a name="work"&gt;&lt;/a&gt;課題&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="Create"&gt;&lt;/a&gt;課題の作成&lt;/h3&gt;</t>
   </si>
   <si>
     <t>課題を作成したいセクションの［+ 活動またはリソースを追加する］をクリックします</t>
@@ -705,17 +484,6 @@
 </t>
   </si>
   <si>
-    <t>⚫ 利用制限
-「13. 利用制限と活動完了」を参照してください。
-⚫ 活動完了
-「13. 利用制限と活動完了」を参照してください。
-(5) 設定完了後、［保存して表示する］をクリックしてください。</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="download"&gt;&lt;/a&gt;課題提出物の一括ダウンロード&lt;/h3&gt;
-設定した課題の提出を確認します。</t>
-  </si>
-  <si>
     <t>確認する課題をクリックします</t>
   </si>
   <si>
@@ -723,9 +491,6 @@
   </si>
   <si>
     <t>左上の［評定操作］ で［すべての課題をダウンロードする］を選択します</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="Grade"&gt;&lt;/a&gt;評定&lt;/h3&gt;</t>
   </si>
   <si>
     <t>前節（3)の一覧表で、評定したい学生の［評点］ボタンをクリックすると、提出物の採点
@@ -735,11 +500,6 @@
 ここにメールアドレスが表示されます</t>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="quick"&gt;&lt;/a&gt;クイック評定&lt;/h3&gt;
-評定には前節の方法以外に、7.2（3）の一覧表で評点とフィードバックを入力する方法
-もあります。</t>
-  </si>
-  <si>
     <t>7.2（3）の評価者一覧画面の下部の「オプション」の「クイック評定」にチェックを入れます</t>
   </si>
   <si>
@@ -769,9 +529,6 @@
   </si>
   <si>
     <t>これ以降、各設定値を説明します。必要に応じて設定してください。</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="registration"&gt;&lt;/a&gt;問題の登録&lt;/h3&gt;</t>
   </si>
   <si>
     <t>テストアイコンをクリックします。［小テストを編集する］をクリックします</t>
@@ -956,15 +713,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>&lt;h3&gt;広島大学 情報メディア教育研究センター&lt;br&gt;
-eラーニング支援室&lt;/h3&gt;&lt;br&gt;
-2023年8月&lt;br&gt;</t>
-    <rPh sb="34" eb="37">
-      <t>シエンシツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>広大moodle マニュアル guide41-1</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ヒロダイ </t>
@@ -1055,12 +803,507 @@
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
+  <si>
+    <t>&lt;h4&gt;広島大学 情報メディア教育研究センター&lt;br&gt;
+eラーニング支援室&lt;/h4&gt;&lt;br&gt;
+&lt;h5&gt;2023年8月&lt;/h5&gt;&lt;br&gt;</t>
+    <rPh sb="34" eb="37">
+      <t>シエンシツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　2021 年度に広島大学は、オンライン授業環境のさらなる充実をはかるために、オープンソースの e-Learning プラットホームである moodle をもとに開発した、広大 moodle を導入しました。
+　広大 moodle では、授業や講習会の単位で作成されたコースと呼ばれる Web ページ群をもとに学修活動を行います。そこでは学生に授業資料を提示したり、レポート課題を出したり、小テストを課したりすることができます。
+　授業での広大 moodle の利便性を高めるために、「もみじ」で開講されている授業科目に対応したコースは自動作成され、担当教員や履修生がそのコースに自動的に登録されます。さらに「もみじ」で担当教員や履修生に変更があった場合、その内容が広大 moodle のコースに自動的に反映されます。
+　ぜひ広大 moodle をご利用ください。本書では、広大 moodle の基本的な使い方を簡単にご紹介します。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ブラウザを起動し、以下の URL にアクセスします
+　https://moodle.vle.hiroshima-u.ac.jp</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="login"&gt;&lt;/a&gt;ログイン&lt;/h3&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="logout"&gt;&lt;/a&gt;ログアウト&lt;/h3&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="language menu"&gt;&lt;/a&gt;言語メニューで選択&lt;/h3&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="preferred language"&gt;&lt;/a&gt;優先言語の設定&lt;/h3&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 広大 moodle の初期状態は日本語表示ですが、英語表示で利用することもできます。
+表示言語は、画面上部にある言語メニューで選択するか、優先言語を設定することで切り替えることができます。
+言語メニューでの切り替えは一時的なもので、次回ログイン時には初期の日本語表示に戻ってしまいます。恒久的に英語表示で使用したい場合は、優先言語を設定します。
+※表示言語が切り替わるのは、メニューやボタン、moodle からのメッセージ等です。コース名やユーザ氏名、課題の内容等、表示言語が変わらない部分もあります。
+&lt;ul&gt;
+&lt;li&gt;&lt;a href="#language menu"&gt;言語メニューで選択&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#preferred language"&gt;優先言語の設定&lt;/a&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面右上の▼（ユーザメニュー）をクリックし、［プリファレンス］を選択し、［優先言語］をクリックします</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="email change"&gt;&lt;/a&gt;登録メールアドレスの変更&lt;/h3&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 初期状態で、広大 moodle にはあなたの姓・名、広大メールアドレスが登録されています。
+これらは、必要に応じて変更することができます。
+特にメールアドレスは、広大 moodle からの通知を見落とさないために、普段よく使っているものに変更するとよいでしょう。
+&lt;ul&gt;
+&lt;li&gt;&lt;a href="#email change"&gt;登録メールアドレスの変更&lt;/a&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>変更したい情報（姓・名、メールアドレス）を入力し、［プロファイルを更新する］をクリックします</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="course edit"&gt;&lt;/a&gt;コース編集&lt;/h3&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="edit mode"&gt;&lt;/a&gt;編集モード&lt;/h4&gt;</t>
+    <rPh sb="28" eb="30">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="section"&gt;&lt;/a&gt;セクション&lt;/h4&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="course setting"&gt;&lt;/a&gt;コース設定&lt;/h4&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="choosing course template"&gt;&lt;/a&gt;コーステンプレートの選択&lt;/h3&gt;
+はじめてコースを開くと、いくつかのコーステンプレートからコースフォーマットを選択するように求められます。好みのコーステンプレートを選択してください。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コースに資料を掲載したり、課題や小テストを作成したりするためには、画面右上の［編集モードの開始］をクリックして、編集モードを ON にする必要があります。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>提供する教材を整理するために用意されている領域をセクションと呼びます。
+今回選択したテンプレートには「コメントシート」と「教材」という 2 つのセクションがあります。
+編集モードを開始すると、セクションを編集したり、追加することができるようになります。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>上記は、flexible sections format のコースセクションのアイコンですが、以下の機能を示します。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>はじめに用意されているセクションの名前を変更したい場合は、セクション名の右にある鉛筆アイコンをクリックして名前を入力し、エンターキーを押します。
+また［編集］の右▼をクリックして［セクションを編集する］を選択し、名称変更の他、説明文を加えることもできます。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セクション名の左横の右向きの三角は、このセクションが折りたたまれていることを表しています。クリックすると開くことができます。セクション名をクリックすると、セクションの中を見ることができます。また折りたたまれたセクションは、フォルダのように扱うことができます。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新しいセクションのデフォルトの名前は「トピック n」（そのコースの n 番目のセクションの場合）で、開いた状態で作成されます。
+またセクションの中にはサブセクションを作成することもできます。
+授業回ごと、単元ごとなどに教材を分類するなど、お好みの方法でご利用ください。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コースの名前や開講期間などを変更することができます。
+画面右の歯車アイコンの▼をクリックして表示されるメニューで［設定を編集する］をクリックしてください。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>一括作成されたコースの名称等は以下のルールに従ってつけられています。
+コース名：授業名＋半角 SP＋年度＋半角 SP＋時間割コード(英数字 8 ケタ)となります。
+例）「野外考古学実習Ｃ 2022 BI306002」
+コース省略名：年度(数字 4 桁)_部局コード(数字 2 桁)_時間割コード(英数字 8 ケタ)と
+なります。
+例）「2022_23_BI306002」
+コースカテゴリ：2022 年の直下ではなく下位のコースカテゴリと紐づけてください。
+コース ID ナンバー：編集できません。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">コースに登録されている学生・教職員には、コースロールが割り当てられます。このコー
+スロールによって、各人がコースで何ができるのかが決まります。
+広大 moodle に用意されているコースロールは、以下の通りです。
+・主担当教員
+・世話教員
+・副担当教員
+・学生支援職員
+・ＴＡ
+・ＴＡ（作成補助）
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="participant"&gt;&lt;/a&gt;参加者&lt;/h3&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="participant confirmation"&gt;&lt;/a&gt;参加者の確認&lt;/h4&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="registration of ta"&gt;&lt;/a&gt;TA の登録&lt;/h4&gt;
+「もみじ」と連携したコースであれば、主担当教員、副担当教員、世話教員、履修登録し
+た学生は自動的に登録されますが、TA や授業を補助する職員は自動登録されません。し
+たがって、TA や授業を補助する職員は、教員がコースで登録する必要があります。
+ここではその登録方法を説明します。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="course roll"&gt;&lt;/a&gt;コールロールの管理&lt;/h4&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;&lt;a name="group management"&gt;&lt;/a&gt;グループ管理&lt;/h3&gt;
+moodle のコースでは学生をグループ分けすることができます。そうすることで、グルー
+プワークをさせたり、グループごとに異なる教材を提示したりすることが可能です。
+ここではグループ作成の方法をご説明します。
+グループでは、メンバー間での共同作業をしたり、異なるグループのメンバーやその提出
+やフォーラム投稿を見えなくするなどの作用があります。
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="creating groups"&gt;&lt;/a&gt;グループの手動作成&lt;/h4&gt;
+ここではグループを手動で作成する方法を説明します。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="group members"&gt;&lt;/a&gt;グループメンバーの登録&lt;/h4&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;&lt;a name="file"&gt;&lt;/a&gt;ファイル&lt;/h3&gt;</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;&lt;a name="Publishing files"&gt;&lt;/a&gt;ファイルの公開&lt;/h4&gt;</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="File deletion"&gt;&lt;/a&gt;ファイルの削除&lt;/h4&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="file update"&gt;&lt;/a&gt;ファイルの更新&lt;/h4&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;&lt;a name="folder"&gt;&lt;/a&gt;フォルダ&lt;/h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;
+複数のファイルを 1 つにまとめて掲載できる機能です。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;&lt;a name="work"&gt;&lt;/a&gt;課題&lt;/h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;&lt;a name="Create"&gt;&lt;/a&gt;課題の作成&lt;/h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⚫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 利用制限
+「13. 利用制限と活動完了」を参照してください。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⚫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 活動完了
+「13. 利用制限と活動完了」を参照してください。
+設定完了後、［保存して表示する］をクリックしてください。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;&lt;a name="download"&gt;&lt;/a&gt;課題提出物の一括ダウンロード&lt;/h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;
+設定した課題の提出を確認します。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="Grade"&gt;&lt;/a&gt;評定&lt;/h4&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="quick"&gt;&lt;/a&gt;クイック評定&lt;/h4&gt;
+評定には前節の方法以外に、7.2（3）の一覧表で評点とフィードバックを入力する方法
+もあります。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="registration"&gt;&lt;/a&gt;問題の登録&lt;/h3&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1132,6 +1375,33 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック "/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1155,7 +1425,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1223,6 +1493,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1541,7 +1814,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1571,7 +1844,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1581,7 +1854,7 @@
     <row r="5" spans="1:2" ht="40.5">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1599,7 +1872,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1622,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -1642,7 +1915,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -1653,26 +1926,26 @@
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
     </row>
-    <row r="6" spans="1:4" ht="87.75" customHeight="1">
+    <row r="6" spans="1:4" ht="94.5">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="18"/>
       <c r="B8" s="20" t="s">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -1680,141 +1953,141 @@
     <row r="9" spans="1:4">
       <c r="A9" s="18"/>
       <c r="B9" s="20" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="21" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="21" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="18.75">
       <c r="B12" s="21" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="67.5">
       <c r="B13" s="22" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="108">
       <c r="B14" s="22" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="121.5">
       <c r="B15" s="22" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="162">
       <c r="B16" s="22" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="2:4" ht="229.5">
       <c r="B17" s="22" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="2:4" ht="283.5">
       <c r="B18" s="22" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="2:4" ht="94.5">
       <c r="B19" s="22" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="2:4" ht="175.5">
       <c r="B20" s="22" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="2:4" ht="293.25" customHeight="1">
       <c r="B21" s="22" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="2:4" ht="104.25" customHeight="1">
-      <c r="B22" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="27">
+      <c r="B22" s="24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="32.25">
       <c r="B23" s="20" t="s">
-        <v>126</v>
+        <v>197</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="21" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="18.75">
       <c r="B25" s="21" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="2:4" ht="18.75">
       <c r="B26" s="21" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="21" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="67.5">
       <c r="B28" s="22" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="2:4" ht="40.5">
       <c r="B29" s="22" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="18.75">
       <c r="B30" s="21" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="2:4" ht="18.75">
       <c r="B31" s="21" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="2:4" ht="18.75">
       <c r="B32" s="21" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="D32" s="7"/>
     </row>
@@ -1829,7 +2102,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1852,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23"/>
@@ -1872,7 +2145,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -1886,7 +2159,7 @@
     <row r="6" spans="1:4" ht="27">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -1894,96 +2167,96 @@
     <row r="7" spans="1:4">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="21" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="21" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="21" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="21" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="21" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="20" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="B14" s="21" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="B15" s="21" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="18.75">
       <c r="B16" s="21" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="2:4" ht="53.25" customHeight="1">
       <c r="B17" s="20" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
     </row>
     <row r="18" spans="2:4" ht="18.75">
       <c r="B18" s="21" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="2:4" ht="18.75">
       <c r="B19" s="21" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="2:4" ht="18.75">
       <c r="B20" s="21" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="21" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="21" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1996,8 +2269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DD84A2-8553-4736-8CDC-02E4220E2CE5}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2020,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23"/>
@@ -2040,7 +2313,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2054,7 +2327,7 @@
     <row r="6" spans="1:4" ht="40.5">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -2062,86 +2335,86 @@
     <row r="7" spans="1:4">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="21" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="21" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="21" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="21" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="67.5">
       <c r="B12" s="22" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="27">
       <c r="B13" s="20" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="B14" s="21" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="B15" s="21" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="18.75">
       <c r="B16" s="21" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="2:4" ht="18.75">
       <c r="B17" s="21" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="2:4" ht="18.75">
       <c r="B18" s="21" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="2:4" ht="15.75" customHeight="1">
       <c r="B19" s="20" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
     </row>
     <row r="20" spans="2:4" ht="67.5">
       <c r="B20" s="22" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="D20" s="7"/>
     </row>
@@ -2155,8 +2428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5F1CFD-792A-40F7-A551-A5197A9AF048}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2179,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23"/>
@@ -2199,7 +2472,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2213,7 +2486,7 @@
     <row r="6" spans="1:4" ht="40.5">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -2221,100 +2494,100 @@
     <row r="7" spans="1:4">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="21" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="21" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="21" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="21" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="40.5">
       <c r="B12" s="22" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="94.5">
       <c r="B13" s="22" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="81">
       <c r="B14" s="22" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="B15" s="22" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="27">
       <c r="B16" s="20" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
     </row>
     <row r="17" spans="2:4" ht="18.75">
       <c r="B17" s="21" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="2:4" ht="94.5">
       <c r="B18" s="22" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="2:4" ht="67.5">
       <c r="B19" s="22" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="2:4" ht="18.75">
       <c r="B20" s="22" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="2:4" ht="67.5">
       <c r="B21" s="22" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="20" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="108">
       <c r="B23" s="22" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -2330,8 +2603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454927E8-BBE5-4EB0-9F20-CB3C0B8D7DE8}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2354,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23"/>
@@ -2374,7 +2647,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2438,6 +2711,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2446,7 +2720,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2481,16 +2755,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="162">
+    <row r="6" spans="1:4" ht="121.5">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2566,6 +2840,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2574,7 +2849,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2595,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2611,7 +2886,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2621,38 +2896,38 @@
     <row r="6" spans="1:4" ht="54">
       <c r="A6" s="5"/>
       <c r="B6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" s="8" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2660,13 +2935,13 @@
     <row r="12" spans="1:4">
       <c r="A12" s="5"/>
       <c r="B12" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5"/>
       <c r="B13" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2728,7 +3003,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2749,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2765,23 +3040,23 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5"/>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="148.5">
+    <row r="6" spans="1:4" ht="135">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2789,39 +3064,39 @@
     <row r="8" spans="1:4">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="27">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" s="10" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5"/>
       <c r="B12" s="8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5"/>
       <c r="B13" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2871,7 +3146,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2892,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2908,23 +3183,23 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5"/>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="94.5">
+    <row r="6" spans="1:4" ht="81">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2932,14 +3207,14 @@
     <row r="8" spans="1:4">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="27">
+    <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="C9" s="5"/>
     </row>
@@ -2989,8 +3264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1601574-9F97-41C0-8451-5E02C95F2AA9}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3012,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3028,7 +3303,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3038,13 +3313,13 @@
     <row r="6" spans="1:4" ht="67.5">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="40.5">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3052,21 +3327,21 @@
     <row r="8" spans="1:4">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" s="8" t="s">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -3074,7 +3349,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" s="8" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -3082,104 +3357,104 @@
     <row r="12" spans="1:4" ht="27">
       <c r="A12" s="5"/>
       <c r="B12" s="8" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5"/>
       <c r="B13" s="8" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5"/>
       <c r="B14" s="8" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5"/>
       <c r="B15" s="8" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="67.5">
+    <row r="16" spans="1:4" ht="40.5">
       <c r="A16" s="5"/>
       <c r="B16" s="8" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" ht="27">
+    <row r="17" spans="1:3">
       <c r="A17" s="5"/>
       <c r="B17" s="8" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" ht="54">
+    <row r="18" spans="1:3" ht="40.5">
       <c r="A18" s="5"/>
       <c r="B18" s="8" t="s">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5"/>
       <c r="B19" s="8" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5"/>
       <c r="B20" s="8" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" ht="54">
+    <row r="21" spans="1:3" ht="40.5">
       <c r="A21" s="5"/>
       <c r="B21" s="8" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5"/>
       <c r="B22" s="8" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" ht="54">
+    <row r="23" spans="1:3" ht="40.5">
       <c r="A23" s="5"/>
       <c r="B23" s="8" t="s">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="5"/>
       <c r="B24" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="40.5">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="27">
       <c r="A25" s="5"/>
       <c r="B25" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="108">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="121.5">
       <c r="A26" s="5"/>
       <c r="B26" s="10" t="s">
-        <v>53</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3216,8 +3491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30402F76-58EB-463D-B02C-1E24EF5472B7}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3239,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3255,7 +3530,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3265,13 +3540,13 @@
     <row r="6" spans="1:4" ht="54">
       <c r="A6" s="12"/>
       <c r="B6" s="16" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="12"/>
       <c r="B7" s="16" t="s">
-        <v>56</v>
+        <v>182</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -3279,7 +3554,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="12"/>
       <c r="B8" s="16" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -3287,7 +3562,7 @@
     <row r="9" spans="1:4" ht="26.25" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="16" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="7"/>
@@ -3295,14 +3570,14 @@
     <row r="10" spans="1:4" ht="114.75" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="16" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="67.5">
       <c r="A11" s="12"/>
       <c r="B11" s="16" t="s">
-        <v>60</v>
+        <v>184</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -3310,14 +3585,14 @@
     <row r="12" spans="1:4">
       <c r="A12" s="12"/>
       <c r="B12" s="16" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="12"/>
       <c r="B13" s="16" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="7"/>
@@ -3325,21 +3600,21 @@
     <row r="14" spans="1:4" ht="27">
       <c r="A14" s="12"/>
       <c r="B14" s="16" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:4" ht="27">
       <c r="A15" s="12"/>
       <c r="B15" s="16" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C15" s="12"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="12"/>
       <c r="B16" s="16" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="7"/>
@@ -3347,14 +3622,14 @@
     <row r="17" spans="1:4">
       <c r="A17" s="12"/>
       <c r="B17" s="16" t="s">
-        <v>66</v>
+        <v>185</v>
       </c>
       <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="12"/>
       <c r="B18" s="16" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="7"/>
@@ -3362,7 +3637,7 @@
     <row r="19" spans="1:4" ht="27">
       <c r="A19" s="12"/>
       <c r="B19" s="16" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="7"/>
@@ -3370,7 +3645,7 @@
     <row r="20" spans="1:4" ht="27">
       <c r="A20" s="12"/>
       <c r="B20" s="16" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="7"/>
@@ -3378,7 +3653,7 @@
     <row r="21" spans="1:4">
       <c r="A21" s="12"/>
       <c r="B21" s="16" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="7"/>
@@ -3386,7 +3661,7 @@
     <row r="22" spans="1:4" ht="94.5">
       <c r="A22" s="12"/>
       <c r="B22" s="16" t="s">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -3394,21 +3669,21 @@
     <row r="23" spans="1:4" ht="27">
       <c r="A23" s="12"/>
       <c r="B23" s="16" t="s">
-        <v>72</v>
+        <v>187</v>
       </c>
       <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="12"/>
       <c r="B24" s="16" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C24" s="12"/>
     </row>
     <row r="25" spans="1:4" ht="40.5">
       <c r="A25" s="12"/>
       <c r="B25" s="16" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="7"/>
@@ -3416,7 +3691,7 @@
     <row r="26" spans="1:4">
       <c r="A26" s="12"/>
       <c r="B26" s="16" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="7"/>
@@ -3424,7 +3699,7 @@
     <row r="27" spans="1:4" ht="27">
       <c r="A27" s="12"/>
       <c r="B27" s="16" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="7"/>
@@ -3432,14 +3707,14 @@
     <row r="28" spans="1:4">
       <c r="A28" s="12"/>
       <c r="B28" s="16" t="s">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="C28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="40.5">
       <c r="A29" s="12"/>
       <c r="B29" s="16" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="7"/>
@@ -3447,7 +3722,7 @@
     <row r="30" spans="1:4" ht="40.5">
       <c r="A30" s="12"/>
       <c r="B30" s="16" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="7"/>
@@ -3455,7 +3730,7 @@
     <row r="31" spans="1:4">
       <c r="A31" s="12"/>
       <c r="B31" s="17" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D31" s="7"/>
     </row>
@@ -3491,7 +3766,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3512,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3528,7 +3803,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3538,21 +3813,21 @@
     <row r="6" spans="1:4" ht="67.5">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="18"/>
       <c r="B8" s="20" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -3560,14 +3835,14 @@
     <row r="9" spans="1:4" ht="27">
       <c r="A9" s="18"/>
       <c r="B9" s="20" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="A10" s="18"/>
       <c r="B10" s="20" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="7"/>
@@ -3575,28 +3850,28 @@
     <row r="11" spans="1:4" ht="40.5">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="18.75">
       <c r="A12" s="18"/>
       <c r="B12" s="17" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="149.25" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="18"/>
       <c r="B14" s="20" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -3604,27 +3879,27 @@
     <row r="15" spans="1:4" ht="18.75">
       <c r="A15" s="18"/>
       <c r="B15" s="17" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="18.75">
       <c r="A16" s="18"/>
       <c r="B16" s="17" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="18"/>
       <c r="B17" s="17" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="18"/>
       <c r="B18" s="20" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -3632,88 +3907,88 @@
     <row r="19" spans="1:4">
       <c r="A19" s="18"/>
       <c r="B19" s="17" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="18"/>
       <c r="B20" s="17" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75">
       <c r="A21" s="18"/>
       <c r="B21" s="17" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" ht="18.75">
       <c r="A22" s="18"/>
       <c r="B22" s="17" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" ht="18.75">
       <c r="B23" s="17" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="27">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="32.25">
       <c r="B25" s="20" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" s="17" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="B27" s="17" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.75">
       <c r="B28" s="17" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" ht="18.75">
       <c r="B29" s="17" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" ht="18.75">
       <c r="B30" s="17" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="D30" s="7"/>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" s="17" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="17" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="17" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3727,7 +4002,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3748,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3764,7 +4039,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3774,7 +4049,7 @@
     <row r="6" spans="1:2" ht="54">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0BB000-29EA-4448-8B6B-3675EFDDD8F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEE29EC-8776-463A-BD67-265E8C4E38D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" activeTab="12" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" activeTab="13" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,6 @@
     <sheet name="p13" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -185,44 +184,19 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ナビゲーションドロワーにある［参加者］をクリックすると、コースに登録されている学
-生・教職員を一覧することができます。_x000D_</t>
-  </si>
-  <si>
     <t>ナビゲーションドロワーの［参加者］をクリックします</t>
   </si>
   <si>
     <t>［ユーザを登録する］をクリックします</t>
   </si>
   <si>
-    <t>［ユーザを選択する］の検索欄に登録したい人の広大 ID または氏名を入力し、表示
-される候補の中から、登録したい人を選択します</t>
-  </si>
-  <si>
-    <t>［ロールを割り当てる］のロール選択欄をクリックし、表示された候補の中で、学
-生を登録する場合は TA、職員を登録する場合は学生支援職員を選択します</t>
-  </si>
-  <si>
     <t>選択内容を確認して、［ユーザを登録する］をクリックします</t>
   </si>
   <si>
     <t>ロールを追加、変更したい参加者のロールの アイコンをクリックします</t>
   </si>
   <si>
-    <t>追加もしくは変更したいロールをクリックし、削除の場合はロール名左側の×をク
-リックします</t>
-  </si>
-  <si>
-    <t>変更を保存する場合は アイコンをクリックし、変更をキャンセルする場合は×
-をクリックします</t>
-  </si>
-  <si>
     <t>参加者一覧画面でロールが変更されていることが確認できます。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">右上の歯車マークをクリックし、表示されたメニューで［グループ］をクリックし
-ます
-</t>
   </si>
   <si>
     <t>左側のボックスの下にある［グループを作成する］をクリックします</t>
@@ -230,16 +204,6 @@
   <si>
     <t>グループ名を入力し、画面下の［変更を保存する］をクリックします
 引き続いて次項ではグループメンバーの登録方法を説明します。</t>
-  </si>
-  <si>
-    <t>ここではグループメンバーを手動登録する方法を説明します。
-左側のボックスでメンバーを登録したいグループをクリックして選択し、右側の
-ボックス下の［ユーザを追加/削除する］をクリックします</t>
-  </si>
-  <si>
-    <t>右側のボックスで登録するユーザをクリックして選択し、［◀︎追加］をクリックしま
-す
-※ 削除する場合は左側のボックスで削除するユーザをクリックして選択し、［削除▶︎］をクリックしま</t>
   </si>
   <si>
     <t>画面左下の［グループに戻る］をクリックして確認します</t>
@@ -255,34 +219,10 @@
 &lt;/ul&gt;</t>
   </si>
   <si>
-    <t>編集モードを開始し、ファイルを掲載したいセクションの［+ 活動またはリソース
-を追加する］をクリックします</t>
-  </si>
-  <si>
     <t>ダイアログから［ファイル］を選択します</t>
   </si>
   <si>
-    <t>ファイルの設定画面で、ファイルの名称を入力します
-※ ファイルとともに説明を提示したい場合は、説明を入力し、［コースページに説明を表示する］に
-チェックを入れます。</t>
-  </si>
-  <si>
     <t>ファイルをドラッグ＆ドロップし、［保存してコースに戻る］をクリックします</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moodle では教材の公開にあたって、公開対象者を制限したり、学生が教材を利用
-したかどうかを記録するように設定することができます。
-そのような設定をされたい場合は、「13. 利用制限と活動完了」を参照してください。
-またアップロード後のファイルについて再編集をしたい場合は、そのファイルの［編
-集］▼をクリックし、表示されたメニューから操作を選んでください。
-設定を編集する：5.1.1 同様
-右へ：右にインデントします
-非表示：学生から非表示にします
-複製：設定を複製します
-ロールを割り当てる：ロールを割り
-当てます
-削除：ファイルを削除します
-</t>
   </si>
   <si>
     <t>編集モードを開始します</t>
@@ -342,15 +282,6 @@
     <t>課題</t>
   </si>
   <si>
-    <t>moodle の課題は、学生の回答方法として、ファイル提出かオンラインテキスト入力かを指
-定することができます。
-また課題提出後には、レポートについてのフィードバック（コメント）や評定（点数等）を
-追加することもできます。
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="#work"&gt;課題&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>課題を作成したいセクションの［+ 活動またはリソースを追加する］をクリックします</t>
   </si>
   <si>
@@ -358,22 +289,6 @@
   </si>
   <si>
     <t>課題名と必要であれば説明を入力します。</t>
-  </si>
-  <si>
-    <t>この状態で［保存してコースに戻る］をクリックすると、各種設定項目がデフォル
-ト値の課題が作成されます。
-このままでも課題としては動作しますが、課題の締め切りが自動的に 1 週間後にな
-ります。また答案はファイル提出するようになります。
-これらの内容を変更されたい場合は、以降の設定値の説明を参照してください。</t>
-  </si>
-  <si>
-    <t>⚫ 利用
-[Yes]のチェックボックスにチェックした場合のみ、日時の指定が有効になります。
-開始日時：学生はこの日時以前に課題を提出することはできません。
-終了日時：この日時以降に提出された課題は「提出遅延」とマークされます。
-遮断日時：設定した場合、この日時以降は課題の提出を受け付けません。この日時
-前であれば、学生は提出物の差し替え、追加、削除を行うことができます。
-次の日時まで私に評定を思い出させる：課題の評定を完了させる日時です。</t>
   </si>
   <si>
     <t>⚫ 提出タイプ
@@ -387,103 +302,6 @@
 許可されるファイルタイプ：ファイルの拡張子で指定します。</t>
   </si>
   <si>
-    <t>⚫ フィードバックタイプ
-フィードバックコメントにチェックを入れた場合、評定者はそれぞれの提出課題に
-フィードバックコメントを残すことができます。
-フィードバックタイプ：
-フィードバックコメント：提出課題にフィードバックコメントを残すことが
-できます。
-オンライン評定ワークシート：教師の課題評定時に学生評点のワークシート
-をダウンロードおよびアップロードできるようになります。
-フィードバックファイル：課題の評定時にフィードバックと共にファイルを
-アップロードすることができます。
-コメントインライン：オンラインテキストの課題の評定時にフィードバックをで入
-力することができます。</t>
-  </si>
-  <si>
-    <t>⚫ 提出設定
-学生に提出ボタンのクリックを求める：［Yes］の場合、提出時に学生には［課題を
-提出する］というボタンが表示されます。それをクリックすると、その時の提出物
-が最終提出物となり、それ以降、学生はその課題について提出物の差し替え、追加、
-削除を行うことができなくなります。
-例）提出ボタンを押す前の学生の提出ステータスページ
-学生に提出同意書の同意を求める：「Yes」にした場合、提出時に学生は、その提出
-物が自作のものであるという文章にチェックを入れることを求められます。
-追加提出：学生が課題を追加提出できるか設定します。追加提出の際、学生は［前
-回の提出をもとに新しい提出を追加する］か［新しい提出を追加する］かを選択す
-ることになります。また追加提出の可否に関わらず、遮断日時前（遮断日時未設定
-の場合も含む）または提出ボタンをクリックしていない（提出ボタン未設定の場合
-も含む）状態において、学生は提出物の差し替え、追加、削除は可能です。
-なし：学生が提出できるのは 1 回のみです。
-手動：教員の操作により、学生に追加提出させることができます。
-合格するまで自動：課題に設定した合格点に達するまで、学生に追加提出させる
-ことができます。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-⚫ グループ提出設定
-グループ課題を作成する前に、コースにグループを作って学生をグループ登録して
-おく必要があります。
-どのグループにも登録されていない学生はデフォルトグループに登録されます。グ
-ループ課題の提出物はグループ内で共有されます。グループ分けができていないた
-めにデフォルトグループに追加された学生間では、意図しない提出物の共有が起こ
-ることがあります。必ずすべての学生をグループに登録してください。
-学生がグループで提出する：課題をグループ課題にするか否かを決めます。
-提出にグループを必要とする：グループに所属している学生にのみ提出を許可
-するかどうかを決めます。ここを［No］とした場合、参加者の一覧で「グルー
-プなし」の学生はデフォルトグループに組み入れられます。
-グループメンバーすべての提出を必要とする：[提出設定］の［学生に提出ボタ
-ンのクリックを求める］を［Yes］にすると選択可能になります。ここを［Yes］
-にすると提出物はグループ全員が提出ボタンを押すまで下書き状態になります。
-学生グループのグルーピング：コースに複数のグループがあり、その一部のグ
-ループにのみ課題を出したい時に使用します。予め課題を提出さたいグループ
-をまとめたグルーピングを作成しておく必要があります。また課題を対象のグ
-ループに限定して出したい場合は、［提出にグループを必要とする］を［Yes］に
-しておく必要があります。
-</t>
-  </si>
-  <si>
-    <t>⚫ 通知
-評定者に提出を通知する：学生が課題を提出すると教員にメッセージ通知が送信さ
-れます。
-提出遅延者に関して評定者に通知する：学生が課題提出に遅れた地点で、教員にメッ
-セージが送信されます。
-「学生に通知する」のデフォルト設定：評定フォームの「学生に通知する」チェッ
-クボックスにデフォルト値を設定します。</t>
-  </si>
-  <si>
-    <t>⚫ 評点
-タイプ：なし：評点を設定しません。
- 評点：最大評点を設定します。
- 尺度：「尺度」ドロップダウンリストから尺度を選択することができます。
-評定方法：評定方法を選択します。
-評定カテゴリ：評定表内のカテゴリを選択します。
-合格点：合格するために必要な最小評点を決定します。
-ブラインド評定：評定時に学生の個人情報が表示されません。
-採点ワークフローを使用する：学生に公開される前に、評点はワークフローステー
-ジに入ります。教員が一連の評点を同じタイミングで学生すべてに公開することが
-できます。
-採点割り当てを使用する：この設定と「採点ワークフローを使用する」設定を有効
-にした場合、個々の学生に採点者を割り振ることができます。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⚫ モジュール共通設定
-利用：課題を学生に公開するか否かを選択します。
-ID ナンバー：評定計算の目的で活動を識別できます。評定計算に活動が含まれてい
-ない場合、空白のままにすることができます。
-グループモード：あらかじめ、学生をいくつかのグループに分けておくと、グルー
-プ別に活動を実施するように設定できます。
-グループなし：グループ分けを使用しません。
-分離グループ：グループ別に活動を実施します。学生は、自分のグループ内のみ
-閲覧できます。
-可視グループ：グループ別に活動を実施します。学生は、他のグループを閲覧で
-きます。
-グルーピング：グループなしを選択した場合は設定できません。グルーピングを設
-定した場合、グルーピングに割り当てられたメンバー共同で作業することができま
-す。
-</t>
-  </si>
-  <si>
     <t>確認する課題をクリックします</t>
   </si>
   <si>
@@ -493,13 +311,6 @@
     <t>左上の［評定操作］ で［すべての課題をダウンロードする］を選択します</t>
   </si>
   <si>
-    <t>前節（3)の一覧表で、評定したい学生の［評点］ボタンをクリックすると、提出物の採点
-ページが表示されます。［評点］と必要に応じて［フィードバック］を入力し、［保存して
-次を表示する］をクリックします。
-学生に通知するにチェックすると、学生にメールが送信されます。
-ここにメールアドレスが表示されます</t>
-  </si>
-  <si>
     <t>7.2（3）の評価者一覧画面の下部の「オプション」の「クイック評定」にチェックを入れます</t>
   </si>
   <si>
@@ -512,10 +323,6 @@
     <t>小テスト</t>
   </si>
   <si>
-    <t>moodle では小テストを実施することができます。小テストを作成する時は、最初に小テス
-トの動作設定を行い、そのあとで問題を登録します。</t>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="Create"&gt;&lt;/a&gt;小テストの作成&lt;/h3&gt;</t>
   </si>
   <si>
@@ -540,13 +347,6 @@
     <t>［追加する問題タイプを選択する］ダイアログで、追加する問題の種類を選択し、［追加］をクリックします</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h3&gt;&lt;a name="bank"&gt;&lt;/a&gt;問題バンク&lt;/h3&gt;
-小テストに登録した問題は「問題バンク」に登録されます。また「問題バンク」内でも問
-題を作成することができます。「問題バンク」の問題は、他の小テストに再利用できるだ
-けでなく、コース内の他の教員も利用することができます。
-</t>
-  </si>
-  <si>
     <t>コースホーム画面の右上の歯車マークをクリックし、メニューを表示し、「さらに」をクリックします</t>
   </si>
   <si>
@@ -565,11 +365,6 @@
     <t>フォーラムの利用</t>
   </si>
   <si>
-    <t>フォーラムは学生同士の議論や教員からの連絡、フィードバック等幅広く活用することがで
-きます。
-moodle には 5 種類のフォーラムが用意されています。用途に応じてご利用ください。</t>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="Create"&gt;&lt;/a&gt;フォーラムの作成&lt;/h3&gt;</t>
   </si>
   <si>
@@ -580,13 +375,6 @@
   </si>
   <si>
     <t>フォーラムの設定をします</t>
-  </si>
-  <si>
-    <t>フォーラム名：課題の名称を入力します。
-説明：課題の概要や実施手順などを入力します。
-コースページに説明を表示する：［説明］に入力した内容を、コースに表示させる場
-合は、チェックします。
-フォーラムタイプ：フォーラムタイプを指定します。</t>
   </si>
   <si>
     <t>&lt;h3&gt;&lt;a name="Posting"&gt;&lt;/a&gt;フォーラムへの投稿&lt;/h3&gt;
@@ -611,19 +399,9 @@
     <t>&lt;h3&gt;&lt;a name="Subscribing"&gt;&lt;/a&gt;フォーラムの購読&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>フォーラムを購読するか、しないかを選択できます。
-「購読する」を選択すると、フォーラムに投稿が追加された場合、メールで通知が届きます。メール通知が必要ない場合は購読マークをグレーにします。
-ディスカッションの左の☆マークをクリックすると星の色が変わります。星がついているディスカッションは上位に表示されます。</t>
-  </si>
-  <si>
     <t>フィードバック</t>
   </si>
   <si>
-    <t>moodle 上でアンケートを行う時に使用します。
-フィードバックの作成方法は小テストに似ています。最初にフィードバックの動作設定を行
-い、その後に質問を登録します。</t>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="Create"&gt;&lt;/a&gt;フィードバックの作成&lt;/h3&gt;</t>
   </si>
   <si>
@@ -631,28 +409,6 @@
   </si>
   <si>
     <t>ダイアログから［フィードバック］を選択します</t>
-  </si>
-  <si>
-    <t>利用期間を設定します
-フィードバックの開始、終了日時を設定できます。設定する場合は「Yes」にチェッ
-クをいれてください。</t>
-  </si>
-  <si>
-    <t>質問および回答設定を設定します
-ユーザ名を記録する：アンケートを匿名にすることができます。その場合プルダウ
-ンで「匿名」を選択します。回答開始後には変更できません。
-複数回答を許可する：ユーザ名を匿名にした場合、無制限で回答を送信することが
-できます。
-送信通知を有効にする：「Yes」にした場合、回答後メールで教員に通知が届きます。
-問題の自動番号付け：「Yes」にした場合、自動にナンバリングされます。</t>
-  </si>
-  <si>
-    <t>回答送信後の設定をします
-分析ページを表示する：「Yes」にした場合、学生に分析ページが表示されます。
-完了メッセージ：アンケート送信後に表示させたいメッセージがある場合、入力し
-ます。
-次の活動にリンクする：URL を設定することで他の活動にリンクすることができま
-す。</t>
   </si>
   <si>
     <t>必要な項目を入力後［保存してコースに戻る］ボタンをクリックします</t>
@@ -665,42 +421,10 @@
     <t>質問を編集するタブをクリックします</t>
   </si>
   <si>
-    <t>質問を追加するの▼をクリックし、［多肢選択］を選びます
-多肢選択：回答方式について３つの選択肢があります。
-多肢選択（評定）：評定(数値)を設定することにより、平均値等の測定が可能になり
-ます。
-数値回答：範囲（0-10）を設定することができます。
-短文回答：テキストを入力するボックスを設定します。
-長文回答：テキストを入力するボックスを設定します。</t>
-  </si>
-  <si>
-    <t>質問内容を入力します
-表示方法：選択肢の並べ方を垂直／水平のいずれかで選択します。
-「未選択オプション」を隠す：「未選択」の選択肢の可否を設定します。「No」にし
-た場合、選択肢に「未選択」が含まれます。
-多肢選択値：選択肢を入力します。1 行に 1 つの回答を入力します。</t>
-  </si>
-  <si>
     <t>設定完了後、［質問を保存する］をクリックします</t>
   </si>
   <si>
-    <t>質問を追加する場合は、「質問を追加する」のプルダウンから選択し、追加します
-※ 質問内容は編集にて変更することは可能ですが、質問タイプは変更することが出来ません。質問タイプを
-変更したい場合は、削除して新たに質問を作成する必要があります。
-※ 学生には以下のように表示されます。</t>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="confirm"&gt;&lt;/a&gt;回答の確認&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>フィードバックをクリックすると、学生からの回答を確認できます。
-概要に回答した人数が表示されています。［回答を表示する］タブをクリックすると回答
-者ごとの回答を見ることができます。
-匿名でアンケートを作成した場合は、上記のように氏名等は表示されません。ここで
-［テーブルデータをダウンロードする］の▼をクリックして形式を選ぶと、回答をダウン
-ロードすることができます。
-また［分析］タブをクリックすると解答の分析結果を参照できます。分析結果は Excel 形
-式でのみエクスポートができます。</t>
   </si>
   <si>
     <t>評定</t>
@@ -931,19 +655,342 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>&lt;h3&gt;&lt;a name="participant"&gt;&lt;/a&gt;参加者&lt;/h3&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="participant confirmation"&gt;&lt;/a&gt;参加者の確認&lt;/h4&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="course roll"&gt;&lt;/a&gt;コールロールの管理&lt;/h4&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="creating groups"&gt;&lt;/a&gt;グループの手動作成&lt;/h4&gt;
+ここではグループを手動で作成する方法を説明します。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="group members"&gt;&lt;/a&gt;グループメンバーの登録&lt;/h4&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;&lt;a name="file"&gt;&lt;/a&gt;ファイル&lt;/h3&gt;</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;&lt;a name="Publishing files"&gt;&lt;/a&gt;ファイルの公開&lt;/h4&gt;</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="File deletion"&gt;&lt;/a&gt;ファイルの削除&lt;/h4&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="file update"&gt;&lt;/a&gt;ファイルの更新&lt;/h4&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;&lt;a name="folder"&gt;&lt;/a&gt;フォルダ&lt;/h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;
+複数のファイルを 1 つにまとめて掲載できる機能です。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;&lt;a name="work"&gt;&lt;/a&gt;課題&lt;/h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;&lt;a name="Create"&gt;&lt;/a&gt;課題の作成&lt;/h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⚫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 利用制限
+「13. 利用制限と活動完了」を参照してください。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⚫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 活動完了
+「13. 利用制限と活動完了」を参照してください。
+設定完了後、［保存して表示する］をクリックしてください。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;&lt;a name="download"&gt;&lt;/a&gt;課題提出物の一括ダウンロード&lt;/h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;
+設定した課題の提出を確認します。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="Grade"&gt;&lt;/a&gt;評定&lt;/h4&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="registration"&gt;&lt;/a&gt;問題の登録&lt;/h3&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>一括作成されたコースの名称等は以下のルールに従ってつけられています。
 コース名：授業名＋半角 SP＋年度＋半角 SP＋時間割コード(英数字 8 ケタ)となります。
 例）「野外考古学実習Ｃ 2022 BI306002」
-コース省略名：年度(数字 4 桁)_部局コード(数字 2 桁)_時間割コード(英数字 8 ケタ)と
-なります。
+コース省略名：年度(数字 4 桁)_部局コード(数字 2 桁)_時間割コード(英数字 8 ケタ)となります。
 例）「2022_23_BI306002」
 コースカテゴリ：2022 年の直下ではなく下位のコースカテゴリと紐づけてください。
 コース ID ナンバー：編集できません。</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">コースに登録されている学生・教職員には、コースロールが割り当てられます。このコー
-スロールによって、各人がコースで何ができるのかが決まります。
+    <t xml:space="preserve">ナビゲーションドロワーにある［参加者］をクリックすると、コースに登録されている学生・教職員を一覧することができます。
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">コースに登録されている学生・教職員には、コースロールが割り当てられます。このコースロールによって、各人がコースで何ができるのかが決まります。
 広大 moodle に用意されているコースロールは、以下の通りです。
 ・主担当教員
 ・世話教員
@@ -955,241 +1002,163 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="participant"&gt;&lt;/a&gt;参加者&lt;/h3&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="participant confirmation"&gt;&lt;/a&gt;参加者の確認&lt;/h4&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>&lt;h4&gt;&lt;a name="registration of ta"&gt;&lt;/a&gt;TA の登録&lt;/h4&gt;
-「もみじ」と連携したコースであれば、主担当教員、副担当教員、世話教員、履修登録し
-た学生は自動的に登録されますが、TA や授業を補助する職員は自動登録されません。し
-たがって、TA や授業を補助する職員は、教員がコースで登録する必要があります。
+「もみじ」と連携したコースであれば、主担当教員、副担当教員、世話教員、履修登録した学生は自動的に登録されますが、TA や授業を補助する職員は自動登録されません。したがって、TA や授業を補助する職員は、教員がコースで登録する必要があります。
 ここではその登録方法を説明します。</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&lt;h4&gt;&lt;a name="course roll"&gt;&lt;/a&gt;コールロールの管理&lt;/h4&gt;</t>
+    <t>［ユーザを選択する］の検索欄に登録したい人の広大 ID または氏名を入力し、表示される候補の中から、登録したい人を選択します</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>［ロールを割り当てる］のロール選択欄をクリックし、表示された候補の中で、学生を登録する場合は TA、職員を登録する場合は学生支援職員を選択します</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>追加もしくは変更したいロールをクリックし、削除の場合はロール名左側の×をクリックします</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>変更を保存する場合は アイコンをクリックし、変更をキャンセルする場合は×をクリックします</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">&lt;h3&gt;&lt;a name="group management"&gt;&lt;/a&gt;グループ管理&lt;/h3&gt;
-moodle のコースでは学生をグループ分けすることができます。そうすることで、グルー
-プワークをさせたり、グループごとに異なる教材を提示したりすることが可能です。
+moodle のコースでは学生をグループ分けすることができます。そうすることで、グループワークをさせたり、グループごとに異なる教材を提示したりすることが可能です。
 ここではグループ作成の方法をご説明します。
-グループでは、メンバー間での共同作業をしたり、異なるグループのメンバーやその提出
-やフォーラム投稿を見えなくするなどの作用があります。
+グループでは、メンバー間での共同作業をしたり、異なるグループのメンバーやその提出やフォーラム投稿を見えなくするなどの作用があります。
 </t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&lt;h4&gt;&lt;a name="creating groups"&gt;&lt;/a&gt;グループの手動作成&lt;/h4&gt;
-ここではグループを手動で作成する方法を説明します。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="group members"&gt;&lt;/a&gt;グループメンバーの登録&lt;/h4&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h</t>
+    <t>右上の歯車マークをクリックし、表示されたメニューで［グループ］をクリックします</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ここではグループメンバーを手動登録する方法を説明します。
+左側のボックスでメンバーを登録したいグループをクリックして選択し、右側のボックス下の［ユーザを追加/削除する］をクリックします</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>右側のボックスで登録するユーザをクリックして選択し、［</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="ＭＳ ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>3</t>
+      <t>追加］をクリックします</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>削除する場合は左側のボックスで削除するユーザをクリックして選択し、［削除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="3"/>
+      </rPr>
+      <t>］をクリックしま</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>編集モードを開始し、ファイルを掲載したいセクションの［+ 活動またはリソースを追加する］をクリックします</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ファイルの設定画面で、ファイルの名称を入力します
+※ ファイルとともに説明を提示したい場合は、説明を入力し、［コースページに説明を表示する］にチェックを入れます。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>moodle では教材の公開にあたって、公開対象者を制限したり、学生が教材を利用したかどうかを記録するように設定することができます。
+そのような設定をされたい場合は、「13. 利用制限と活動完了」を参照してください。
+またアップロード後のファイルについて再編集をしたい場合は、そのファイルの［編集］</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>▼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック "/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>&gt;&lt;a name="file"&gt;&lt;/a&gt;ファイル&lt;/h3&gt;</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;&lt;a name="Publishing files"&gt;&lt;/a&gt;ファイルの公開&lt;/h4&gt;</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="File deletion"&gt;&lt;/a&gt;ファイルの削除&lt;/h4&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="file update"&gt;&lt;/a&gt;ファイルの更新&lt;/h4&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;&lt;a name="folder"&gt;&lt;/a&gt;フォルダ&lt;/h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;
-複数のファイルを 1 つにまとめて掲載できる機能です。</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;&lt;a name="work"&gt;&lt;/a&gt;課題&lt;/h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;&lt;a name="Create"&gt;&lt;/a&gt;課題の作成&lt;/h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
+      <t>をクリックし、表示されたメニューから操作を選んでください。
+設定を編集する：5.1.1 同様
+右へ：右にインデントします
+非表示：学生から非表示にします
+複製：設定を複製します
+ロールを割り当てる：ロールを割り当てます
+削除：ファイルを削除します</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>moodle の課題は、学生の回答方法として、ファイル提出かオンラインテキスト入力かを指定することができます。
+また課題提出後には、レポートについてのフィードバック（コメント）や評定（点数等）を追加することもできます。
+&lt;ul&gt;
+&lt;li&gt;&lt;a href="#work"&gt;課題&lt;/a&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>この状態で［保存してコースに戻る］をクリックすると、各種設定項目がデフォルト値の課題が作成されます。
+このままでも課題としては動作しますが、課題の締め切りが自動的に 1 週間後になります。また答案はファイル提出するようになります。これらの内容を変更されたい場合は、以降の設定値の説明を参照してください。</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1210,10 +1179,16 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve"> 利用制限
-「13. 利用制限と活動完了」を参照してください。
-</t>
-    </r>
+      <t xml:space="preserve"> 利用
+[Yes]のチェックボックスにチェックした場合のみ、日時の指定が有効になります。
+開始日時：学生はこの日時以前に課題を提出することはできません。
+終了日時：この日時以降に提出された課題は「提出遅延」とマークされます。
+遮断日時：設定した場合、この日時以降は課題の提出を受け付けません。この日時前であれば、学生は提出物の差し替え、追加、削除を行うことができます。
+次の日時まで私に評定を思い出させる：課題の評定を完了させる日時です。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1231,71 +1206,318 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve"> 活動完了
-「13. 利用制限と活動完了」を参照してください。
-設定完了後、［保存して表示する］をクリックしてください。</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
+      <t xml:space="preserve"> フィードバックタイプ
+フィードバックコメントにチェックを入れた場合、評定者はそれぞれの提出課題にフィードバックコメントを残すことができます。
+フィードバックタイプ：
+フィードバックコメント：提出課題にフィードバックコメントを残すことができます。
+オンライン評定ワークシート：教師の課題評定時に学生評点のワークシートをダウンロードおよびアップロードできるようになります。
+フィードバックファイル：課題の評定時にフィードバックと共にファイルをアップロードすることができます。
+コメントインライン：オンラインテキストの課題の評定時にフィードバックをで入力することができます。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⚫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+      <t xml:space="preserve"> 提出設定
+学生に提出ボタンのクリックを求める：［Yes］の場合、提出時に学生には［課題を提出する］というボタンが表示されます。それをクリックすると、その時の提出物が最終提出物となり、それ以降、学生はその課題について提出物の差し替え、追加、削除を行うことができなくなります。
+例）提出ボタンを押す前の学生の提出ステータスページ
+学生に提出同意書の同意を求める：「Yes」にした場合、提出時に学生は、その提出物が自作のものであるという文章にチェックを入れることを求められます。
+追加提出：学生が課題を追加提出できるか設定します。追加提出の際、学生は［前回の提出をもとに新しい提出を追加する］か［新しい提出を追加する］かを選択することになります。また追加提出の可否に関わらず、遮断日時前（遮断日時未設定の場合も含む）または提出ボタンをクリックしていない（提出ボタン未設定の場合も含む）状態において、学生は提出物の差し替え、追加、削除は可能です。
+なし：学生が提出できるのは 1 回のみです。
+手動：教員の操作により、学生に追加提出させることができます。
+合格するまで自動：課題に設定した合格点に達するまで、学生に追加提出させることができます。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⚫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> グループ提出設定
+グループ課題を作成する前に、コースにグループを作って学生をグループ登録しておく必要があります。
+どのグループにも登録されていない学生はデフォルトグループに登録されます。グループ課題の提出物はグループ内で共有されます。グループ分けができていないためにデフォルトグループに追加された学生間では、意図しない提出物の共有が起こることがあります。必ずすべての学生をグループに登録してください。
+学生がグループで提出する：課題をグループ課題にするか否かを決めます。
+提出にグループを必要とする：グループに所属している学生にのみ提出を許可するかどうかを決めます。ここを［No］とした場合、参加者の一覧で「グループなし」の学生はデフォルトグループに組み入れられます。
+グループメンバーすべての提出を必要とする：[提出設定］の［学生に提出ボタンのクリックを求める］を［Yes］にすると選択可能になります。ここを［Yes］にすると提出物はグループ全員が提出ボタンを押すまで下書き状態になります。
+学生グループのグルーピング：コースに複数のグループがあり、その一部のグループにのみ課題を出したい時に使用します。予め課題を提出さたいグループをまとめたグルーピングを作成しておく必要があります。また課題を対象のグループに限定して出したい場合は、［提出にグループを必要とする］を［Yes］にしておく必要があります。
+</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⚫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 通知
+評定者に提出を通知する：学生が課題を提出すると教員にメッセージ通知が送信されます。
+提出遅延者に関して評定者に通知する：学生が課題提出に遅れた地点で、教員にメッセージが送信されます。
+「学生に通知する」のデフォルト設定：評定フォームの「学生に通知する」チェックボックスにデフォルト値を設定します。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⚫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 評点
+タイプ：なし：評点を設定しません。
+ 評点：最大評点を設定します。
+ 尺度：「尺度」ドロップダウンリストから尺度を選択することができます。
+評定方法：評定方法を選択します。
+評定カテゴリ：評定表内のカテゴリを選択します。
+合格点：合格するために必要な最小評点を決定します。
+ブラインド評定：評定時に学生の個人情報が表示されません。
+採点ワークフローを使用する：学生に公開される前に、評点はワークフローステージに入ります。教員が一連の評点を同じタイミングで学生すべてに公開することができます。
+採点割り当てを使用する：この設定と「採点ワークフローを使用する」設定を有効にした場合、個々の学生に採点者を割り振ることができます。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⚫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> モジュール共通設定
+利用：課題を学生に公開するか否かを選択します。
+ID ナンバー：評定計算の目的で活動を識別できます。評定計算に活動が含まれていない場合、空白のままにすることができます。
+グループモード：あらかじめ、学生をいくつかのグループに分けておくと、グループ別に活動を実施するように設定できます。
+グループなし：グループ分けを使用しません。
+分離グループ：グループ別に活動を実施します。学生は、自分のグループ内のみ閲覧できます。
+可視グループ：グループ別に活動を実施します。学生は、他のグループを閲覧できます。
+グルーピング：グループなしを選択した場合は設定できません。グルーピングを設定した場合、グルーピングに割り当てられたメンバー共同で作業することができます。
+</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>前節（3)の一覧表で、評定したい学生の［評点］ボタンをクリックすると、提出物の採点ページが表示されます。［評点］と必要に応じて［フィードバック］を入力し、［保存して次を表示する］をクリックします。
+学生に通知するにチェックすると、学生にメールが送信されます。
+ここにメールアドレスが表示されます</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="quick"&gt;&lt;/a&gt;クイック評定&lt;/h4&gt;
+評定には前節の方法以外に、7.2（3）の一覧表で評点とフィードバックを入力する方法もあります。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>moodle では小テストを実施することができます。小テストを作成する時は、最初に小テストの動作設定を行い、そのあとで問題を登録します。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;&lt;a name="bank"&gt;&lt;/a&gt;問題バンク&lt;/h3&gt;
+小テストに登録した問題は「問題バンク」に登録されます。また「問題バンク」内でも問題を作成することができます。「問題バンク」の問題は、他の小テストに再利用できるだけでなく、コース内の他の教員も利用することができます。
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォーラムは学生同士の議論や教員からの連絡、フィードバック等幅広く活用することができます。
+moodle には 5 種類のフォーラムが用意されています。用途に応じてご利用ください。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォーラム名：課題の名称を入力します。
+説明：課題の概要や実施手順などを入力します。
+コースページに説明を表示する：［説明］に入力した内容を、コースに表示させる場合は、チェックします。
+フォーラムタイプ：フォーラムタイプを指定します。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>フォーラムを購読するか、しないかを選択できます。
+「購読する」を選択すると、フォーラムに投稿が追加された場合、メールで通知が届きます。メール通知が必要ない場合は購読マークをグレーにします。
+ディスカッションの左の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>☆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック "/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>&gt;&lt;a name="download"&gt;&lt;/a&gt;課題提出物の一括ダウンロード&lt;/h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
+      <t>マークをクリックすると星の色が変わります。星がついているディスカッションは上位に表示されます。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>moodle 上でアンケートを行う時に使用します。
+フィードバックの作成方法は小テストに似ています。最初にフィードバックの動作設定を行い、その後に質問を登録します。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>利用期間を設定します
+フィードバックの開始、終了日時を設定できます。設定する場合は「Yes」にチェックをいれてください。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問および回答設定を設定します
+ユーザ名を記録する：アンケートを匿名にすることができます。その場合プルダウンで「匿名」を選択します。回答開始後には変更できません。
+複数回答を許可する：ユーザ名を匿名にした場合、無制限で回答を送信することができます。
+送信通知を有効にする：「Yes」にした場合、回答後メールで教員に通知が届きます。
+問題の自動番号付け：「Yes」にした場合、自動にナンバリングされます。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>回答送信後の設定をします
+分析ページを表示する：「Yes」にした場合、学生に分析ページが表示されます。
+完了メッセージ：アンケート送信後に表示させたいメッセージがある場合、入力します。
+次の活動にリンクする：URL を設定することで他の活動にリンクすることができます。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>質問を追加するの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
         <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+      </rPr>
+      <t>▼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック "/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>&gt;
-設定した課題の提出を確認します。</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="Grade"&gt;&lt;/a&gt;評定&lt;/h4&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="quick"&gt;&lt;/a&gt;クイック評定&lt;/h4&gt;
-評定には前節の方法以外に、7.2（3）の一覧表で評点とフィードバックを入力する方法
-もあります。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="registration"&gt;&lt;/a&gt;問題の登録&lt;/h3&gt;</t>
+      <t>をクリックし、［多肢選択］を選びます
+多肢選択：回答方式について３つの選択肢があります。
+多肢選択（評定）：評定(数値)を設定することにより、平均値等の測定が可能になります。
+数値回答：範囲（0-10）を設定することができます。
+短文回答：テキストを入力するボックスを設定します。
+長文回答：テキストを入力するボックスを設定します。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問内容を入力します
+表示方法：選択肢の並べ方を垂直／水平のいずれかで選択します。
+「未選択オプション」を隠す：「未選択」の選択肢の可否を設定します。「No」にした場合、選択肢に「未選択」が含まれます。
+多肢選択値：選択肢を入力します。1 行に 1 つの回答を入力します。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問を追加する場合は、「質問を追加する」のプルダウンから選択し、追加します
+※ 質問内容は編集にて変更することは可能ですが、質問タイプは変更することが出来ません。質問タイプを変更したい場合は、削除して新たに質問を作成する必要があります。
+※ 学生には以下のように表示されます。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>フィードバックをクリックすると、学生からの回答を確認できます。
+概要に回答した人数が表示されています。［回答を表示する］タブをクリックすると回答者ごとの回答を見ることができます。
+匿名でアンケートを作成した場合は、上記のように氏名等は表示されません。ここで［テーブルデータをダウンロードする］の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>▼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をクリックして形式を選ぶと、回答をダウンロードすることができます。
+また［分析］タブをクリックすると解答の分析結果を参照できます。分析結果は Excel 形式でのみエクスポートができます。</t>
+    </r>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1303,7 +1525,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1401,6 +1623,25 @@
       <name val="ＭＳ Ｐゴシック "/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1844,7 +2085,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1854,7 +2095,7 @@
     <row r="5" spans="1:2" ht="40.5">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1872,7 +2113,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1895,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -1915,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -1926,10 +2167,10 @@
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
     </row>
-    <row r="6" spans="1:4" ht="94.5">
+    <row r="6" spans="1:4" ht="81">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -1937,7 +2178,7 @@
     <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -1945,7 +2186,7 @@
     <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="18"/>
       <c r="B8" s="20" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -1953,147 +2194,148 @@
     <row r="9" spans="1:4">
       <c r="A9" s="18"/>
       <c r="B9" s="20" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="21" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="21" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="18.75">
       <c r="B12" s="21" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" ht="67.5">
+    <row r="13" spans="1:4" ht="40.5">
       <c r="B13" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="108">
-      <c r="B14" s="22" t="s">
-        <v>78</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="111">
+      <c r="B14" s="24" t="s">
+        <v>179</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="121.5">
       <c r="B15" s="22" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" ht="162">
-      <c r="B16" s="22" t="s">
-        <v>80</v>
+    <row r="16" spans="1:4" ht="124.5">
+      <c r="B16" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="2:4" ht="229.5">
-      <c r="B17" s="22" t="s">
-        <v>81</v>
+    <row r="17" spans="2:4" ht="192">
+      <c r="B17" s="24" t="s">
+        <v>181</v>
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="2:4" ht="283.5">
+    <row r="18" spans="2:4" ht="219">
       <c r="B18" s="22" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="2:4" ht="94.5">
-      <c r="B19" s="22" t="s">
-        <v>83</v>
+    <row r="19" spans="2:4" ht="70.5">
+      <c r="B19" s="24" t="s">
+        <v>183</v>
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="2:4" ht="175.5">
-      <c r="B20" s="22" t="s">
-        <v>84</v>
+    <row r="20" spans="2:4" ht="165">
+      <c r="B20" s="24" t="s">
+        <v>184</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="2:4" ht="293.25" customHeight="1">
-      <c r="B21" s="22" t="s">
-        <v>85</v>
+      <c r="B21" s="24" t="s">
+        <v>185</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="2:4" ht="104.25" customHeight="1">
       <c r="B22" s="24" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="32.25">
       <c r="B23" s="20" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="21" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="18.75">
       <c r="B25" s="21" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="2:4" ht="18.75">
       <c r="B26" s="21" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="67.5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="54">
       <c r="B28" s="22" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="2:4" ht="40.5">
+    <row r="29" spans="2:4" ht="27">
       <c r="B29" s="22" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="18.75">
       <c r="B30" s="21" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="2:4" ht="18.75">
       <c r="B31" s="21" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="2:4" ht="18.75">
       <c r="B32" s="21" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D32" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2101,8 +2343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CED9BC5-84B4-4D12-B0B3-4DC22ED77DC1}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2125,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23"/>
@@ -2145,7 +2387,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2159,7 +2401,7 @@
     <row r="6" spans="1:4" ht="27">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -2167,96 +2409,96 @@
     <row r="7" spans="1:4">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="21" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="21" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="21" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="21" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="21" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="20" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="B14" s="21" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="B15" s="21" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="18.75">
       <c r="B16" s="21" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="2:4" ht="53.25" customHeight="1">
       <c r="B17" s="20" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
     </row>
     <row r="18" spans="2:4" ht="18.75">
       <c r="B18" s="21" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="2:4" ht="18.75">
       <c r="B19" s="21" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="2:4" ht="18.75">
       <c r="B20" s="21" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="21" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="21" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2269,8 +2511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DD84A2-8553-4736-8CDC-02E4220E2CE5}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2293,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23"/>
@@ -2313,7 +2555,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2327,7 +2569,7 @@
     <row r="6" spans="1:4" ht="40.5">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -2335,86 +2577,86 @@
     <row r="7" spans="1:4">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="21" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="21" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="21" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="21" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="67.5">
       <c r="B12" s="22" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="27">
       <c r="B13" s="20" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="B14" s="21" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="B15" s="21" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="18.75">
       <c r="B16" s="21" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="2:4" ht="18.75">
       <c r="B17" s="21" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="2:4" ht="18.75">
       <c r="B18" s="21" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="2:4" ht="15.75" customHeight="1">
       <c r="B19" s="20" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
     </row>
-    <row r="20" spans="2:4" ht="67.5">
+    <row r="20" spans="2:4" ht="70.5">
       <c r="B20" s="22" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="D20" s="7"/>
     </row>
@@ -2428,8 +2670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5F1CFD-792A-40F7-A551-A5197A9AF048}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2452,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23"/>
@@ -2472,7 +2714,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2486,7 +2728,7 @@
     <row r="6" spans="1:4" ht="40.5">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -2494,100 +2736,100 @@
     <row r="7" spans="1:4">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="21" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="21" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="21" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="21" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="40.5">
       <c r="B12" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="94.5">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="81">
       <c r="B13" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="81">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="54">
       <c r="B14" s="22" t="s">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="B15" s="22" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="27">
       <c r="B16" s="20" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
     </row>
     <row r="17" spans="2:4" ht="18.75">
       <c r="B17" s="21" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="2:4" ht="94.5">
+    <row r="18" spans="2:4" ht="84">
       <c r="B18" s="22" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="2:4" ht="67.5">
       <c r="B19" s="22" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="2:4" ht="18.75">
       <c r="B20" s="22" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="2:4" ht="67.5">
+    <row r="21" spans="2:4" ht="54">
       <c r="B21" s="22" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="108">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="111">
       <c r="B23" s="22" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -2603,7 +2845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454927E8-BBE5-4EB0-9F20-CB3C0B8D7DE8}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -2627,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23"/>
@@ -2647,7 +2889,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2755,7 +2997,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2764,7 +3006,7 @@
     <row r="6" spans="1:4" ht="121.5">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2849,7 +3091,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2886,7 +3128,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2902,13 +3144,13 @@
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2927,7 +3169,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" s="8" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -3003,7 +3245,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3040,7 +3282,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3050,13 +3292,13 @@
     <row r="6" spans="1:4" ht="135">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3078,13 +3320,13 @@
     <row r="10" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" s="8" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" s="10" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3146,7 +3388,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3183,7 +3425,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3193,13 +3435,13 @@
     <row r="6" spans="1:4" ht="81">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3214,7 +3456,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="C9" s="5"/>
     </row>
@@ -3265,7 +3507,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3303,7 +3545,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3319,7 +3561,7 @@
     <row r="7" spans="1:4" ht="40.5">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3341,7 +3583,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" s="8" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -3349,7 +3591,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" s="8" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -3357,7 +3599,7 @@
     <row r="12" spans="1:4" ht="27">
       <c r="A12" s="5"/>
       <c r="B12" s="8" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C12" s="5"/>
     </row>
@@ -3378,7 +3620,7 @@
     <row r="15" spans="1:4">
       <c r="A15" s="5"/>
       <c r="B15" s="8" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -3386,21 +3628,21 @@
     <row r="16" spans="1:4" ht="40.5">
       <c r="A16" s="5"/>
       <c r="B16" s="8" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5"/>
       <c r="B17" s="8" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" ht="40.5">
       <c r="A18" s="5"/>
       <c r="B18" s="8" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="C18" s="5"/>
     </row>
@@ -3421,7 +3663,7 @@
     <row r="21" spans="1:3" ht="40.5">
       <c r="A21" s="5"/>
       <c r="B21" s="8" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="C21" s="5"/>
     </row>
@@ -3435,26 +3677,26 @@
     <row r="23" spans="1:3" ht="40.5">
       <c r="A23" s="5"/>
       <c r="B23" s="8" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="5"/>
       <c r="B24" s="8" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="27">
       <c r="A25" s="5"/>
       <c r="B25" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="121.5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="108">
       <c r="A26" s="5"/>
       <c r="B26" s="10" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3491,7 +3733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30402F76-58EB-463D-B02C-1E24EF5472B7}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -3530,7 +3772,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3546,7 +3788,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="12"/>
       <c r="B7" s="16" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -3554,7 +3796,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="12"/>
       <c r="B8" s="16" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -3562,7 +3804,7 @@
     <row r="9" spans="1:4" ht="26.25" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="16" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="7"/>
@@ -3570,14 +3812,14 @@
     <row r="10" spans="1:4" ht="114.75" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="16" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:4" ht="67.5">
+    <row r="11" spans="1:4" ht="54">
       <c r="A11" s="12"/>
       <c r="B11" s="16" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -3585,36 +3827,36 @@
     <row r="12" spans="1:4">
       <c r="A12" s="12"/>
       <c r="B12" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="12"/>
       <c r="B13" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" ht="27">
+    <row r="14" spans="1:4">
       <c r="A14" s="12"/>
       <c r="B14" s="16" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:4" ht="27">
       <c r="A15" s="12"/>
       <c r="B15" s="16" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="C15" s="12"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="12"/>
       <c r="B16" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="7"/>
@@ -3622,30 +3864,30 @@
     <row r="17" spans="1:4">
       <c r="A17" s="12"/>
       <c r="B17" s="16" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="12"/>
       <c r="B18" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" ht="27">
+    <row r="19" spans="1:4">
       <c r="A19" s="12"/>
       <c r="B19" s="16" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" ht="27">
+    <row r="20" spans="1:4">
       <c r="A20" s="12"/>
       <c r="B20" s="16" t="s">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="7"/>
@@ -3653,7 +3895,7 @@
     <row r="21" spans="1:4">
       <c r="A21" s="12"/>
       <c r="B21" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="7"/>
@@ -3661,7 +3903,7 @@
     <row r="22" spans="1:4" ht="94.5">
       <c r="A22" s="12"/>
       <c r="B22" s="16" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -3669,21 +3911,21 @@
     <row r="23" spans="1:4" ht="27">
       <c r="A23" s="12"/>
       <c r="B23" s="16" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="12"/>
       <c r="B24" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="12"/>
     </row>
-    <row r="25" spans="1:4" ht="40.5">
+    <row r="25" spans="1:4">
       <c r="A25" s="12"/>
       <c r="B25" s="16" t="s">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="7"/>
@@ -3691,7 +3933,7 @@
     <row r="26" spans="1:4">
       <c r="A26" s="12"/>
       <c r="B26" s="16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="7"/>
@@ -3699,7 +3941,7 @@
     <row r="27" spans="1:4" ht="27">
       <c r="A27" s="12"/>
       <c r="B27" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="7"/>
@@ -3707,22 +3949,22 @@
     <row r="28" spans="1:4">
       <c r="A28" s="12"/>
       <c r="B28" s="16" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="C28" s="12"/>
     </row>
-    <row r="29" spans="1:4" ht="40.5">
+    <row r="29" spans="1:4" ht="27">
       <c r="A29" s="12"/>
       <c r="B29" s="16" t="s">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:4" ht="40.5">
+    <row r="30" spans="1:4" ht="30">
       <c r="A30" s="12"/>
       <c r="B30" s="16" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="7"/>
@@ -3730,7 +3972,7 @@
     <row r="31" spans="1:4">
       <c r="A31" s="12"/>
       <c r="B31" s="17" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D31" s="7"/>
     </row>
@@ -3765,8 +4007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AB5327-E917-4FC1-87EA-50E5E24BBDE2}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3787,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3803,7 +4045,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3813,13 +4055,13 @@
     <row r="6" spans="1:4" ht="67.5">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -3827,22 +4069,22 @@
     <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="18"/>
       <c r="B8" s="20" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
     </row>
-    <row r="9" spans="1:4" ht="27">
+    <row r="9" spans="1:4">
       <c r="A9" s="18"/>
       <c r="B9" s="20" t="s">
-        <v>50</v>
+        <v>174</v>
       </c>
       <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="A10" s="18"/>
       <c r="B10" s="20" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="7"/>
@@ -3850,28 +4092,28 @@
     <row r="11" spans="1:4" ht="40.5">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="18.75">
       <c r="A12" s="18"/>
       <c r="B12" s="17" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" ht="149.25" customHeight="1">
+    <row r="13" spans="1:4" ht="151.5">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="18"/>
       <c r="B14" s="20" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -3879,27 +4121,27 @@
     <row r="15" spans="1:4" ht="18.75">
       <c r="A15" s="18"/>
       <c r="B15" s="17" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="18.75">
       <c r="A16" s="18"/>
       <c r="B16" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="18"/>
       <c r="B17" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="18"/>
       <c r="B18" s="20" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -3907,88 +4149,88 @@
     <row r="19" spans="1:4">
       <c r="A19" s="18"/>
       <c r="B19" s="17" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="18"/>
       <c r="B20" s="17" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75">
       <c r="A21" s="18"/>
       <c r="B21" s="17" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" ht="18.75">
       <c r="A22" s="18"/>
       <c r="B22" s="17" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" ht="18.75">
       <c r="B23" s="17" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" s="17" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="32.25">
       <c r="B25" s="20" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" s="17" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="B27" s="17" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.75">
       <c r="B28" s="17" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" ht="18.75">
       <c r="B29" s="17" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" ht="18.75">
       <c r="B30" s="17" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D30" s="7"/>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" s="17" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="17" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="17" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -4023,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4039,7 +4281,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4049,7 +4291,7 @@
     <row r="6" spans="1:2" ht="54">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEE29EC-8776-463A-BD67-265E8C4E38D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE9AC74-86EA-4D7D-BED1-EDBAC880E9F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" activeTab="13" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" activeTab="7" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="212">
   <si>
     <t>header1</t>
   </si>
@@ -212,13 +212,6 @@
     <t>授業資料</t>
   </si>
   <si>
-    <t>学生に資料を提示するために PDF や Word、Excel ファイル等をコースに掲載できます。
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="#file"&gt;ファイル&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="#folder"&gt;フォルダ&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>ダイアログから［ファイル］を選択します</t>
   </si>
   <si>
@@ -232,9 +225,6 @@
   </si>
   <si>
     <t>ダイアログが表示されるので［Yes］をクリックして削除します。</t>
-  </si>
-  <si>
-    <t>ファイルの［編集］▼をクリックし、メニューで［設定を編集する］を選択します</t>
   </si>
   <si>
     <t>現在のファイルをクリックします</t>
@@ -1520,12 +1510,64 @@
     </r>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>更新したいファイルのメニューで［設定を編集する］を選択します</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>学生に資料を提示するために PDF や Word、Excel ファイル等をコースに掲載できます。
+&lt;ul&gt;
+&lt;li&gt;&lt;a href="#file"&gt;ファイル&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#folder"&gt;フォルダ&lt;/a&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>chartn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>file1.png</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>file2.png</t>
+  </si>
+  <si>
+    <t>file3.png</t>
+  </si>
+  <si>
+    <t>file4.png</t>
+  </si>
+  <si>
+    <t>file5.png</t>
+  </si>
+  <si>
+    <t>file6.png</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>file7.png</t>
+  </si>
+  <si>
+    <t>file8.png</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>file9.png</t>
+  </si>
+  <si>
+    <t>file10.png</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1643,6 +1685,13 @@
       <name val="Segoe UI Symbol"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1666,7 +1715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1737,6 +1786,21 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2085,7 +2149,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2095,7 +2159,7 @@
     <row r="5" spans="1:2" ht="40.5">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2136,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -2156,7 +2220,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2170,7 +2234,7 @@
     <row r="6" spans="1:4" ht="81">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -2178,7 +2242,7 @@
     <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2186,7 +2250,7 @@
     <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="18"/>
       <c r="B8" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -2194,141 +2258,141 @@
     <row r="9" spans="1:4">
       <c r="A9" s="18"/>
       <c r="B9" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="18.75">
       <c r="B12" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="40.5">
       <c r="B13" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="111">
       <c r="B14" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="121.5">
       <c r="B15" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="124.5">
       <c r="B16" s="24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="2:4" ht="192">
       <c r="B17" s="24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="2:4" ht="219">
       <c r="B18" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="2:4" ht="70.5">
       <c r="B19" s="24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="2:4" ht="165">
       <c r="B20" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="2:4" ht="293.25" customHeight="1">
       <c r="B21" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="2:4" ht="104.25" customHeight="1">
       <c r="B22" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="32.25">
       <c r="B23" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="18.75">
       <c r="B25" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="2:4" ht="18.75">
       <c r="B26" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="54">
       <c r="B28" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="2:4" ht="27">
       <c r="B29" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="18.75">
       <c r="B30" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="2:4" ht="18.75">
       <c r="B31" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="2:4" ht="18.75">
       <c r="B32" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D32" s="7"/>
     </row>
@@ -2343,7 +2407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CED9BC5-84B4-4D12-B0B3-4DC22ED77DC1}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2367,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23"/>
@@ -2387,7 +2451,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2401,7 +2465,7 @@
     <row r="6" spans="1:4" ht="27">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -2409,96 +2473,96 @@
     <row r="7" spans="1:4">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="B14" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="B15" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="18.75">
       <c r="B16" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="2:4" ht="53.25" customHeight="1">
       <c r="B17" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
     </row>
     <row r="18" spans="2:4" ht="18.75">
       <c r="B18" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="2:4" ht="18.75">
       <c r="B19" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="2:4" ht="18.75">
       <c r="B20" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2535,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23"/>
@@ -2555,7 +2619,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2569,7 +2633,7 @@
     <row r="6" spans="1:4" ht="40.5">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -2577,86 +2641,86 @@
     <row r="7" spans="1:4">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="67.5">
       <c r="B12" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="27">
       <c r="B13" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="B14" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="B15" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="18.75">
       <c r="B16" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="2:4" ht="18.75">
       <c r="B17" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="2:4" ht="18.75">
       <c r="B18" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="2:4" ht="15.75" customHeight="1">
       <c r="B19" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
     </row>
     <row r="20" spans="2:4" ht="70.5">
       <c r="B20" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D20" s="7"/>
     </row>
@@ -2670,7 +2734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5F1CFD-792A-40F7-A551-A5197A9AF048}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -2694,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23"/>
@@ -2714,7 +2778,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2728,7 +2792,7 @@
     <row r="6" spans="1:4" ht="40.5">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -2736,100 +2800,100 @@
     <row r="7" spans="1:4">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="40.5">
       <c r="B12" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81">
       <c r="B13" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="54">
       <c r="B14" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="B15" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="27">
       <c r="B16" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
     </row>
     <row r="17" spans="2:4" ht="18.75">
       <c r="B17" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="2:4" ht="84">
       <c r="B18" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="2:4" ht="67.5">
       <c r="B19" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="2:4" ht="18.75">
       <c r="B20" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="2:4" ht="54">
       <c r="B21" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="111">
       <c r="B23" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -2845,8 +2909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454927E8-BBE5-4EB0-9F20-CB3C0B8D7DE8}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2869,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23"/>
@@ -2889,7 +2953,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2997,7 +3061,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3006,7 +3070,7 @@
     <row r="6" spans="1:4" ht="121.5">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3128,7 +3192,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3144,13 +3208,13 @@
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3169,7 +3233,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -3282,7 +3346,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3292,13 +3356,13 @@
     <row r="6" spans="1:4" ht="135">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3320,13 +3384,13 @@
     <row r="10" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3425,7 +3489,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3435,13 +3499,13 @@
     <row r="6" spans="1:4" ht="81">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3456,7 +3520,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C9" s="5"/>
     </row>
@@ -3545,7 +3609,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3561,7 +3625,7 @@
     <row r="7" spans="1:4" ht="40.5">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3583,7 +3647,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -3591,7 +3655,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -3599,7 +3663,7 @@
     <row r="12" spans="1:4" ht="27">
       <c r="A12" s="5"/>
       <c r="B12" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C12" s="5"/>
     </row>
@@ -3620,7 +3684,7 @@
     <row r="15" spans="1:4">
       <c r="A15" s="5"/>
       <c r="B15" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -3628,21 +3692,21 @@
     <row r="16" spans="1:4" ht="40.5">
       <c r="A16" s="5"/>
       <c r="B16" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5"/>
       <c r="B17" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" ht="40.5">
       <c r="A18" s="5"/>
       <c r="B18" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C18" s="5"/>
     </row>
@@ -3663,7 +3727,7 @@
     <row r="21" spans="1:3" ht="40.5">
       <c r="A21" s="5"/>
       <c r="B21" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" s="5"/>
     </row>
@@ -3677,26 +3741,26 @@
     <row r="23" spans="1:3" ht="40.5">
       <c r="A23" s="5"/>
       <c r="B23" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="5"/>
       <c r="B24" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="27">
       <c r="A25" s="5"/>
       <c r="B25" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="108">
       <c r="A26" s="5"/>
       <c r="B26" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3733,8 +3797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30402F76-58EB-463D-B02C-1E24EF5472B7}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3772,7 +3836,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3788,7 +3852,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="12"/>
       <c r="B7" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -3796,7 +3860,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="12"/>
       <c r="B8" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -3804,7 +3868,7 @@
     <row r="9" spans="1:4" ht="26.25" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="7"/>
@@ -3812,14 +3876,14 @@
     <row r="10" spans="1:4" ht="114.75" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="54">
       <c r="A11" s="12"/>
       <c r="B11" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -3842,14 +3906,14 @@
     <row r="14" spans="1:4">
       <c r="A14" s="12"/>
       <c r="B14" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:4" ht="27">
       <c r="A15" s="12"/>
       <c r="B15" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C15" s="12"/>
     </row>
@@ -3864,7 +3928,7 @@
     <row r="17" spans="1:4">
       <c r="A17" s="12"/>
       <c r="B17" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C17" s="12"/>
     </row>
@@ -3879,7 +3943,7 @@
     <row r="19" spans="1:4">
       <c r="A19" s="12"/>
       <c r="B19" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="7"/>
@@ -3887,7 +3951,7 @@
     <row r="20" spans="1:4">
       <c r="A20" s="12"/>
       <c r="B20" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="7"/>
@@ -3903,7 +3967,7 @@
     <row r="22" spans="1:4" ht="94.5">
       <c r="A22" s="12"/>
       <c r="B22" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -3911,7 +3975,7 @@
     <row r="23" spans="1:4" ht="27">
       <c r="A23" s="12"/>
       <c r="B23" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C23" s="12"/>
     </row>
@@ -3925,7 +3989,7 @@
     <row r="25" spans="1:4">
       <c r="A25" s="12"/>
       <c r="B25" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="7"/>
@@ -3949,14 +4013,14 @@
     <row r="28" spans="1:4">
       <c r="A28" s="12"/>
       <c r="B28" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="27">
       <c r="A29" s="12"/>
       <c r="B29" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="7"/>
@@ -3964,7 +4028,7 @@
     <row r="30" spans="1:4" ht="30">
       <c r="A30" s="12"/>
       <c r="B30" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="7"/>
@@ -4007,15 +4071,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AB5327-E917-4FC1-87EA-50E5E24BBDE2}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="17"/>
     <col min="2" max="2" width="103.875" style="17" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="17"/>
+    <col min="3" max="3" width="9" style="17"/>
+    <col min="4" max="4" width="9" style="26"/>
+    <col min="5" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4045,7 +4111,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4055,187 +4121,239 @@
     <row r="6" spans="1:4" ht="67.5">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>41</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="18"/>
       <c r="B8" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="27"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
       <c r="A9" s="18"/>
       <c r="B9" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="18"/>
+        <v>172</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="A10" s="18"/>
       <c r="B10" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="40.5">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="18.75">
       <c r="A12" s="18"/>
       <c r="B12" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="151.5">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="18"/>
       <c r="B14" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="A15" s="18"/>
       <c r="B15" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="D15" s="28"/>
     </row>
     <row r="16" spans="1:4" ht="18.75">
       <c r="A16" s="18"/>
       <c r="B16" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75">
       <c r="A17" s="18"/>
       <c r="B17" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="18"/>
       <c r="B18" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="18"/>
       <c r="B19" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="18"/>
       <c r="B20" s="17" t="s">
-        <v>47</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75">
       <c r="A21" s="18"/>
       <c r="B21" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="18.75">
       <c r="A22" s="18"/>
       <c r="B22" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="18.75">
       <c r="B23" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="32.25">
       <c r="B25" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="D25" s="27"/>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="B27" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.75">
       <c r="B28" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="D28" s="28"/>
     </row>
     <row r="29" spans="1:4" ht="18.75">
       <c r="B29" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="D29" s="28"/>
     </row>
     <row r="30" spans="1:4" ht="18.75">
       <c r="B30" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="D30" s="28"/>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4244,7 +4362,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4265,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4281,7 +4399,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4291,7 +4409,7 @@
     <row r="6" spans="1:2" ht="54">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -4301,24 +4419,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -4567,7 +4667,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4576,18 +4676,25 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4606,10 +4713,21 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE9AC74-86EA-4D7D-BED1-EDBAC880E9F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4623BFF-43FA-4083-93E4-6D1AB2EC7FCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" activeTab="7" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="212">
   <si>
     <t>header1</t>
   </si>
@@ -239,9 +239,6 @@
     <t>必要に応じてその他の項目も変更し、［保存してコースに戻る］をクリックします</t>
   </si>
   <si>
-    <t>複数のファイルを 1 つにまとめて掲載できる機能です。</t>
-  </si>
-  <si>
     <t>フォルダを置きたいセクションの［+ 活動またはリソースを追加する］をクリックし、ダイアログから［フォルダ］を選択します</t>
   </si>
   <si>
@@ -249,15 +246,6 @@
   </si>
   <si>
     <t>［保存してコースに戻る］をクリックしコースを確認します</t>
-  </si>
-  <si>
-    <t>フォルダをクリックすると、内容を確認することができます。</t>
-  </si>
-  <si>
-    <t>そこで［フォルダをダウンロードする］をクリックすると、ファイルが ZIP ファイルにまとめられダウンロードされます。</t>
-  </si>
-  <si>
-    <t>また［編集］をクリックすると掲載したファイルを削除、更新することができます。</t>
   </si>
   <si>
     <t>動画</t>
@@ -1561,6 +1549,20 @@
   </si>
   <si>
     <t>file10.png</t>
+  </si>
+  <si>
+    <t>folder1.png</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>folder2.png</t>
+  </si>
+  <si>
+    <t>folder3.png</t>
+  </si>
+  <si>
+    <t>フォルダをクリックすると、内容を確認することができます。そこで［フォルダをダウンロードする］をクリックすると、ファイルが ZIP ファイルにまとめられダウンロードされます。また［編集］をクリックすると掲載したファイルを削除、更新することができます。</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -2149,7 +2151,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2159,7 +2161,7 @@
     <row r="5" spans="1:2" ht="40.5">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2200,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -2220,7 +2222,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2234,7 +2236,7 @@
     <row r="6" spans="1:4" ht="81">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -2242,7 +2244,7 @@
     <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2250,7 +2252,7 @@
     <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="18"/>
       <c r="B8" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -2265,134 +2267,134 @@
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="18.75">
       <c r="B12" s="21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="40.5">
       <c r="B13" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="111">
       <c r="B14" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="121.5">
       <c r="B15" s="22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="124.5">
       <c r="B16" s="24" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="2:4" ht="192">
       <c r="B17" s="24" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="2:4" ht="219">
       <c r="B18" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="2:4" ht="70.5">
       <c r="B19" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="2:4" ht="165">
       <c r="B20" s="24" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="2:4" ht="293.25" customHeight="1">
       <c r="B21" s="24" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="2:4" ht="104.25" customHeight="1">
       <c r="B22" s="24" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="32.25">
       <c r="B23" s="20" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="18.75">
       <c r="B25" s="21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="2:4" ht="18.75">
       <c r="B26" s="21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="21" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="54">
       <c r="B28" s="22" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="2:4" ht="27">
       <c r="B29" s="22" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="18.75">
       <c r="B30" s="21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="2:4" ht="18.75">
       <c r="B31" s="21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="2:4" ht="18.75">
       <c r="B32" s="21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D32" s="7"/>
     </row>
@@ -2431,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23"/>
@@ -2451,7 +2453,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2465,7 +2467,7 @@
     <row r="6" spans="1:4" ht="27">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -2473,7 +2475,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2485,84 +2487,84 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="B14" s="21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="B15" s="21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="18.75">
       <c r="B16" s="21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="2:4" ht="53.25" customHeight="1">
       <c r="B17" s="20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
     </row>
     <row r="18" spans="2:4" ht="18.75">
       <c r="B18" s="21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="2:4" ht="18.75">
       <c r="B19" s="21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="2:4" ht="18.75">
       <c r="B20" s="21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2599,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23"/>
@@ -2619,7 +2621,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2633,7 +2635,7 @@
     <row r="6" spans="1:4" ht="40.5">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -2641,7 +2643,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2653,74 +2655,74 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="21" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="67.5">
       <c r="B12" s="22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="27">
       <c r="B13" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="B14" s="21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="B15" s="21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="18.75">
       <c r="B16" s="21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="2:4" ht="18.75">
       <c r="B17" s="21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="2:4" ht="18.75">
       <c r="B18" s="21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="2:4" ht="15.75" customHeight="1">
       <c r="B19" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
     </row>
     <row r="20" spans="2:4" ht="70.5">
       <c r="B20" s="22" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D20" s="7"/>
     </row>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23"/>
@@ -2778,7 +2780,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2792,7 +2794,7 @@
     <row r="6" spans="1:4" ht="40.5">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -2800,7 +2802,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2812,88 +2814,88 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="40.5">
       <c r="B12" s="22" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81">
       <c r="B13" s="22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="54">
       <c r="B14" s="22" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="B15" s="22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="27">
       <c r="B16" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
     </row>
     <row r="17" spans="2:4" ht="18.75">
       <c r="B17" s="21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="2:4" ht="84">
       <c r="B18" s="22" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="2:4" ht="67.5">
       <c r="B19" s="22" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="2:4" ht="18.75">
       <c r="B20" s="22" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="2:4" ht="54">
       <c r="B21" s="22" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="111">
       <c r="B23" s="22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -2933,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23"/>
@@ -2953,7 +2955,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -3061,7 +3063,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3070,7 +3072,7 @@
     <row r="6" spans="1:4" ht="121.5">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3192,7 +3194,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3208,13 +3210,13 @@
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3233,7 +3235,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -3346,7 +3348,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3356,13 +3358,13 @@
     <row r="6" spans="1:4" ht="135">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3384,13 +3386,13 @@
     <row r="10" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3489,7 +3491,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3499,13 +3501,13 @@
     <row r="6" spans="1:4" ht="81">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3520,7 +3522,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C9" s="5"/>
     </row>
@@ -3609,7 +3611,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3625,7 +3627,7 @@
     <row r="7" spans="1:4" ht="40.5">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3647,7 +3649,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -3655,7 +3657,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -3663,7 +3665,7 @@
     <row r="12" spans="1:4" ht="27">
       <c r="A12" s="5"/>
       <c r="B12" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C12" s="5"/>
     </row>
@@ -3684,7 +3686,7 @@
     <row r="15" spans="1:4">
       <c r="A15" s="5"/>
       <c r="B15" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -3692,21 +3694,21 @@
     <row r="16" spans="1:4" ht="40.5">
       <c r="A16" s="5"/>
       <c r="B16" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5"/>
       <c r="B17" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" ht="40.5">
       <c r="A18" s="5"/>
       <c r="B18" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C18" s="5"/>
     </row>
@@ -3727,7 +3729,7 @@
     <row r="21" spans="1:3" ht="40.5">
       <c r="A21" s="5"/>
       <c r="B21" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C21" s="5"/>
     </row>
@@ -3741,26 +3743,26 @@
     <row r="23" spans="1:3" ht="40.5">
       <c r="A23" s="5"/>
       <c r="B23" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="5"/>
       <c r="B24" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="27">
       <c r="A25" s="5"/>
       <c r="B25" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="108">
       <c r="A26" s="5"/>
       <c r="B26" s="10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3836,7 +3838,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3852,7 +3854,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="12"/>
       <c r="B7" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -3860,7 +3862,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="12"/>
       <c r="B8" s="16" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -3868,7 +3870,7 @@
     <row r="9" spans="1:4" ht="26.25" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="7"/>
@@ -3876,14 +3878,14 @@
     <row r="10" spans="1:4" ht="114.75" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="16" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="54">
       <c r="A11" s="12"/>
       <c r="B11" s="16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -3906,14 +3908,14 @@
     <row r="14" spans="1:4">
       <c r="A14" s="12"/>
       <c r="B14" s="16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:4" ht="27">
       <c r="A15" s="12"/>
       <c r="B15" s="16" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C15" s="12"/>
     </row>
@@ -3928,7 +3930,7 @@
     <row r="17" spans="1:4">
       <c r="A17" s="12"/>
       <c r="B17" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C17" s="12"/>
     </row>
@@ -3943,7 +3945,7 @@
     <row r="19" spans="1:4">
       <c r="A19" s="12"/>
       <c r="B19" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="7"/>
@@ -3951,7 +3953,7 @@
     <row r="20" spans="1:4">
       <c r="A20" s="12"/>
       <c r="B20" s="16" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="7"/>
@@ -3967,7 +3969,7 @@
     <row r="22" spans="1:4" ht="94.5">
       <c r="A22" s="12"/>
       <c r="B22" s="16" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -3975,7 +3977,7 @@
     <row r="23" spans="1:4" ht="27">
       <c r="A23" s="12"/>
       <c r="B23" s="16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C23" s="12"/>
     </row>
@@ -3989,7 +3991,7 @@
     <row r="25" spans="1:4">
       <c r="A25" s="12"/>
       <c r="B25" s="16" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="7"/>
@@ -4013,14 +4015,14 @@
     <row r="28" spans="1:4">
       <c r="A28" s="12"/>
       <c r="B28" s="16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="27">
       <c r="A29" s="12"/>
       <c r="B29" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="7"/>
@@ -4028,7 +4030,7 @@
     <row r="30" spans="1:4" ht="30">
       <c r="A30" s="12"/>
       <c r="B30" s="16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="7"/>
@@ -4069,10 +4071,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AB5327-E917-4FC1-87EA-50E5E24BBDE2}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4111,7 +4113,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4121,14 +4123,14 @@
     <row r="6" spans="1:4" ht="67.5">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="27"/>
@@ -4136,7 +4138,7 @@
     <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="18"/>
       <c r="B8" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="27"/>
@@ -4144,13 +4146,13 @@
     <row r="9" spans="1:4" ht="18.75">
       <c r="A9" s="18"/>
       <c r="B9" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
@@ -4159,22 +4161,22 @@
         <v>41</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.5">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75">
@@ -4183,28 +4185,28 @@
         <v>42</v>
       </c>
       <c r="C12" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>201</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="151.5">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="18"/>
       <c r="B14" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="27"/>
@@ -4222,10 +4224,10 @@
         <v>44</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75">
@@ -4234,16 +4236,16 @@
         <v>45</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="18"/>
       <c r="B18" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="27"/>
@@ -4257,7 +4259,7 @@
     <row r="20" spans="1:4">
       <c r="A20" s="18"/>
       <c r="B20" s="17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75">
@@ -4266,10 +4268,10 @@
         <v>46</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.75">
@@ -4278,10 +4280,10 @@
         <v>47</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.75">
@@ -4289,10 +4291,10 @@
         <v>48</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4302,52 +4304,52 @@
     </row>
     <row r="25" spans="1:4" ht="32.25">
       <c r="B25" s="20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="27"/>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.75">
+      <c r="B27" s="17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="B27" s="17" t="s">
-        <v>43</v>
+      <c r="C27" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.75">
       <c r="B28" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="28"/>
+      <c r="C28" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="18.75">
       <c r="B29" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="28"/>
-    </row>
-    <row r="30" spans="1:4" ht="18.75">
+      <c r="C29" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="B30" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="28"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="B32" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="17" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4383,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4399,7 +4401,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4409,7 +4411,7 @@
     <row r="6" spans="1:2" ht="54">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4419,6 +4421,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -4667,15 +4678,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4695,6 +4697,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4713,14 +4723,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>

--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4623BFF-43FA-4083-93E4-6D1AB2EC7FCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B6F016-D725-4D69-8843-66BB34CFCB95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" activeTab="7" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
-    <sheet name="p1" sheetId="2" r:id="rId2"/>
-    <sheet name="p2" sheetId="3" r:id="rId3"/>
+    <sheet name="p01" sheetId="2" r:id="rId2"/>
+    <sheet name="p02" sheetId="3" r:id="rId3"/>
     <sheet name="p3" sheetId="4" r:id="rId4"/>
     <sheet name="p4" sheetId="5" r:id="rId5"/>
     <sheet name="p5" sheetId="6" r:id="rId6"/>
@@ -2178,8 +2178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEB116E-F9A6-4175-8412-6817F9A985E1}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3027,7 +3027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E9B584-E692-492C-9839-3FDF3D30AC5F}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -3310,8 +3310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609FDD9D-72C6-4385-979E-504ED293230E}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3572,8 +3572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1601574-9F97-41C0-8451-5E02C95F2AA9}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3799,7 +3799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30402F76-58EB-463D-B02C-1E24EF5472B7}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -4073,8 +4073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AB5327-E917-4FC1-87EA-50E5E24BBDE2}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4421,15 +4421,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -4678,6 +4669,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4697,14 +4697,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4723,6 +4715,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>

--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B6F016-D725-4D69-8843-66BB34CFCB95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2628D4A6-6AA6-4705-A0F6-525A38193187}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" firstSheet="2" activeTab="13" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
     <sheet name="p01" sheetId="2" r:id="rId2"/>
     <sheet name="p02" sheetId="3" r:id="rId3"/>
-    <sheet name="p3" sheetId="4" r:id="rId4"/>
-    <sheet name="p4" sheetId="5" r:id="rId5"/>
-    <sheet name="p5" sheetId="6" r:id="rId6"/>
-    <sheet name="p6" sheetId="11" r:id="rId7"/>
-    <sheet name="p7" sheetId="7" r:id="rId8"/>
-    <sheet name="p8" sheetId="12" r:id="rId9"/>
-    <sheet name="p9" sheetId="13" r:id="rId10"/>
+    <sheet name="p03" sheetId="4" r:id="rId4"/>
+    <sheet name="p04" sheetId="5" r:id="rId5"/>
+    <sheet name="p05" sheetId="6" r:id="rId6"/>
+    <sheet name="p06" sheetId="11" r:id="rId7"/>
+    <sheet name="p07" sheetId="7" r:id="rId8"/>
+    <sheet name="p08" sheetId="12" r:id="rId9"/>
+    <sheet name="p09" sheetId="13" r:id="rId10"/>
     <sheet name="p10" sheetId="14" r:id="rId11"/>
     <sheet name="p11" sheetId="15" r:id="rId12"/>
     <sheet name="p12" sheetId="16" r:id="rId13"/>
@@ -2911,8 +2911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454927E8-BBE5-4EB0-9F20-CB3C0B8D7DE8}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3310,7 +3310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609FDD9D-72C6-4385-979E-504ED293230E}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -4421,6 +4421,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -4669,15 +4678,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4697,6 +4697,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4715,14 +4723,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>

--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2628D4A6-6AA6-4705-A0F6-525A38193187}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD502F6E-A468-43F7-B0C4-93E0467674F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" firstSheet="2" activeTab="13" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" firstSheet="2" activeTab="5" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="225">
   <si>
     <t>header1</t>
   </si>
@@ -1563,6 +1563,47 @@
   <si>
     <t>フォルダをクリックすると、内容を確認することができます。そこで［フォルダをダウンロードする］をクリックすると、ファイルが ZIP ファイルにまとめられダウンロードされます。また［編集］をクリックすると掲載したファイルを削除、更新することができます。</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>course1.png</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>course2.png</t>
+  </si>
+  <si>
+    <t>course3.png</t>
+  </si>
+  <si>
+    <t>course4.png</t>
+  </si>
+  <si>
+    <t>course5.png</t>
+  </si>
+  <si>
+    <t>course6.png</t>
+  </si>
+  <si>
+    <t>course7.png</t>
+  </si>
+  <si>
+    <t>course8.png</t>
+  </si>
+  <si>
+    <t>course9.png</t>
+  </si>
+  <si>
+    <t>course10.png</t>
+  </si>
+  <si>
+    <t>course11.png</t>
+  </si>
+  <si>
+    <t>coursesetting1.png</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>coursesetting2.png</t>
   </si>
 </sst>
 </file>
@@ -2911,7 +2952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454927E8-BBE5-4EB0-9F20-CB3C0B8D7DE8}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -3570,10 +3611,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1601574-9F97-41C0-8451-5E02C95F2AA9}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3583,14 +3624,14 @@
     <col min="3" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3598,7 +3639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -3606,7 +3647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -3614,173 +3655,264 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7">
       <c r="A5" s="5"/>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="67.5">
+    <row r="6" spans="1:7" ht="67.5">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="40.5">
+    <row r="7" spans="1:7" ht="40.5">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="C7" s="25"/>
+      <c r="D7" s="29"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="C8" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="C9" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="5"/>
-      <c r="B10" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" s="8"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="29"/>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="5"/>
       <c r="B11" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" ht="27">
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="5"/>
       <c r="B12" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12" s="5"/>
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" spans="1:7" ht="27">
       <c r="A13" s="5"/>
       <c r="B13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:4">
+        <v>133</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="5"/>
       <c r="B14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="5"/>
       <c r="B15" s="8" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" ht="40.5">
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="5"/>
       <c r="B16" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="5"/>
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" spans="1:7" ht="40.5">
       <c r="A17" s="5"/>
       <c r="B17" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" ht="40.5">
+        <v>134</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="5"/>
       <c r="B18" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3">
+        <v>135</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="29"/>
+      <c r="G18" s="29"/>
+    </row>
+    <row r="19" spans="1:7" ht="40.5">
       <c r="A19" s="5"/>
       <c r="B19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3">
+        <v>136</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G19" s="29"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="5"/>
       <c r="B20" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" ht="40.5">
+        <v>27</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="5"/>
       <c r="B21" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3">
+        <v>28</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="29"/>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="1:7" ht="40.5">
       <c r="A22" s="5"/>
       <c r="B22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" ht="40.5">
+        <v>137</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" s="29"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="5"/>
-      <c r="B23" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="B23" s="8"/>
+      <c r="C23" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="5"/>
       <c r="B24" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="27">
+        <v>29</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="1:7" ht="40.5">
       <c r="A25" s="5"/>
       <c r="B25" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="5"/>
+      <c r="B26" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="27">
+      <c r="A27" s="5"/>
+      <c r="B27" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="108">
-      <c r="A26" s="5"/>
-      <c r="B26" s="10" t="s">
+      <c r="C27" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="108">
+      <c r="A28" s="5"/>
+      <c r="B28" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="5"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="5"/>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="5"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:7">
       <c r="A30" s="5"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:7">
       <c r="A31" s="5"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:7">
       <c r="A32" s="5"/>
     </row>
     <row r="33" spans="1:1">
@@ -3788,6 +3920,12 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="5"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -4074,7 +4212,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4421,15 +4559,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -4678,6 +4807,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4697,14 +4835,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4723,6 +4853,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>

--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD502F6E-A468-43F7-B0C4-93E0467674F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCF6F31-57E9-47AF-9C0F-F08593583160}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" firstSheet="2" activeTab="5" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" firstSheet="4" activeTab="11" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="242">
   <si>
     <t>header1</t>
   </si>
@@ -341,9 +341,6 @@
   </si>
   <si>
     <t>フォーラムの利用</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="Create"&gt;&lt;/a&gt;フォーラムの作成&lt;/h3&gt;</t>
   </si>
   <si>
     <t>フォーラムを作成したいセクションの［+ 活動またはリソースを追加する］をクリックします</t>
@@ -1605,12 +1602,298 @@
   <si>
     <t>coursesetting2.png</t>
   </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="Create"&gt;&lt;/a&gt;フォーラムの作成&lt;/h3&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">添付および文字カウント
+最大添付ファイルサイズ：
+学生が添付することができるファイルの最大サイズを制
+限します。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>サイトの制限値およびコースの制限値を超える設定はできません。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>最大添付ファイル数：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>学生が添付することができるファイルの最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ファイル数を制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>限します。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>総単語数を表示する：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>それぞれの投稿の総単語数を表示するかどうか指定します。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>購読および未読管理
+「購読モード」を指定します。「購読」とは、フォーラムに投稿された内容
+をメール
+で通知することです。 コース に登録されているすべてのユーザ（教員、学生）が対
+象となります。
+購読モード
+任意購読：
+ユーザがメールを受信するか任意で選択できます。
+強制購読：
+すべてのユーザに通知が届きます。
+自動購読：
+すべてのユーザに通知が届きます。ユーザは購読を解除することができ
+ます。
+購読停止：
+すべてのユーザに通知をしません。
+未読管理：
+［任意］を選択すると、ユーザは未読の投稿が確認できます。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ディスカッションロッキング
+期間を決めてディスカッションをロックすることが
+できます 。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ブロッキングまでの投稿閾値
+学生が指定された時間内に一定数以上の記事を投稿した場合、警告を表示したり投
+稿を拒否することができます。 1日～ 1週間まで設定可能です。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>その他の項目は「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 7.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>課題を作成する」と同じですので、そちらを参照してください。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>forum1.png</t>
+  </si>
+  <si>
+    <t>forum2.png</t>
+  </si>
+  <si>
+    <t>forum3.png</t>
+  </si>
+  <si>
+    <t>forum4.png</t>
+  </si>
+  <si>
+    <t>forum5.png</t>
+  </si>
+  <si>
+    <t>forum6.png</t>
+  </si>
+  <si>
+    <t>forum7.png</t>
+  </si>
+  <si>
+    <t>forum8.png</t>
+  </si>
+  <si>
+    <t>forum9.png</t>
+  </si>
+  <si>
+    <t>forum10.png</t>
+  </si>
+  <si>
+    <t>forum11.png</t>
+  </si>
+  <si>
+    <t>forum12.png</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>forum13.png</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1734,6 +2017,19 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2192,7 +2488,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2202,7 +2498,7 @@
     <row r="5" spans="1:2" ht="40.5">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2219,7 +2515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEB116E-F9A6-4175-8412-6817F9A985E1}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -2263,7 +2559,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2277,7 +2573,7 @@
     <row r="6" spans="1:4" ht="81">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -2285,7 +2581,7 @@
     <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2293,7 +2589,7 @@
     <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="18"/>
       <c r="B8" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -2325,12 +2621,12 @@
     </row>
     <row r="13" spans="1:4" ht="40.5">
       <c r="B13" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="111">
       <c r="B14" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D14" s="7"/>
     </row>
@@ -2342,48 +2638,48 @@
     </row>
     <row r="16" spans="1:4" ht="124.5">
       <c r="B16" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="2:4" ht="192">
       <c r="B17" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="2:4" ht="219">
       <c r="B18" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="2:4" ht="70.5">
       <c r="B19" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="2:4" ht="165">
       <c r="B20" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="2:4" ht="293.25" customHeight="1">
       <c r="B21" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="2:4" ht="104.25" customHeight="1">
       <c r="B22" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="32.25">
       <c r="B23" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -2407,18 +2703,18 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="54">
       <c r="B28" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="2:4" ht="27">
       <c r="B29" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="18.75">
@@ -2451,7 +2747,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2494,7 +2790,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2508,7 +2804,7 @@
     <row r="6" spans="1:4" ht="27">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -2550,7 +2846,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -2575,7 +2871,7 @@
     </row>
     <row r="17" spans="2:4" ht="53.25" customHeight="1">
       <c r="B17" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -2616,10 +2912,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DD84A2-8553-4736-8CDC-02E4220E2CE5}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2662,7 +2958,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2676,7 +2972,7 @@
     <row r="6" spans="1:4" ht="40.5">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -2684,92 +2980,204 @@
     <row r="7" spans="1:4">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="18.75">
       <c r="B8" s="21" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="C8" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
       <c r="B9" s="21" t="s">
-        <v>82</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D9" s="29"/>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="67.5">
       <c r="B12" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" ht="27">
-      <c r="B13" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:4" ht="18.75">
-      <c r="B14" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" ht="18.75">
-      <c r="B15" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" ht="18.75">
-      <c r="B16" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="2:4" ht="18.75">
-      <c r="B17" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="7"/>
+        <v>184</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="166.5">
+      <c r="B13" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="29"/>
+    </row>
+    <row r="14" spans="1:4" ht="229.5">
+      <c r="B14" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="40.5">
+      <c r="B15" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="59.25">
+      <c r="B16" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="29"/>
+    </row>
+    <row r="17" spans="2:4" ht="27">
+      <c r="B17" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="29"/>
     </row>
     <row r="18" spans="2:4" ht="18.75">
       <c r="B18" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="18.75">
+      <c r="B19" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="18.75">
+      <c r="B20" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="18.75">
+      <c r="B21" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="18.75">
+      <c r="C22" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="18.75">
+      <c r="B23" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B24" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B19" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-    </row>
-    <row r="20" spans="2:4" ht="70.5">
-      <c r="B20" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="D20" s="7"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="29"/>
+    </row>
+    <row r="25" spans="2:4" ht="70.5">
+      <c r="B25" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="18.75">
+      <c r="D26" s="29"/>
+    </row>
+    <row r="27" spans="2:4" ht="18.75">
+      <c r="D27" s="29"/>
+    </row>
+    <row r="28" spans="2:4" ht="18.75">
+      <c r="D28" s="29"/>
+    </row>
+    <row r="29" spans="2:4" ht="18.75">
+      <c r="D29" s="29"/>
+    </row>
+    <row r="30" spans="2:4" ht="18.75">
+      <c r="D30" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2801,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23"/>
@@ -2821,7 +3229,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2835,7 +3243,7 @@
     <row r="6" spans="1:4" ht="40.5">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -2843,7 +3251,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2855,12 +3263,12 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7"/>
     </row>
@@ -2872,71 +3280,71 @@
     </row>
     <row r="12" spans="1:4" ht="40.5">
       <c r="B12" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81">
       <c r="B13" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="54">
       <c r="B14" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="B15" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="27">
       <c r="B16" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
     </row>
     <row r="17" spans="2:4" ht="18.75">
       <c r="B17" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="2:4" ht="84">
       <c r="B18" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="2:4" ht="67.5">
       <c r="B19" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="2:4" ht="18.75">
       <c r="B20" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="2:4" ht="54">
       <c r="B21" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="111">
       <c r="B23" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -2976,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23"/>
@@ -2996,7 +3404,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -3104,7 +3512,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3113,7 +3521,7 @@
     <row r="6" spans="1:4" ht="121.5">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3235,7 +3643,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3251,13 +3659,13 @@
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3276,7 +3684,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -3389,7 +3797,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3399,13 +3807,13 @@
     <row r="6" spans="1:4" ht="135">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3427,13 +3835,13 @@
     <row r="10" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3532,7 +3940,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3542,13 +3950,13 @@
     <row r="6" spans="1:4" ht="81">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3563,7 +3971,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="5"/>
     </row>
@@ -3613,8 +4021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1601574-9F97-41C0-8451-5E02C95F2AA9}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3652,7 +4060,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3668,7 +4076,7 @@
     <row r="7" spans="1:7" ht="40.5">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="29"/>
@@ -3679,10 +4087,10 @@
         <v>23</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3691,10 +4099,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G9" s="29"/>
     </row>
@@ -3708,7 +4116,7 @@
     <row r="11" spans="1:7">
       <c r="A11" s="5"/>
       <c r="B11" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -3717,7 +4125,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="5"/>
       <c r="B12" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -3726,13 +4134,13 @@
     <row r="13" spans="1:7" ht="27">
       <c r="A13" s="5"/>
       <c r="B13" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G13" s="29"/>
     </row>
@@ -3742,10 +4150,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G14" s="29"/>
     </row>
@@ -3760,7 +4168,7 @@
     <row r="16" spans="1:7">
       <c r="A16" s="5"/>
       <c r="B16" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -3769,20 +4177,20 @@
     <row r="17" spans="1:7" ht="40.5">
       <c r="A17" s="5"/>
       <c r="B17" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5"/>
       <c r="B18" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="29"/>
@@ -3791,13 +4199,13 @@
     <row r="19" spans="1:7" ht="40.5">
       <c r="A19" s="5"/>
       <c r="B19" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G19" s="29"/>
     </row>
@@ -3807,10 +4215,10 @@
         <v>27</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G20" s="29"/>
     </row>
@@ -3826,13 +4234,13 @@
     <row r="22" spans="1:7" ht="40.5">
       <c r="A22" s="5"/>
       <c r="B22" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G22" s="29"/>
     </row>
@@ -3840,10 +4248,10 @@
       <c r="A23" s="5"/>
       <c r="B23" s="8"/>
       <c r="C23" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G23" s="29"/>
     </row>
@@ -3853,54 +4261,54 @@
         <v>29</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G24" s="29"/>
     </row>
     <row r="25" spans="1:7" ht="40.5">
       <c r="A25" s="5"/>
       <c r="B25" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G25" s="29"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="5"/>
       <c r="B26" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="27">
       <c r="A27" s="5"/>
       <c r="B27" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="108">
       <c r="A28" s="5"/>
       <c r="B28" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3976,7 +4384,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3992,7 +4400,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="12"/>
       <c r="B7" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -4000,7 +4408,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="12"/>
       <c r="B8" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -4008,7 +4416,7 @@
     <row r="9" spans="1:4" ht="26.25" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="7"/>
@@ -4016,14 +4424,14 @@
     <row r="10" spans="1:4" ht="114.75" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="54">
       <c r="A11" s="12"/>
       <c r="B11" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -4046,14 +4454,14 @@
     <row r="14" spans="1:4">
       <c r="A14" s="12"/>
       <c r="B14" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:4" ht="27">
       <c r="A15" s="12"/>
       <c r="B15" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" s="12"/>
     </row>
@@ -4068,7 +4476,7 @@
     <row r="17" spans="1:4">
       <c r="A17" s="12"/>
       <c r="B17" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C17" s="12"/>
     </row>
@@ -4083,7 +4491,7 @@
     <row r="19" spans="1:4">
       <c r="A19" s="12"/>
       <c r="B19" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="7"/>
@@ -4091,7 +4499,7 @@
     <row r="20" spans="1:4">
       <c r="A20" s="12"/>
       <c r="B20" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="7"/>
@@ -4107,7 +4515,7 @@
     <row r="22" spans="1:4" ht="94.5">
       <c r="A22" s="12"/>
       <c r="B22" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -4115,7 +4523,7 @@
     <row r="23" spans="1:4" ht="27">
       <c r="A23" s="12"/>
       <c r="B23" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" s="12"/>
     </row>
@@ -4129,7 +4537,7 @@
     <row r="25" spans="1:4">
       <c r="A25" s="12"/>
       <c r="B25" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="7"/>
@@ -4153,14 +4561,14 @@
     <row r="28" spans="1:4">
       <c r="A28" s="12"/>
       <c r="B28" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="27">
       <c r="A29" s="12"/>
       <c r="B29" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="7"/>
@@ -4168,7 +4576,7 @@
     <row r="30" spans="1:4" ht="30">
       <c r="A30" s="12"/>
       <c r="B30" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="7"/>
@@ -4251,7 +4659,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4261,14 +4669,14 @@
     <row r="6" spans="1:4" ht="67.5">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="27"/>
@@ -4276,7 +4684,7 @@
     <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="18"/>
       <c r="B8" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="27"/>
@@ -4284,13 +4692,13 @@
     <row r="9" spans="1:4" ht="18.75">
       <c r="A9" s="18"/>
       <c r="B9" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>197</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
@@ -4299,22 +4707,22 @@
         <v>41</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.5">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75">
@@ -4323,28 +4731,28 @@
         <v>42</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="151.5">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="18"/>
       <c r="B14" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="27"/>
@@ -4362,10 +4770,10 @@
         <v>44</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75">
@@ -4374,16 +4782,16 @@
         <v>45</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="18"/>
       <c r="B18" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="27"/>
@@ -4397,7 +4805,7 @@
     <row r="20" spans="1:4">
       <c r="A20" s="18"/>
       <c r="B20" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75">
@@ -4406,10 +4814,10 @@
         <v>46</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.75">
@@ -4418,10 +4826,10 @@
         <v>47</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.75">
@@ -4429,10 +4837,10 @@
         <v>48</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4442,7 +4850,7 @@
     </row>
     <row r="25" spans="1:4" ht="32.25">
       <c r="B25" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="27"/>
@@ -4457,10 +4865,10 @@
         <v>50</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.75">
@@ -4468,10 +4876,10 @@
         <v>51</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75">
@@ -4479,15 +4887,15 @@
         <v>52</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4539,7 +4947,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4559,6 +4967,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -4807,15 +5224,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4835,6 +5243,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4853,14 +5269,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>

--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCF6F31-57E9-47AF-9C0F-F08593583160}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9A934C-125B-4DD8-87DE-267D2C0AABC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" firstSheet="4" activeTab="11" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -1607,11 +1607,51 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>forum1.png</t>
+  </si>
+  <si>
+    <t>forum2.png</t>
+  </si>
+  <si>
+    <t>forum3.png</t>
+  </si>
+  <si>
+    <t>forum4.png</t>
+  </si>
+  <si>
+    <t>forum5.png</t>
+  </si>
+  <si>
+    <t>forum6.png</t>
+  </si>
+  <si>
+    <t>forum7.png</t>
+  </si>
+  <si>
+    <t>forum8.png</t>
+  </si>
+  <si>
+    <t>forum9.png</t>
+  </si>
+  <si>
+    <t>forum10.png</t>
+  </si>
+  <si>
+    <t>forum11.png</t>
+  </si>
+  <si>
+    <t>forum12.png</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>forum13.png</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">添付および文字カウント
 最大添付ファイルサイズ：
-学生が添付することができるファイルの最大サイズを制
-限します。
+学生が添付することができるファイルの最大サイズを制限します。
 </t>
     </r>
     <r>
@@ -1661,7 +1701,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>最大添付ファイル数：</t>
+      <t>最大添付ファイル数：学生が添付することができるファイルの最大</t>
     </r>
     <r>
       <rPr>
@@ -1670,6 +1710,25 @@
         <rFont val="Calibri"/>
         <family val="3"/>
       </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ファイル数を制限します。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
@@ -1681,7 +1740,41 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>学生が添付することができるファイルの最大</t>
+      <t>総単語数を表示する：それぞれの投稿の総単語数を表示するかどうか指定します。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>購読および未読管理
+「購読モード」を指定します。「購読」とは、フォーラムに投稿された内容をメールで通知することです。 コース に登録されているすべてのユーザ（教員、学生）が対象となります。
+購読モード
+任意購読：ユーザがメールを受信するか任意で選択できます。
+強制購読：すべてのユーザに通知が届きます。
+自動購読：すべてのユーザに通知が届きます。ユーザは購読を解除することができます。
+購読停止：すべてのユーザに通知をしません。
+未読管理：［任意］を選択すると、ユーザは未読の投稿が確認できます。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ディスカッションロッキング
+期間を決めてディスカッションをロックすることができます 。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ブロッキングまでの投稿閾値
+学生が指定された時間内に一定数以上の記事を投稿した場合、警告を表示したり投稿を拒否することができます。 1日～ 1週間まで設定可能です。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>※</t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1793,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ファイル数を制</t>
+      <t>その他の項目は「</t>
     </r>
     <r>
       <rPr>
@@ -1709,8 +1802,7 @@
         <rFont val="Calibri"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
+      <t xml:space="preserve"> 7.1</t>
     </r>
     <r>
       <rPr>
@@ -1720,172 +1812,8 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>限します。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>総単語数を表示する：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>それぞれの投稿の総単語数を表示するかどうか指定します。</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>購読および未読管理
-「購読モード」を指定します。「購読」とは、フォーラムに投稿された内容
-をメール
-で通知することです。 コース に登録されているすべてのユーザ（教員、学生）が対
-象となります。
-購読モード
-任意購読：
-ユーザがメールを受信するか任意で選択できます。
-強制購読：
-すべてのユーザに通知が届きます。
-自動購読：
-すべてのユーザに通知が届きます。ユーザは購読を解除することができ
-ます。
-購読停止：
-すべてのユーザに通知をしません。
-未読管理：
-［任意］を選択すると、ユーザは未読の投稿が確認できます。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ディスカッションロッキング
-期間を決めてディスカッションをロックすることが
-できます 。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ブロッキングまでの投稿閾値
-学生が指定された時間内に一定数以上の記事を投稿した場合、警告を表示したり投
-稿を拒否することができます。 1日～ 1週間まで設定可能です。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t>※</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>その他の項目は「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 7.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
       <t>課題を作成する」と同じですので、そちらを参照してください。</t>
     </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>forum1.png</t>
-  </si>
-  <si>
-    <t>forum2.png</t>
-  </si>
-  <si>
-    <t>forum3.png</t>
-  </si>
-  <si>
-    <t>forum4.png</t>
-  </si>
-  <si>
-    <t>forum5.png</t>
-  </si>
-  <si>
-    <t>forum6.png</t>
-  </si>
-  <si>
-    <t>forum7.png</t>
-  </si>
-  <si>
-    <t>forum8.png</t>
-  </si>
-  <si>
-    <t>forum9.png</t>
-  </si>
-  <si>
-    <t>forum10.png</t>
-  </si>
-  <si>
-    <t>forum11.png</t>
-  </si>
-  <si>
-    <t>forum12.png</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>forum13.png</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2915,7 +2843,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2993,7 +2921,7 @@
         <v>196</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
@@ -3010,7 +2938,7 @@
         <v>196</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
@@ -3021,7 +2949,7 @@
         <v>196</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="67.5">
@@ -3032,41 +2960,41 @@
         <v>196</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="166.5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="96.75">
       <c r="B13" s="22" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="29"/>
     </row>
-    <row r="14" spans="1:4" ht="229.5">
+    <row r="14" spans="1:4" ht="135">
       <c r="B14" s="22" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>196</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="40.5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27">
       <c r="B15" s="22" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>196</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="59.25">
       <c r="B16" s="22" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="29"/>
@@ -3086,7 +3014,7 @@
         <v>196</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="18.75">
@@ -3097,7 +3025,7 @@
         <v>196</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="18.75">
@@ -3108,7 +3036,7 @@
         <v>196</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="18.75">
@@ -3119,7 +3047,7 @@
         <v>196</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="18.75">
@@ -3127,7 +3055,7 @@
         <v>196</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="18.75">
@@ -3138,7 +3066,7 @@
         <v>196</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15.75" customHeight="1">
@@ -3156,7 +3084,7 @@
         <v>196</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="18.75">
@@ -4976,6 +4904,24 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -5224,24 +5170,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
@@ -5251,6 +5179,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5267,15 +5206,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9A934C-125B-4DD8-87DE-267D2C0AABC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA8A536-6902-4FC3-832E-04C372DCD0F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" firstSheet="4" activeTab="11" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" firstSheet="4" activeTab="12" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="256">
   <si>
     <t>header1</t>
   </si>
@@ -1425,36 +1425,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <t>質問を追加するの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>▼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>をクリックし、［多肢選択］を選びます
-多肢選択：回答方式について３つの選択肢があります。
-多肢選択（評定）：評定(数値)を設定することにより、平均値等の測定が可能になります。
-数値回答：範囲（0-10）を設定することができます。
-短文回答：テキストを入力するボックスを設定します。
-長文回答：テキストを入力するボックスを設定します。</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>質問内容を入力します
 表示方法：選択肢の並べ方を垂直／水平のいずれかで選択します。
 「未選択オプション」を隠す：「未選択」の選択肢の可否を設定します。「No」にした場合、選択肢に「未選択」が含まれます。
@@ -1465,34 +1435,6 @@
     <t>質問を追加する場合は、「質問を追加する」のプルダウンから選択し、追加します
 ※ 質問内容は編集にて変更することは可能ですが、質問タイプは変更することが出来ません。質問タイプを変更したい場合は、削除して新たに質問を作成する必要があります。
 ※ 学生には以下のように表示されます。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>フィードバックをクリックすると、学生からの回答を確認できます。
-概要に回答した人数が表示されています。［回答を表示する］タブをクリックすると回答者ごとの回答を見ることができます。
-匿名でアンケートを作成した場合は、上記のように氏名等は表示されません。ここで［テーブルデータをダウンロードする］の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>▼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>をクリックして形式を選ぶと、回答をダウンロードすることができます。
-また［分析］タブをクリックすると解答の分析結果を参照できます。分析結果は Excel 形式でのみエクスポートができます。</t>
-    </r>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1815,6 +1757,145 @@
       <t>課題を作成する」と同じですので、そちらを参照してください。</t>
     </r>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>feedback1.png</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>feedback2.png</t>
+  </si>
+  <si>
+    <t>feedback3.png</t>
+  </si>
+  <si>
+    <t>feedback4.png</t>
+  </si>
+  <si>
+    <t>多肢選択：回答方式について３つの選択肢があります。
+多肢選択（評定）：評定(数値)を設定することにより、平均値等の測定が可能になります。
+数値回答：範囲（0-10）を設定することができます。
+短文回答：テキストを入力するボックスを設定します。
+長文回答：テキストを入力するボックスを設定します。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>質問を追加するの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>▼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をクリックし、［多肢選択］を選びます</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>feedback5.png</t>
+  </si>
+  <si>
+    <t>feedback6.png</t>
+  </si>
+  <si>
+    <t>feedback7.png</t>
+  </si>
+  <si>
+    <t>feedback8.png</t>
+  </si>
+  <si>
+    <t>feedback9.png</t>
+  </si>
+  <si>
+    <t>feedback10.png</t>
+  </si>
+  <si>
+    <t>feedback11.png</t>
+  </si>
+  <si>
+    <t>フィードバックをクリックすると、学生からの回答を確認できます。
+概要に回答した人数が表示されています。［回答を表示する］タブをクリックすると回答者ごとの回答を見ることができます。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>匿名でアンケートを作成した場合は、上記のように氏名等は表示されません。ここで［テーブルデータをダウンロードする］の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>▼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をクリックして形式を選ぶと、回答をダウンロードすることができます。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>また［分析］タブをクリックすると解答の分析結果を参照できます。分析結果は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Excel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>形式でのみエクスポートができます。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>feedback12.png</t>
   </si>
 </sst>
 </file>
@@ -2842,8 +2923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DD84A2-8553-4736-8CDC-02E4220E2CE5}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2908,7 +2989,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2918,10 +2999,10 @@
         <v>43</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
@@ -2935,10 +3016,10 @@
         <v>82</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
@@ -2946,10 +3027,10 @@
         <v>83</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="67.5">
@@ -2957,44 +3038,44 @@
         <v>184</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="96.75">
       <c r="B13" s="22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:4" ht="135">
       <c r="B14" s="22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27">
       <c r="B15" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="59.25">
       <c r="B16" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="29"/>
@@ -3011,10 +3092,10 @@
         <v>85</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="18.75">
@@ -3022,10 +3103,10 @@
         <v>86</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="18.75">
@@ -3033,10 +3114,10 @@
         <v>87</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="18.75">
@@ -3044,18 +3125,18 @@
         <v>88</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="18.75">
       <c r="C22" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="18.75">
@@ -3063,10 +3144,10 @@
         <v>89</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15.75" customHeight="1">
@@ -3081,10 +3162,10 @@
         <v>185</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="18.75">
@@ -3111,17 +3192,19 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5F1CFD-792A-40F7-A551-A5197A9AF048}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="21"/>
     <col min="2" max="2" width="90" style="21" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="21"/>
+    <col min="3" max="3" width="9" style="21"/>
+    <col min="4" max="4" width="14.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3184,10 +3267,12 @@
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="18.75">
       <c r="B8" s="21" t="s">
         <v>43</v>
       </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="21" t="s">
@@ -3198,85 +3283,161 @@
       <c r="B10" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="C10" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="C11" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="40.5">
       <c r="B12" s="22" t="s">
         <v>187</v>
       </c>
+      <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4" ht="81">
       <c r="B13" s="22" t="s">
         <v>188</v>
       </c>
+      <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:4" ht="54">
       <c r="B14" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="C14" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="B15" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="C15" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="27">
       <c r="B16" s="20" t="s">
         <v>96</v>
       </c>
       <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="D16" s="29"/>
     </row>
     <row r="17" spans="2:4" ht="18.75">
       <c r="B17" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="2:4" ht="84">
+      <c r="C17" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="18.75">
       <c r="B18" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="D18" s="7"/>
+        <v>245</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="19" spans="2:4" ht="67.5">
       <c r="B19" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="67.5">
+      <c r="B20" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="18.75">
+      <c r="B21" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="54">
+      <c r="B22" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="2:4" ht="18.75">
-      <c r="B20" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="2:4" ht="54">
-      <c r="B21" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="20" t="s">
+      <c r="C22" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="18.75">
+      <c r="B23" s="20" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" ht="111">
-      <c r="B23" s="22" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="22"/>
+      <c r="D23" s="29"/>
+    </row>
+    <row r="24" spans="2:4" ht="40.5">
+      <c r="B24" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="88.5">
+      <c r="B25" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="18.75">
+      <c r="D26" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -4015,10 +4176,10 @@
         <v>23</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4027,10 +4188,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G9" s="29"/>
     </row>
@@ -4065,10 +4226,10 @@
         <v>132</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G13" s="29"/>
     </row>
@@ -4078,10 +4239,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G14" s="29"/>
     </row>
@@ -4108,10 +4269,10 @@
         <v>133</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G17" s="29"/>
     </row>
@@ -4130,10 +4291,10 @@
         <v>135</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G19" s="29"/>
     </row>
@@ -4143,10 +4304,10 @@
         <v>27</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G20" s="29"/>
     </row>
@@ -4165,10 +4326,10 @@
         <v>136</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G22" s="29"/>
     </row>
@@ -4176,10 +4337,10 @@
       <c r="A23" s="5"/>
       <c r="B23" s="8"/>
       <c r="C23" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G23" s="29"/>
     </row>
@@ -4189,10 +4350,10 @@
         <v>29</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G24" s="29"/>
     </row>
@@ -4202,10 +4363,10 @@
         <v>137</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G25" s="29"/>
     </row>
@@ -4221,10 +4382,10 @@
         <v>138</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="108">
@@ -4233,10 +4394,10 @@
         <v>155</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4597,7 +4758,7 @@
     <row r="6" spans="1:4" ht="67.5">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C6" s="25"/>
     </row>
@@ -4623,10 +4784,10 @@
         <v>167</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
@@ -4635,10 +4796,10 @@
         <v>41</v>
       </c>
       <c r="C10" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>196</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.5">
@@ -4647,10 +4808,10 @@
         <v>168</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75">
@@ -4659,10 +4820,10 @@
         <v>42</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="151.5">
@@ -4671,10 +4832,10 @@
         <v>169</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4698,10 +4859,10 @@
         <v>44</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75">
@@ -4710,10 +4871,10 @@
         <v>45</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4733,7 +4894,7 @@
     <row r="20" spans="1:4">
       <c r="A20" s="18"/>
       <c r="B20" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75">
@@ -4742,10 +4903,10 @@
         <v>46</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.75">
@@ -4754,10 +4915,10 @@
         <v>47</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.75">
@@ -4765,10 +4926,10 @@
         <v>48</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4793,10 +4954,10 @@
         <v>50</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.75">
@@ -4804,10 +4965,10 @@
         <v>51</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75">
@@ -4815,15 +4976,15 @@
         <v>52</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4904,24 +5065,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -5170,6 +5313,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
@@ -5179,17 +5340,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5206,4 +5356,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA8A536-6902-4FC3-832E-04C372DCD0F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5316A016-1CEC-44BE-8170-B33FEFE43CE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" firstSheet="4" activeTab="12" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" firstSheet="4" activeTab="6" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="270">
   <si>
     <t>header1</t>
   </si>
@@ -1896,6 +1896,49 @@
   </si>
   <si>
     <t>feedback12.png</t>
+  </si>
+  <si>
+    <t>participant1.png</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>participant2.png</t>
+  </si>
+  <si>
+    <t>participant3.png</t>
+  </si>
+  <si>
+    <t>participant4.png</t>
+  </si>
+  <si>
+    <t>participant5.png</t>
+  </si>
+  <si>
+    <t>participant6.png</t>
+  </si>
+  <si>
+    <t>participant7.png</t>
+  </si>
+  <si>
+    <t>participant8.png</t>
+  </si>
+  <si>
+    <t>participant9.png</t>
+  </si>
+  <si>
+    <t>participant10.png</t>
+  </si>
+  <si>
+    <t>participant11.png</t>
+  </si>
+  <si>
+    <t>participant12.png</t>
+  </si>
+  <si>
+    <t>participant13.png</t>
+  </si>
+  <si>
+    <t>participant14.png</t>
   </si>
 </sst>
 </file>
@@ -3194,7 +3237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5F1CFD-792A-40F7-A551-A5197A9AF048}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -4432,17 +4475,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30402F76-58EB-463D-B02C-1E24EF5472B7}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
     <col min="2" max="2" width="103.875" style="15" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="15"/>
+    <col min="3" max="3" width="9" style="15"/>
+    <col min="4" max="4" width="16.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4507,196 +4552,289 @@
       <c r="B9" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="114.75" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:4" ht="54">
       <c r="A11" s="12"/>
       <c r="B11" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="29"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="12"/>
       <c r="B12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="12"/>
       <c r="B13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="7"/>
+      <c r="C13" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="12"/>
       <c r="B14" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="1:4" ht="27">
       <c r="A15" s="12"/>
       <c r="B15" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="29"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="12"/>
       <c r="B16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="7"/>
+      <c r="C16" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="12"/>
       <c r="B17" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="29"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="12"/>
       <c r="B18" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="12"/>
       <c r="B19" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="7"/>
+      <c r="C19" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="12"/>
       <c r="B20" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="12"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="7"/>
+      <c r="C21" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="94.5">
       <c r="A22" s="12"/>
       <c r="B22" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="29"/>
     </row>
     <row r="23" spans="1:4" ht="27">
       <c r="A23" s="12"/>
       <c r="B23" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="12"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="12"/>
       <c r="B24" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="12"/>
       <c r="B25" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="7"/>
+      <c r="C25" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="12"/>
       <c r="B26" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="7"/>
+      <c r="C26" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="27">
       <c r="A27" s="12"/>
       <c r="B27" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="7"/>
+      <c r="C27" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="12"/>
-      <c r="B28" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="12"/>
-    </row>
-    <row r="29" spans="1:4" ht="27">
+      <c r="B28" s="16"/>
+      <c r="C28" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="12"/>
       <c r="B29" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:4" ht="30">
+        <v>143</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="29"/>
+    </row>
+    <row r="30" spans="1:4" ht="27">
       <c r="A30" s="12"/>
       <c r="B30" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30">
+      <c r="A31" s="12"/>
+      <c r="B31" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="12"/>
-      <c r="B31" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="7"/>
+      <c r="C31" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="12"/>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="12"/>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="12"/>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="C34" s="12"/>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="12"/>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="C35" s="12"/>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="12"/>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="C36" s="12"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="12"/>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="C37" s="12"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="12"/>
+      <c r="C39" s="12"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="C40" s="12"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="12"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="D42" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5316A016-1CEC-44BE-8170-B33FEFE43CE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912D2304-EF6B-4521-82A8-B8732410B37C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" firstSheet="4" activeTab="6" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" firstSheet="4" activeTab="4" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="273">
   <si>
     <t>header1</t>
   </si>
@@ -1939,6 +1939,16 @@
   </si>
   <si>
     <t>participant14.png</t>
+  </si>
+  <si>
+    <t>mail1.png</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>mail2.png</t>
+  </si>
+  <si>
+    <t>mail3.png</t>
   </si>
 </sst>
 </file>
@@ -4032,10 +4042,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4098,17 +4108,34 @@
       <c r="B8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
-      <c r="B9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="5"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5"/>
+      <c r="B10" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5"/>
@@ -4142,6 +4169,9 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -4477,8 +4507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30402F76-58EB-463D-B02C-1E24EF5472B7}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5203,6 +5233,24 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -5451,24 +5499,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
@@ -5478,6 +5508,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5494,15 +5535,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912D2304-EF6B-4521-82A8-B8732410B37C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA87EBCB-874F-4BAE-ABFF-8A9805903EE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" firstSheet="4" activeTab="4" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" firstSheet="2" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="277">
   <si>
     <t>header1</t>
   </si>
@@ -1949,6 +1949,19 @@
   </si>
   <si>
     <t>mail3.png</t>
+  </si>
+  <si>
+    <t>lang1.png</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>lang2.png</t>
+  </si>
+  <si>
+    <t>lang3.png</t>
+  </si>
+  <si>
+    <t>lang4.png</t>
   </si>
 </sst>
 </file>
@@ -3901,8 +3914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609FDD9D-72C6-4385-979E-504ED293230E}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3965,14 +3978,24 @@
       <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5"/>
@@ -3985,11 +4008,23 @@
       <c r="B11" s="10" t="s">
         <v>123</v>
       </c>
+      <c r="C11" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5"/>
       <c r="B12" s="8" t="s">
         <v>17</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4044,7 +4079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -5233,24 +5268,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -5499,6 +5516,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
@@ -5508,17 +5543,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5535,4 +5559,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA87EBCB-874F-4BAE-ABFF-8A9805903EE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019E7C55-4131-440E-8F78-CCEF308D9E2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" firstSheet="2" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -1955,13 +1955,14 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>lang3.png</t>
+  </si>
+  <si>
+    <t>lang4.png</t>
+  </si>
+  <si>
     <t>lang2.png</t>
-  </si>
-  <si>
-    <t>lang3.png</t>
-  </si>
-  <si>
-    <t>lang4.png</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -3912,10 +3913,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609FDD9D-72C6-4385-979E-504ED293230E}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3990,12 +3991,7 @@
       <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>274</v>
-      </c>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5"/>
@@ -4012,29 +4008,36 @@
         <v>194</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5"/>
-      <c r="B12" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="B12" s="10"/>
       <c r="C12" s="25" t="s">
         <v>194</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5"/>
       <c r="B13" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5"/>
+      <c r="B14" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5"/>
@@ -4068,6 +4071,9 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -5268,6 +5274,24 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -5516,24 +5540,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
@@ -5543,6 +5549,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5559,15 +5576,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019E7C55-4131-440E-8F78-CCEF308D9E2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDED95D-8D71-4F1F-9411-061F2945E0BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" firstSheet="2" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" firstSheet="2" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="278">
   <si>
     <t>header1</t>
   </si>
@@ -1962,6 +1962,13 @@
   </si>
   <si>
     <t>lang2.png</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#login" target="_blank"&gt;ログイン&lt;/li&gt;
+&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#logout" target="_blank"&gt;ログアウト&lt;/li&gt;
+&lt;/ul&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3761,8 +3768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22334E2-1BEA-460B-9D17-129B263B506E}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3772,11 +3779,13 @@
     <col min="3" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="75">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
@@ -3908,6 +3917,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3915,8 +3925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609FDD9D-72C6-4385-979E-504ED293230E}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5274,24 +5284,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -5540,6 +5532,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
@@ -5549,17 +5559,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5576,4 +5575,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDED95D-8D71-4F1F-9411-061F2945E0BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC8F621-9606-4D6B-AEC1-A612C2CC6BC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" firstSheet="2" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="277">
   <si>
     <t>header1</t>
   </si>
@@ -1962,13 +1962,6 @@
   </si>
   <si>
     <t>lang2.png</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;ul&gt;
-&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#login" target="_blank"&gt;ログイン&lt;/li&gt;
-&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#logout" target="_blank"&gt;ログアウト&lt;/li&gt;
-&lt;/ul&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3769,7 +3762,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3784,7 +3777,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>277</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5275,12 +5268,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5533,27 +5535,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5578,12 +5574,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC8F621-9606-4D6B-AEC1-A612C2CC6BC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5CD591-1A56-4730-8684-27838B505D3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" firstSheet="2" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="278">
   <si>
     <t>header1</t>
   </si>
@@ -1962,6 +1962,10 @@
   </si>
   <si>
     <t>lang2.png</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="#login"&gt;ログイン&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;a href="#logout"&gt;ログアウト&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3762,22 +3766,22 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
+    <col min="1" max="1" width="10.125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="103.875" style="7" customWidth="1"/>
     <col min="3" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="75">
+    <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>9</v>
+      <c r="B1" s="10" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5268,21 +5272,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5535,21 +5530,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5574,9 +5575,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5CD591-1A56-4730-8684-27838B505D3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6956E8-02B4-419A-9DE0-EE7B1FAC2543}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" firstSheet="2" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -1965,7 +1965,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="#login"&gt;ログイン&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;a href="#logout"&gt;ログアウト&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="#login" target="_blank"&gt;ログイン&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;a href="#logout" target="_blank"&gt;ログアウト&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -5272,12 +5272,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5530,27 +5539,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5575,12 +5578,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6956E8-02B4-419A-9DE0-EE7B1FAC2543}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAC1E09-A309-41F3-8E4A-6CEAD7AAE83E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" firstSheet="2" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -1965,7 +1965,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="#login" target="_blank"&gt;ログイン&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;a href="#logout" target="_blank"&gt;ログアウト&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#login" target="_blank"&gt;ログイン&lt;/li&gt;&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#logout" target="_blank"&gt;ログアウト&lt;/li&gt;&lt;/ul&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3776,7 +3776,7 @@
     <col min="3" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="27">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -5272,21 +5272,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5539,21 +5530,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5578,9 +5575,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAC1E09-A309-41F3-8E4A-6CEAD7AAE83E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC80520-86DA-4AF0-9081-03E54EAA30BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" firstSheet="2" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="277">
   <si>
     <t>header1</t>
   </si>
@@ -67,10 +67,6 @@
   </si>
   <si>
     <t>fresta</t>
-  </si>
-  <si>
-    <t>ログイン／ログアウト</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>&lt;ul&gt;
@@ -1965,7 +1961,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#login" target="_blank"&gt;ログイン&lt;/li&gt;&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#logout" target="_blank"&gt;ログアウト&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>ログイン／ログアウト&lt;html&gt;&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#login" target="_blank"&gt;ログイン&lt;/li&gt;&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#logout" target="_blank"&gt;ログアウト&lt;/li&gt;&lt;/ul&gt;&lt;/html&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2568,7 +2564,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2578,7 +2574,7 @@
     <row r="5" spans="1:2" ht="40.5">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2619,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -2639,7 +2635,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2653,7 +2649,7 @@
     <row r="6" spans="1:4" ht="81">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -2661,7 +2657,7 @@
     <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2669,7 +2665,7 @@
     <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="18"/>
       <c r="B8" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -2677,141 +2673,141 @@
     <row r="9" spans="1:4">
       <c r="A9" s="18"/>
       <c r="B9" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="18.75">
       <c r="B12" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="40.5">
       <c r="B13" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="111">
       <c r="B14" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="121.5">
       <c r="B15" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="124.5">
       <c r="B16" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="2:4" ht="192">
       <c r="B17" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="2:4" ht="219">
       <c r="B18" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="2:4" ht="70.5">
       <c r="B19" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="2:4" ht="165">
       <c r="B20" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="2:4" ht="293.25" customHeight="1">
       <c r="B21" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="2:4" ht="104.25" customHeight="1">
       <c r="B22" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="32.25">
       <c r="B23" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="18.75">
       <c r="B25" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="2:4" ht="18.75">
       <c r="B26" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="54">
       <c r="B28" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="2:4" ht="27">
       <c r="B29" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="18.75">
       <c r="B30" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="2:4" ht="18.75">
       <c r="B31" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="2:4" ht="18.75">
       <c r="B32" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D32" s="7"/>
     </row>
@@ -2850,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23"/>
@@ -2870,7 +2866,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2884,7 +2880,7 @@
     <row r="6" spans="1:4" ht="27">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -2892,96 +2888,96 @@
     <row r="7" spans="1:4">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="B14" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="B15" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="18.75">
       <c r="B16" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="2:4" ht="53.25" customHeight="1">
       <c r="B17" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
     </row>
     <row r="18" spans="2:4" ht="18.75">
       <c r="B18" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="2:4" ht="18.75">
       <c r="B19" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="2:4" ht="18.75">
       <c r="B20" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3018,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23"/>
@@ -3038,7 +3034,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -3052,7 +3048,7 @@
     <row r="6" spans="1:4" ht="40.5">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -3060,183 +3056,183 @@
     <row r="7" spans="1:4">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" ht="18.75">
       <c r="B8" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="B9" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="29"/>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="67.5">
       <c r="B12" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="96.75">
       <c r="B13" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:4" ht="135">
       <c r="B14" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27">
       <c r="B15" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="59.25">
       <c r="B16" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="29"/>
     </row>
     <row r="17" spans="2:4" ht="27">
       <c r="B17" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="29"/>
     </row>
     <row r="18" spans="2:4" ht="18.75">
       <c r="B18" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="18.75">
       <c r="B19" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="18.75">
       <c r="B20" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="18.75">
       <c r="B21" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="18.75">
       <c r="C22" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="18.75">
       <c r="B23" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15.75" customHeight="1">
       <c r="B24" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="29"/>
     </row>
     <row r="25" spans="2:4" ht="70.5">
       <c r="B25" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="18.75">
@@ -3291,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23"/>
@@ -3311,7 +3307,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -3325,7 +3321,7 @@
     <row r="6" spans="1:4" ht="40.5">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -3333,178 +3329,178 @@
     <row r="7" spans="1:4">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" ht="18.75">
       <c r="B8" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.5">
       <c r="B12" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4" ht="81">
       <c r="B13" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:4" ht="54">
       <c r="B14" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="B15" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27">
       <c r="B16" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="29"/>
     </row>
     <row r="17" spans="2:4" ht="18.75">
       <c r="B17" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="18.75">
       <c r="B18" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="67.5">
       <c r="B19" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="67.5">
       <c r="B20" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="18.75">
       <c r="B21" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="54">
       <c r="B22" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="18.75">
       <c r="B23" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" s="29"/>
     </row>
     <row r="24" spans="2:4" ht="40.5">
       <c r="B24" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="88.5">
       <c r="B25" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="29" t="s">
         <v>254</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="18.75">
@@ -3544,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23"/>
@@ -3564,7 +3560,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -3672,7 +3668,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3681,7 +3677,7 @@
     <row r="6" spans="1:4" ht="121.5">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3766,7 +3762,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3776,20 +3772,18 @@
     <col min="3" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27">
+    <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="40.5">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>8</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3805,7 +3799,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3815,38 +3809,38 @@
     <row r="6" spans="1:4" ht="54">
       <c r="A6" s="5"/>
       <c r="B6" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -3854,13 +3848,13 @@
     <row r="12" spans="1:4">
       <c r="A12" s="5"/>
       <c r="B12" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5"/>
       <c r="B13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3944,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3960,7 +3954,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3970,13 +3964,13 @@
     <row r="6" spans="1:4" ht="135">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3984,66 +3978,66 @@
     <row r="8" spans="1:4">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5"/>
       <c r="B12" s="10"/>
       <c r="C12" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5"/>
       <c r="B13" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5"/>
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4114,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4130,7 +4124,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4140,13 +4134,13 @@
     <row r="6" spans="1:4" ht="81">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4154,35 +4148,35 @@
     <row r="8" spans="1:4">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="8"/>
       <c r="C9" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4254,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4270,7 +4264,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4280,13 +4274,13 @@
     <row r="6" spans="1:7" ht="67.5">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="40.5">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="29"/>
@@ -4294,25 +4288,25 @@
     <row r="8" spans="1:7">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G9" s="29"/>
     </row>
@@ -4326,7 +4320,7 @@
     <row r="11" spans="1:7">
       <c r="A11" s="5"/>
       <c r="B11" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -4335,7 +4329,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="5"/>
       <c r="B12" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -4344,33 +4338,33 @@
     <row r="13" spans="1:7" ht="27">
       <c r="A13" s="5"/>
       <c r="B13" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5"/>
       <c r="B14" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5"/>
       <c r="B15" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="5"/>
       <c r="G15" s="29"/>
@@ -4378,7 +4372,7 @@
     <row r="16" spans="1:7">
       <c r="A16" s="5"/>
       <c r="B16" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -4387,20 +4381,20 @@
     <row r="17" spans="1:7" ht="40.5">
       <c r="A17" s="5"/>
       <c r="B17" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5"/>
       <c r="B18" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="29"/>
@@ -4409,33 +4403,33 @@
     <row r="19" spans="1:7" ht="40.5">
       <c r="A19" s="5"/>
       <c r="B19" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="5"/>
       <c r="B20" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="5"/>
       <c r="B21" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="29"/>
@@ -4444,13 +4438,13 @@
     <row r="22" spans="1:7" ht="40.5">
       <c r="A22" s="5"/>
       <c r="B22" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G22" s="29"/>
     </row>
@@ -4458,67 +4452,67 @@
       <c r="A23" s="5"/>
       <c r="B23" s="8"/>
       <c r="C23" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="5"/>
       <c r="B24" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G24" s="29"/>
     </row>
     <row r="25" spans="1:7" ht="40.5">
       <c r="A25" s="5"/>
       <c r="B25" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G25" s="29"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="5"/>
       <c r="B26" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="27">
       <c r="A27" s="5"/>
       <c r="B27" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="108">
       <c r="A28" s="5"/>
       <c r="B28" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4580,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4596,7 +4590,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4606,13 +4600,13 @@
     <row r="6" spans="1:4" ht="54">
       <c r="A6" s="12"/>
       <c r="B6" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="12"/>
       <c r="B7" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -4620,7 +4614,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="12"/>
       <c r="B8" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -4628,19 +4622,19 @@
     <row r="9" spans="1:4" ht="26.25" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="114.75" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="29"/>
@@ -4648,7 +4642,7 @@
     <row r="11" spans="1:4" ht="54">
       <c r="A11" s="12"/>
       <c r="B11" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="29"/>
@@ -4656,7 +4650,7 @@
     <row r="12" spans="1:4">
       <c r="A12" s="12"/>
       <c r="B12" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="29"/>
@@ -4664,19 +4658,19 @@
     <row r="13" spans="1:4">
       <c r="A13" s="12"/>
       <c r="B13" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="12"/>
       <c r="B14" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="29"/>
@@ -4684,7 +4678,7 @@
     <row r="15" spans="1:4" ht="27">
       <c r="A15" s="12"/>
       <c r="B15" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="29"/>
@@ -4692,19 +4686,19 @@
     <row r="16" spans="1:4">
       <c r="A16" s="12"/>
       <c r="B16" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="12"/>
       <c r="B17" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="29"/>
@@ -4712,55 +4706,55 @@
     <row r="18" spans="1:4">
       <c r="A18" s="12"/>
       <c r="B18" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="12"/>
       <c r="B19" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="12"/>
       <c r="B20" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="12"/>
       <c r="B21" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="94.5">
       <c r="A22" s="12"/>
       <c r="B22" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="29"/>
@@ -4768,7 +4762,7 @@
     <row r="23" spans="1:4" ht="27">
       <c r="A23" s="12"/>
       <c r="B23" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="29"/>
@@ -4776,7 +4770,7 @@
     <row r="24" spans="1:4">
       <c r="A24" s="12"/>
       <c r="B24" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="29"/>
@@ -4784,53 +4778,53 @@
     <row r="25" spans="1:4">
       <c r="A25" s="12"/>
       <c r="B25" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="12"/>
       <c r="B26" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="27">
       <c r="A27" s="12"/>
       <c r="B27" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="12"/>
       <c r="B28" s="16"/>
       <c r="C28" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="12"/>
       <c r="B29" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="29"/>
@@ -4838,37 +4832,37 @@
     <row r="30" spans="1:4" ht="27">
       <c r="A30" s="12"/>
       <c r="B30" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30">
       <c r="A31" s="12"/>
       <c r="B31" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="12"/>
       <c r="B32" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4948,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4964,7 +4958,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4974,14 +4968,14 @@
     <row r="6" spans="1:4" ht="67.5">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="27"/>
@@ -4989,7 +4983,7 @@
     <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="18"/>
       <c r="B8" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="27"/>
@@ -4997,67 +4991,67 @@
     <row r="9" spans="1:4" ht="18.75">
       <c r="A9" s="18"/>
       <c r="B9" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C9" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>194</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="A10" s="18"/>
       <c r="B10" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.5">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75">
       <c r="A12" s="18"/>
       <c r="B12" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="151.5">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="18"/>
       <c r="B14" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="27"/>
@@ -5065,38 +5059,38 @@
     <row r="15" spans="1:4" ht="18.75">
       <c r="A15" s="18"/>
       <c r="B15" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="28"/>
     </row>
     <row r="16" spans="1:4" ht="18.75">
       <c r="A16" s="18"/>
       <c r="B16" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75">
       <c r="A17" s="18"/>
       <c r="B17" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="18"/>
       <c r="B18" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="27"/>
@@ -5104,103 +5098,103 @@
     <row r="19" spans="1:4">
       <c r="A19" s="18"/>
       <c r="B19" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="18"/>
       <c r="B20" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75">
       <c r="A21" s="18"/>
       <c r="B21" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.75">
       <c r="A22" s="18"/>
       <c r="B22" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.75">
       <c r="B23" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="32.25">
       <c r="B25" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="27"/>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75">
       <c r="B27" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.75">
       <c r="B28" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75">
       <c r="B29" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -5236,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5252,7 +5246,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5262,7 +5256,7 @@
     <row r="6" spans="1:2" ht="54">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -5272,12 +5266,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5530,27 +5533,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5575,12 +5572,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC80520-86DA-4AF0-9081-03E54EAA30BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A951306-6C0C-4F8D-B79F-C11DFEA418EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="276">
   <si>
     <t>header1</t>
   </si>
@@ -67,13 +67,6 @@
   </si>
   <si>
     <t>fresta</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;
-&lt;li&gt;&lt;a href="#login"&gt;ログイン&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="#logout"&gt;ログアウト&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログイン画面が表示されたら、［広大 ID でログイン］をクリックします</t>
@@ -2564,7 +2557,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2574,7 +2567,7 @@
     <row r="5" spans="1:2" ht="40.5">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2615,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -2635,7 +2628,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2649,7 +2642,7 @@
     <row r="6" spans="1:4" ht="81">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -2657,7 +2650,7 @@
     <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2665,7 +2658,7 @@
     <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="18"/>
       <c r="B8" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -2673,141 +2666,141 @@
     <row r="9" spans="1:4">
       <c r="A9" s="18"/>
       <c r="B9" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="18.75">
       <c r="B12" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="40.5">
       <c r="B13" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="111">
       <c r="B14" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="121.5">
       <c r="B15" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="124.5">
       <c r="B16" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="2:4" ht="192">
       <c r="B17" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="2:4" ht="219">
       <c r="B18" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="2:4" ht="70.5">
       <c r="B19" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="2:4" ht="165">
       <c r="B20" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="2:4" ht="293.25" customHeight="1">
       <c r="B21" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="2:4" ht="104.25" customHeight="1">
       <c r="B22" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="32.25">
       <c r="B23" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="18.75">
       <c r="B25" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="2:4" ht="18.75">
       <c r="B26" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="54">
       <c r="B28" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="2:4" ht="27">
       <c r="B29" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="18.75">
       <c r="B30" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="2:4" ht="18.75">
       <c r="B31" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="2:4" ht="18.75">
       <c r="B32" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" s="7"/>
     </row>
@@ -2846,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23"/>
@@ -2866,7 +2859,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2880,7 +2873,7 @@
     <row r="6" spans="1:4" ht="27">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -2888,96 +2881,96 @@
     <row r="7" spans="1:4">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="B14" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="B15" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="18.75">
       <c r="B16" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="2:4" ht="53.25" customHeight="1">
       <c r="B17" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
     </row>
     <row r="18" spans="2:4" ht="18.75">
       <c r="B18" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="2:4" ht="18.75">
       <c r="B19" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="2:4" ht="18.75">
       <c r="B20" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3014,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23"/>
@@ -3034,7 +3027,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -3048,7 +3041,7 @@
     <row r="6" spans="1:4" ht="40.5">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -3056,183 +3049,183 @@
     <row r="7" spans="1:4">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" ht="18.75">
       <c r="B8" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="B9" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="29"/>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="67.5">
       <c r="B12" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="96.75">
       <c r="B13" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:4" ht="135">
       <c r="B14" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27">
       <c r="B15" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="59.25">
       <c r="B16" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="29"/>
     </row>
     <row r="17" spans="2:4" ht="27">
       <c r="B17" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="29"/>
     </row>
     <row r="18" spans="2:4" ht="18.75">
       <c r="B18" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="18.75">
       <c r="B19" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="18.75">
       <c r="B20" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="18.75">
       <c r="B21" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="18.75">
       <c r="C22" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="18.75">
       <c r="B23" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15.75" customHeight="1">
       <c r="B24" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="29"/>
     </row>
     <row r="25" spans="2:4" ht="70.5">
       <c r="B25" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="18.75">
@@ -3287,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23"/>
@@ -3307,7 +3300,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -3321,7 +3314,7 @@
     <row r="6" spans="1:4" ht="40.5">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -3329,178 +3322,178 @@
     <row r="7" spans="1:4">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" ht="18.75">
       <c r="B8" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.5">
       <c r="B12" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4" ht="81">
       <c r="B13" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:4" ht="54">
       <c r="B14" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="B15" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27">
       <c r="B16" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="29"/>
     </row>
     <row r="17" spans="2:4" ht="18.75">
       <c r="B17" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="18.75">
       <c r="B18" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="67.5">
       <c r="B19" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="67.5">
       <c r="B20" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="18.75">
       <c r="B21" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="54">
       <c r="B22" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="18.75">
       <c r="B23" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" s="29"/>
     </row>
     <row r="24" spans="2:4" ht="40.5">
       <c r="B24" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="88.5">
       <c r="B25" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="29" t="s">
         <v>253</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="18.75">
@@ -3540,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23"/>
@@ -3560,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -3668,7 +3661,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3677,7 +3670,7 @@
     <row r="6" spans="1:4" ht="121.5">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3759,10 +3752,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22334E2-1BEA-460B-9D17-129B263B506E}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3783,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3799,29 +3792,29 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5"/>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="54">
+    <row r="6" spans="1:4">
       <c r="A6" s="5"/>
-      <c r="B6" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="27">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3829,33 +3822,30 @@
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5"/>
-      <c r="B11" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5"/>
-      <c r="B13" s="8" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5"/>
@@ -3901,9 +3891,6 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="5"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -3938,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3954,7 +3941,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3964,13 +3951,13 @@
     <row r="6" spans="1:4" ht="135">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3978,66 +3965,66 @@
     <row r="8" spans="1:4">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5"/>
       <c r="B12" s="10"/>
       <c r="C12" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5"/>
       <c r="B13" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5"/>
       <c r="B14" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4108,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4124,7 +4111,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4134,13 +4121,13 @@
     <row r="6" spans="1:4" ht="81">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4148,35 +4135,35 @@
     <row r="8" spans="1:4">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="8"/>
       <c r="C9" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4248,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4264,7 +4251,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4274,13 +4261,13 @@
     <row r="6" spans="1:7" ht="67.5">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="40.5">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="29"/>
@@ -4288,25 +4275,25 @@
     <row r="8" spans="1:7">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G9" s="29"/>
     </row>
@@ -4320,7 +4307,7 @@
     <row r="11" spans="1:7">
       <c r="A11" s="5"/>
       <c r="B11" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -4329,7 +4316,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="5"/>
       <c r="B12" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -4338,33 +4325,33 @@
     <row r="13" spans="1:7" ht="27">
       <c r="A13" s="5"/>
       <c r="B13" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5"/>
       <c r="B14" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5"/>
       <c r="B15" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5"/>
       <c r="G15" s="29"/>
@@ -4372,7 +4359,7 @@
     <row r="16" spans="1:7">
       <c r="A16" s="5"/>
       <c r="B16" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -4381,20 +4368,20 @@
     <row r="17" spans="1:7" ht="40.5">
       <c r="A17" s="5"/>
       <c r="B17" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5"/>
       <c r="B18" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="29"/>
@@ -4403,33 +4390,33 @@
     <row r="19" spans="1:7" ht="40.5">
       <c r="A19" s="5"/>
       <c r="B19" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="5"/>
       <c r="B20" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="5"/>
       <c r="B21" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="29"/>
@@ -4438,13 +4425,13 @@
     <row r="22" spans="1:7" ht="40.5">
       <c r="A22" s="5"/>
       <c r="B22" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G22" s="29"/>
     </row>
@@ -4452,67 +4439,67 @@
       <c r="A23" s="5"/>
       <c r="B23" s="8"/>
       <c r="C23" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="5"/>
       <c r="B24" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G24" s="29"/>
     </row>
     <row r="25" spans="1:7" ht="40.5">
       <c r="A25" s="5"/>
       <c r="B25" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G25" s="29"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="5"/>
       <c r="B26" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="27">
       <c r="A27" s="5"/>
       <c r="B27" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="108">
       <c r="A28" s="5"/>
       <c r="B28" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4574,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4590,7 +4577,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4600,13 +4587,13 @@
     <row r="6" spans="1:4" ht="54">
       <c r="A6" s="12"/>
       <c r="B6" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="12"/>
       <c r="B7" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -4614,7 +4601,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="12"/>
       <c r="B8" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -4622,19 +4609,19 @@
     <row r="9" spans="1:4" ht="26.25" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="114.75" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="29"/>
@@ -4642,7 +4629,7 @@
     <row r="11" spans="1:4" ht="54">
       <c r="A11" s="12"/>
       <c r="B11" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="29"/>
@@ -4650,7 +4637,7 @@
     <row r="12" spans="1:4">
       <c r="A12" s="12"/>
       <c r="B12" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="29"/>
@@ -4658,19 +4645,19 @@
     <row r="13" spans="1:4">
       <c r="A13" s="12"/>
       <c r="B13" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="12"/>
       <c r="B14" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="29"/>
@@ -4678,7 +4665,7 @@
     <row r="15" spans="1:4" ht="27">
       <c r="A15" s="12"/>
       <c r="B15" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="29"/>
@@ -4686,19 +4673,19 @@
     <row r="16" spans="1:4">
       <c r="A16" s="12"/>
       <c r="B16" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="12"/>
       <c r="B17" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="29"/>
@@ -4706,55 +4693,55 @@
     <row r="18" spans="1:4">
       <c r="A18" s="12"/>
       <c r="B18" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="12"/>
       <c r="B19" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="12"/>
       <c r="B20" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="12"/>
       <c r="B21" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="94.5">
       <c r="A22" s="12"/>
       <c r="B22" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="29"/>
@@ -4762,7 +4749,7 @@
     <row r="23" spans="1:4" ht="27">
       <c r="A23" s="12"/>
       <c r="B23" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="29"/>
@@ -4770,7 +4757,7 @@
     <row r="24" spans="1:4">
       <c r="A24" s="12"/>
       <c r="B24" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="29"/>
@@ -4778,53 +4765,53 @@
     <row r="25" spans="1:4">
       <c r="A25" s="12"/>
       <c r="B25" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="12"/>
       <c r="B26" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="27">
       <c r="A27" s="12"/>
       <c r="B27" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="12"/>
       <c r="B28" s="16"/>
       <c r="C28" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="12"/>
       <c r="B29" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="29"/>
@@ -4832,37 +4819,37 @@
     <row r="30" spans="1:4" ht="27">
       <c r="A30" s="12"/>
       <c r="B30" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30">
       <c r="A31" s="12"/>
       <c r="B31" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="12"/>
       <c r="B32" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4942,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4958,7 +4945,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4968,14 +4955,14 @@
     <row r="6" spans="1:4" ht="67.5">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="18"/>
       <c r="B7" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="27"/>
@@ -4983,7 +4970,7 @@
     <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="18"/>
       <c r="B8" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="27"/>
@@ -4991,67 +4978,67 @@
     <row r="9" spans="1:4" ht="18.75">
       <c r="A9" s="18"/>
       <c r="B9" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C9" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>193</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="A10" s="18"/>
       <c r="B10" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.5">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75">
       <c r="A12" s="18"/>
       <c r="B12" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="151.5">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="18"/>
       <c r="B14" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="27"/>
@@ -5059,38 +5046,38 @@
     <row r="15" spans="1:4" ht="18.75">
       <c r="A15" s="18"/>
       <c r="B15" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="28"/>
     </row>
     <row r="16" spans="1:4" ht="18.75">
       <c r="A16" s="18"/>
       <c r="B16" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75">
       <c r="A17" s="18"/>
       <c r="B17" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="18"/>
       <c r="B18" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="27"/>
@@ -5098,103 +5085,103 @@
     <row r="19" spans="1:4">
       <c r="A19" s="18"/>
       <c r="B19" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="18"/>
       <c r="B20" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75">
       <c r="A21" s="18"/>
       <c r="B21" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.75">
       <c r="A22" s="18"/>
       <c r="B22" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.75">
       <c r="B23" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="32.25">
       <c r="B25" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="27"/>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75">
       <c r="B27" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.75">
       <c r="B28" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75">
       <c r="B29" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -5230,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5246,7 +5233,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5256,7 +5243,7 @@
     <row r="6" spans="1:2" ht="54">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5266,21 +5253,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5533,21 +5511,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5572,9 +5556,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A951306-6C0C-4F8D-B79F-C11DFEA418EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DEB144-7C24-42D0-81F0-B4ABD1CE4CA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="277">
   <si>
     <t>header1</t>
   </si>
@@ -1955,6 +1955,19 @@
   </si>
   <si>
     <t>ログイン／ログアウト&lt;html&gt;&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#login" target="_blank"&gt;ログイン&lt;/li&gt;&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#logout" target="_blank"&gt;ログアウト&lt;/li&gt;&lt;/ul&gt;&lt;/html&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>広大moodleへのログイン、ログアウトの方法を説明します。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セツメイ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3752,10 +3765,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22334E2-1BEA-460B-9D17-129B263B506E}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3797,55 +3810,58 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5"/>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" s="8" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5"/>
-      <c r="B11" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="B11" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5"/>
-      <c r="B12" s="8" t="s">
-        <v>11</v>
+      <c r="B12" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5"/>
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5"/>
@@ -3891,6 +3907,9 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -3904,7 +3923,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5253,12 +5272,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5511,27 +5539,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5556,12 +5578,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DEB144-7C24-42D0-81F0-B4ABD1CE4CA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826DA0DB-EFB3-4021-B7A2-E7EA9F7ECB21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -1954,10 +1954,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ログイン／ログアウト&lt;html&gt;&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#login" target="_blank"&gt;ログイン&lt;/li&gt;&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#logout" target="_blank"&gt;ログアウト&lt;/li&gt;&lt;/ul&gt;&lt;/html&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>広大moodleへのログイン、ログアウトの方法を説明します。</t>
     <rPh sb="0" eb="2">
       <t>ヒロダイ</t>
@@ -1968,6 +1964,11 @@
     <rPh sb="24" eb="26">
       <t>セツメイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログイン／ログアウト
+&lt;ul&gt;&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#login" target="_blank"&gt;ログイン&lt;/li&gt;&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#logout" target="_blank"&gt;ログアウト&lt;/li&gt;&lt;/ul&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3768,7 +3769,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3789,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3815,7 +3816,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5272,21 +5273,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5539,21 +5531,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5578,9 +5576,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826DA0DB-EFB3-4021-B7A2-E7EA9F7ECB21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22064AF5-CADC-4A63-B6A9-E2B372693889}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="278">
   <si>
     <t>header1</t>
   </si>
@@ -1967,8 +1967,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ログイン／ログアウト
-&lt;ul&gt;&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#login" target="_blank"&gt;ログイン&lt;/li&gt;&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#logout" target="_blank"&gt;ログアウト&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>ログイン／ログアウト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;html&gt;&lt;ul&gt;&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#login" target="_blank"&gt;ログイン&lt;/li&gt;&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#logout" target="_blank"&gt;ログアウト&lt;/li&gt;&lt;/ul&gt;&lt;/html&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3769,7 +3772,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3779,13 +3782,15 @@
     <col min="3" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="27">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" ht="40.5">
+      <c r="B1" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -5273,12 +5278,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5531,27 +5545,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5576,12 +5584,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22064AF5-CADC-4A63-B6A9-E2B372693889}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2884B231-0A9F-425F-919D-CF02B71ADCFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="277">
   <si>
     <t>header1</t>
   </si>
@@ -1967,11 +1967,8 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ログイン／ログアウト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;html&gt;&lt;ul&gt;&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#login" target="_blank"&gt;ログイン&lt;/li&gt;&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#logout" target="_blank"&gt;ログアウト&lt;/li&gt;&lt;/ul&gt;&lt;/html&gt;</t>
+    <t>ログイン／ログアウト
+&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#login" target="_blank"&gt;ログイン&lt;/a&gt;&amp;emsp;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#logout" target="_blank"&gt;ログアウト&lt;/a&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3772,7 +3769,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3782,15 +3779,13 @@
     <col min="3" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27">
+    <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="40.5">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -5278,21 +5273,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5545,21 +5531,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5584,9 +5576,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2884B231-0A9F-425F-919D-CF02B71ADCFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49511DCD-E179-40FA-9FCB-E01D6B289E11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -1967,8 +1967,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ログイン／ログアウト
-&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#login" target="_blank"&gt;ログイン&lt;/a&gt;&amp;emsp;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#logout" target="_blank"&gt;ログアウト&lt;/a&gt;</t>
+    <t>ログイン／ログアウト&lt;html&gt;&lt;br&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#login" target="_blank"&gt;ログイン&lt;/a&gt;&amp;emsp;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#logout" target="_blank"&gt;ログアウト&lt;/a&gt;&lt;/html&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3769,7 +3768,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5273,12 +5272,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5531,27 +5539,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5576,12 +5578,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49511DCD-E179-40FA-9FCB-E01D6B289E11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6117F67A-37A8-4114-BDC0-43DD500C565A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -1954,7 +1954,15 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>広大moodleへのログイン、ログアウトの方法を説明します。</t>
+    <t>ログイン／ログアウト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>広大moodleへのログイン、ログアウトの方法を説明します。
+&lt;ul&gt;
+&lt;li&gt;&lt;a href="#login"&gt;ログイン&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#logout"&gt;ログアウト&lt;/a&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
     <rPh sb="0" eb="2">
       <t>ヒロダイ</t>
     </rPh>
@@ -1964,10 +1972,6 @@
     <rPh sb="24" eb="26">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ログイン／ログアウト&lt;html&gt;&lt;br&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#login" target="_blank"&gt;ログイン&lt;/a&gt;&amp;emsp;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41/p02.html#logout" target="_blank"&gt;ログアウト&lt;/a&gt;&lt;/html&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3767,8 +3771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22334E2-1BEA-460B-9D17-129B263B506E}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3784,12 +3788,12 @@
       </c>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:4" ht="40.5">
+    <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3812,10 +3816,10 @@
       <c r="A5" s="5"/>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="67.5">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3923,7 +3927,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6117F67A-37A8-4114-BDC0-43DD500C565A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F637A3-013F-4587-9D0C-4E0380E56C14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="280">
   <si>
     <t>header1</t>
   </si>
@@ -1972,6 +1972,17 @@
     <rPh sb="24" eb="26">
       <t>セツメイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>login1.png</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>login2.png</t>
+  </si>
+  <si>
+    <t>login3.png</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3642,7 +3653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E9B584-E692-492C-9839-3FDF3D30AC5F}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -3771,8 +3782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22334E2-1BEA-460B-9D17-129B263B506E}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3833,12 +3844,24 @@
       <c r="B8" s="8" t="s">
         <v>115</v>
       </c>
+      <c r="C8" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="C9" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5"/>
@@ -3865,6 +3888,12 @@
       <c r="A13" s="5"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3927,7 +3956,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5276,21 +5305,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5543,21 +5563,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5582,9 +5608,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F637A3-013F-4587-9D0C-4E0380E56C14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420926E1-2C3A-442D-9E16-1CD0DCB3A2F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" firstSheet="2" activeTab="11" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -19,14 +19,13 @@
     <sheet name="p03" sheetId="4" r:id="rId4"/>
     <sheet name="p04" sheetId="5" r:id="rId5"/>
     <sheet name="p05" sheetId="6" r:id="rId6"/>
-    <sheet name="p06" sheetId="11" r:id="rId7"/>
-    <sheet name="p07" sheetId="7" r:id="rId8"/>
-    <sheet name="p08" sheetId="12" r:id="rId9"/>
-    <sheet name="p09" sheetId="13" r:id="rId10"/>
-    <sheet name="p10" sheetId="14" r:id="rId11"/>
-    <sheet name="p11" sheetId="15" r:id="rId12"/>
-    <sheet name="p12" sheetId="16" r:id="rId13"/>
-    <sheet name="p13" sheetId="17" r:id="rId14"/>
+    <sheet name="p06" sheetId="7" r:id="rId7"/>
+    <sheet name="p07" sheetId="12" r:id="rId8"/>
+    <sheet name="p08" sheetId="13" r:id="rId9"/>
+    <sheet name="p09" sheetId="14" r:id="rId10"/>
+    <sheet name="p10" sheetId="15" r:id="rId11"/>
+    <sheet name="p11" sheetId="16" r:id="rId12"/>
+    <sheet name="p12" sheetId="17" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="285">
   <si>
     <t>header1</t>
   </si>
@@ -85,10 +84,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>言語切替</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>画面左上に表示されている[日本語(ja)]右の▼をクリックします</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -105,29 +100,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>登録メールアドレスの変更</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>画面右上の▼（ユーザメニュー）をクリックし、［プロファイル］を選択し、［プロファイルを編集する］をクリックします</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>コース管理_コース編</t>
-    <rPh sb="9" eb="10">
-      <t>ヘン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ここではコース管理のための基本的な操作を説明します。
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="#choosing course template"&gt;コーステンプレートの選択&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="#course edit"&gt;コース編集&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>好みのコーステンプレートの［このテンプレートを使用する］をクリックします</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -153,23 +129,6 @@
   </si>
   <si>
     <t>[+ セクションを追加する]をクリックすると、セクションを追加することができます。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>コース管理_参加者編</t>
-    <rPh sb="6" eb="9">
-      <t>サンカシャ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヘン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;ul&gt;
-&lt;li&gt;&lt;a href="#participant"&gt;参加者&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="#group management"&gt;グループ管理&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -238,12 +197,6 @@
   </si>
   <si>
     <t>動画</t>
-  </si>
-  <si>
-    <t>moodle では URL またはページを利用して、ストリーム動画を掲載することができます。
-操作方法については、「12.1 URL」および「12.2 ページ」を参照してください。
-また、Blackboard Learn で利用していたストリーム動画は、容易にコースに貼り付ける方
-法がありますので、別冊の移行編を参照してください。</t>
   </si>
   <si>
     <t>課題</t>
@@ -436,13 +389,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>広大moodle マニュアル guide41-6</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ヒロダイ </t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>広大moodle マニュアル guide41-7</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ヒロダイ </t>
@@ -479,13 +425,6 @@
   </si>
   <si>
     <t>広大moodle マニュアル guide41-12</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ヒロダイ </t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>広大moodle マニュアル guide41-13</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ヒロダイ </t>
     </rPh>
@@ -501,87 +440,16 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　2021 年度に広島大学は、オンライン授業環境のさらなる充実をはかるために、オープンソースの e-Learning プラットホームである moodle をもとに開発した、広大 moodle を導入しました。
-　広大 moodle では、授業や講習会の単位で作成されたコースと呼ばれる Web ページ群をもとに学修活動を行います。そこでは学生に授業資料を提示したり、レポート課題を出したり、小テストを課したりすることができます。
-　授業での広大 moodle の利便性を高めるために、「もみじ」で開講されている授業科目に対応したコースは自動作成され、担当教員や履修生がそのコースに自動的に登録されます。さらに「もみじ」で担当教員や履修生に変更があった場合、その内容が広大 moodle のコースに自動的に反映されます。
-　ぜひ広大 moodle をご利用ください。本書では、広大 moodle の基本的な使い方を簡単にご紹介します。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ブラウザを起動し、以下の URL にアクセスします
 　https://moodle.vle.hiroshima-u.ac.jp</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="login"&gt;&lt;/a&gt;ログイン&lt;/h3&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="logout"&gt;&lt;/a&gt;ログアウト&lt;/h3&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="language menu"&gt;&lt;/a&gt;言語メニューで選択&lt;/h3&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="preferred language"&gt;&lt;/a&gt;優先言語の設定&lt;/h3&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 広大 moodle の初期状態は日本語表示ですが、英語表示で利用することもできます。
-表示言語は、画面上部にある言語メニューで選択するか、優先言語を設定することで切り替えることができます。
-言語メニューでの切り替えは一時的なもので、次回ログイン時には初期の日本語表示に戻ってしまいます。恒久的に英語表示で使用したい場合は、優先言語を設定します。
-※表示言語が切り替わるのは、メニューやボタン、moodle からのメッセージ等です。コース名やユーザ氏名、課題の内容等、表示言語が変わらない部分もあります。
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="#language menu"&gt;言語メニューで選択&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="#preferred language"&gt;優先言語の設定&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>画面右上の▼（ユーザメニュー）をクリックし、［プリファレンス］を選択し、［優先言語］をクリックします</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="email change"&gt;&lt;/a&gt;登録メールアドレスの変更&lt;/h3&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 初期状態で、広大 moodle にはあなたの姓・名、広大メールアドレスが登録されています。
-これらは、必要に応じて変更することができます。
-特にメールアドレスは、広大 moodle からの通知を見落とさないために、普段よく使っているものに変更するとよいでしょう。
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="#email change"&gt;登録メールアドレスの変更&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>変更したい情報（姓・名、メールアドレス）を入力し、［プロファイルを更新する］をクリックします</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="course edit"&gt;&lt;/a&gt;コース編集&lt;/h3&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="edit mode"&gt;&lt;/a&gt;編集モード&lt;/h4&gt;</t>
-    <rPh sb="28" eb="30">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="section"&gt;&lt;/a&gt;セクション&lt;/h4&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="course setting"&gt;&lt;/a&gt;コース設定&lt;/h4&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="choosing course template"&gt;&lt;/a&gt;コーステンプレートの選択&lt;/h3&gt;
-はじめてコースを開くと、いくつかのコーステンプレートからコースフォーマットを選択するように求められます。好みのコーステンプレートを選択してください。</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -619,223 +487,15 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="participant"&gt;&lt;/a&gt;参加者&lt;/h3&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="participant confirmation"&gt;&lt;/a&gt;参加者の確認&lt;/h4&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>&lt;h4&gt;&lt;a name="course roll"&gt;&lt;/a&gt;コールロールの管理&lt;/h4&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&lt;h4&gt;&lt;a name="creating groups"&gt;&lt;/a&gt;グループの手動作成&lt;/h4&gt;
-ここではグループを手動で作成する方法を説明します。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="group members"&gt;&lt;/a&gt;グループメンバーの登録&lt;/h4&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;&lt;a name="file"&gt;&lt;/a&gt;ファイル&lt;/h3&gt;</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;&lt;a name="Publishing files"&gt;&lt;/a&gt;ファイルの公開&lt;/h4&gt;</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>&lt;h4&gt;&lt;a name="File deletion"&gt;&lt;/a&gt;ファイルの削除&lt;/h4&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>&lt;h4&gt;&lt;a name="file update"&gt;&lt;/a&gt;ファイルの更新&lt;/h4&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;&lt;a name="folder"&gt;&lt;/a&gt;フォルダ&lt;/h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;
-複数のファイルを 1 つにまとめて掲載できる機能です。</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;&lt;a name="work"&gt;&lt;/a&gt;課題&lt;/h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;&lt;a name="Create"&gt;&lt;/a&gt;課題の作成&lt;/h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -966,12 +626,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&lt;h4&gt;&lt;a name="registration of ta"&gt;&lt;/a&gt;TA の登録&lt;/h4&gt;
-「もみじ」と連携したコースであれば、主担当教員、副担当教員、世話教員、履修登録した学生は自動的に登録されますが、TA や授業を補助する職員は自動登録されません。したがって、TA や授業を補助する職員は、教員がコースで登録する必要があります。
-ここではその登録方法を説明します。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>［ユーザを選択する］の検索欄に登録したい人の広大 ID または氏名を入力し、表示される候補の中から、登録したい人を選択します</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -985,14 +639,6 @@
   </si>
   <si>
     <t>変更を保存する場合は アイコンをクリックし、変更をキャンセルする場合は×をクリックします</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;&lt;a name="group management"&gt;&lt;/a&gt;グループ管理&lt;/h3&gt;
-moodle のコースでは学生をグループ分けすることができます。そうすることで、グループワークをさせたり、グループごとに異なる教材を提示したりすることが可能です。
-ここではグループ作成の方法をご説明します。
-グループでは、メンバー間での共同作業をしたり、異なるグループのメンバーやその提出やフォーラム投稿を見えなくするなどの作用があります。
-</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1110,14 +756,6 @@
 ロールを割り当てる：ロールを割り当てます
 削除：ファイルを削除します</t>
     </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>moodle の課題は、学生の回答方法として、ファイル提出かオンラインテキスト入力かを指定することができます。
-また課題提出後には、レポートについてのフィードバック（コメント）や評定（点数等）を追加することもできます。
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="#work"&gt;課題&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1434,14 +1072,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>学生に資料を提示するために PDF や Word、Excel ファイル等をコースに掲載できます。
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="#file"&gt;ファイル&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="#folder"&gt;フォルダ&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>chartn</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1958,10 +1588,43 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>login1.png</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>login2.png</t>
+  </si>
+  <si>
+    <t>login3.png</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="moodle"&gt;&lt;/a&gt;広大moodleとは&lt;/h3&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>本書では、広大 moodle の基本的な使い方を簡単にご紹介します。
+&lt;ul&gt;
+&lt;li&gt;&lt;a href="#moodle"&gt;広大moodleとは&lt;/a&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <rPh sb="62" eb="64">
+      <t>ヒロダイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　2021 年度に広島大学は、オンライン授業環境のさらなる充実をはかるために、オープンソースの e-Learning プラットホームである moodle をもとに開発した、広大 moodle を導入しました。
+　広大 moodle では、授業や講習会の単位で作成されたコースと呼ばれる Web ページ群をもとに学修活動を行います。そこでは学生に授業資料を提示したり、レポート課題を出したり、小テストを課したりすることができます。
+　授業での広大 moodle の利便性を高めるために、「もみじ」で開講されている授業科目に対応したコースは自動作成され、担当教員や履修生がそのコースに自動的に登録されます。さらに「もみじ」で担当教員や履修生に変更があった場合、その内容が広大 moodle のコースに自動的に反映されます。
+　ぜひ広大 moodle をご利用ください。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>広大moodleへのログイン、ログアウトの方法を説明します。
 &lt;ul&gt;
-&lt;li&gt;&lt;a href="#login"&gt;ログイン&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="#logout"&gt;ログアウト&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#access"&gt;広大moodleへアクセスする&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#login"&gt;広大moodleへログインする&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#logout"&gt;広大moodleからログアウトする&lt;/a&gt;&lt;/li&gt;
 &lt;/ul&gt;</t>
     <rPh sb="0" eb="2">
       <t>ヒロダイ</t>
@@ -1975,15 +1638,804 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>login1.png</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>login2.png</t>
-  </si>
-  <si>
-    <t>login3.png</t>
-    <phoneticPr fontId="3"/>
+    <t>&lt;h3&gt;&lt;a name="login"&gt;&lt;/a&gt;広大moodleへログインする&lt;/h3&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="logout"&gt;&lt;/a&gt;広大moodleからログアウトする&lt;/h3&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="access"&gt;&lt;/a&gt;広大moodleへアクセスする&lt;/h3&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【編集中】</t>
+    <rPh sb="1" eb="4">
+      <t>ヘンシュウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サイトの表示画面の設定</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="dashboad"&gt;&lt;/a&gt;ダッシュボードの構成&lt;/h3&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【要編集】</t>
+    <rPh sb="1" eb="4">
+      <t>ヨウヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【要編集】
+&lt;ul&gt;
+&lt;li&gt;&lt;a href="#dashboad"&gt;ダッシュボードの構成&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#language"&gt;言語を切り替える方法&lt;/a&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <rPh sb="1" eb="4">
+      <t>ヨウヘンシュウ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="language"&gt;&lt;/a&gt;言語を切り替える方法&lt;/h3&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="language menu"&gt;&lt;/a&gt;言語メニューで選択&lt;/h3&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="preferred language"&gt;&lt;/a&gt;優先言語の設定&lt;/h3&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 初期状態で、広大 moodle にはあなたの姓・名、広大メールアドレスが登録されています。
+これらは、必要に応じて変更することができます。
+特にメールアドレスは、広大 moodle からの通知を見落とさないために、普段よく使っているものに変更するとよいでしょう。
+&lt;ul&gt;
+&lt;li&gt;&lt;a href="#email change"&gt;登録メールアドレスを変更する&lt;/a&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="email change"&gt;&lt;/a&gt;登録メールアドレスを変更する&lt;/h3&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>登録メールアドレス</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コース管理の基本操作</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="course setting"&gt;&lt;/a&gt;コース設定&lt;/h3&gt;</t>
+    <rPh sb="36" eb="38">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="choosing course template"&gt;&lt;/a&gt;コーステンプレートの選択&lt;/h4&gt;
+はじめてコースを開くと、いくつかのコーステンプレートからコースフォーマットを選択するように求められます。好みのコーステンプレートを選択してください。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="course edit"&gt;&lt;/a&gt;コースの編集をする&lt;/h4&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h5&gt;&lt;a name="edit mode"&gt;&lt;/a&gt;編集モード&lt;/h5&gt;</t>
+    <rPh sb="28" eb="30">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h5&gt;&lt;a name="section"&gt;&lt;/a&gt;セクション&lt;/h5&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h5&gt;&lt;a name="course setting"&gt;&lt;/a&gt;コース設定&lt;/h5&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="participant"&gt;&lt;/a&gt;参加者設定&lt;/h3&gt;</t>
+    <rPh sb="33" eb="35">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h4&gt;&lt;a name="group management"&gt;&lt;/a&gt;グループ管理&lt;/h4&gt;
+moodle のコースでは学生をグループ分けすることができます。そうすることで、グループワークをさせたり、グループごとに異なる教材を提示したりすることが可能です。
+ここではグループ作成の方法をご説明します。
+グループでは、メンバー間での共同作業をしたり、異なるグループのメンバーやその提出やフォーラム投稿を見えなくするなどの作用があります。
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="participant confirmination"&gt;&lt;/a&gt;コースの参加者を確認する&lt;/h4&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="TA"&gt;&lt;/a&gt;コースにTAを登録する&lt;/h4&gt;
+「もみじ」と連携したコースであれば、主担当教員、副担当教員、世話教員、履修登録した学生は自動的に登録されますが、TA や授業を補助する職員は自動登録されません。したがって、TA や授業を補助する職員は、教員がコースで登録する必要があります。
+ここではその登録方法を説明します。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="group add"&gt;&lt;/a&gt;グループを追加する&lt;/h4&gt;
+ここではグループを手動で作成する方法を説明します。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="user add"&gt;&lt;/a&gt;グループにユーザを追加する&lt;/h4&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;&lt;a name="activity resourse"&gt;&lt;/a&gt;コースへ追加できる活動とリソースの一覧&lt;/h3&gt;</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;&lt;a name="file"&gt;&lt;/a&gt;ファイルを公開する&lt;/h3&gt;</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;&lt;a name="folder"&gt;&lt;/a&gt;フォルダを作成する&lt;/h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;
+複数のファイルを 1 つにまとめて掲載できる機能です。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;&lt;a name="Publishing files"&gt;&lt;/a&gt;公開したファイルを更新または削除する&lt;/h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <rPh sb="49" eb="51">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ここではコース管理のための基本的な操作を説明します。
+&lt;ul&gt;
+　&lt;li&gt;&lt;a href="#course setting"&gt;コース設定&lt;/a&gt;
+　&lt;ul&gt;
+　　&lt;li&gt;&lt;a href="#choosing course template"&gt;コーステンプレートを選択する&lt;/a&gt;&lt;/li&gt;
+　　&lt;li&gt;&lt;a href="#course edit"&gt;コースの編集をする&lt;/a&gt;&lt;/li&gt;
+　&lt;/ul&gt;
+　&lt;/li&gt;
+　&lt;li&gt;&lt;a href="#participant"&gt;参加者設定&lt;/a&gt;
+　&lt;ul&gt;
+　　&lt;li&gt;&lt;a href="#participant confirmination"&gt;コースの参加者を確認する&lt;/a&gt;&lt;/li&gt;
+　　&lt;li&gt;&lt;a href="#TA"&gt;コースにTAを登録する&lt;/a&gt;&lt;/li&gt;
+　　&lt;li&gt;&lt;a href="#teacher"&gt;コースに教員や学生支援職員を登録する&lt;/a&gt;&lt;/li&gt;
+　　&lt;li&gt;&lt;a href="#group add"&gt;グループを追加する&lt;/a&gt;&lt;/li&gt;
+　　&lt;li&gt;&lt;a href="#user add"&gt;グループにユーザを追加する&lt;/a&gt;&lt;/li&gt;
+　&lt;/ul&gt;
+　&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <rPh sb="66" eb="68">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="235" eb="238">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="303" eb="305">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="344" eb="346">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="387" eb="389">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="390" eb="394">
+      <t>ガクセイシエン</t>
+    </rPh>
+    <rPh sb="394" eb="396">
+      <t>ショクイン</t>
+    </rPh>
+    <rPh sb="397" eb="399">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="443" eb="445">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="492" eb="494">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>学生に資料を提示するために PDF や Word、Excel ファイル等をコースに掲載できます。
+&lt;ul&gt;
+&lt;li&gt;&lt;a href="#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>activity resourse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;コースへ追加できる活動とリソースの一覧&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#file"&gt;ファイルを公開する&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ile del</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">"&gt;公開したファイルを削除または更新する&lt;/a&gt;
+&lt;ul&gt;
+    &lt;li&gt;&lt;a href="#file </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>deletion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">"&gt;ファイルの削除&lt;/a&gt;&lt;/li&gt;
+    &lt;li&gt;&lt;a href="#file </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;ファイルの更新&lt;/a&gt;&lt;/li&gt;
+  &lt;/ul&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>older</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;フォルダを作成する&lt;/a&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+    </r>
+    <rPh sb="245" eb="247">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>moodle では URL またはページを利用して、ストリーム動画を掲載することができます。
+操作方法については、「12.1 URL」および「12.2 ページ」を参照してください。
+また、Blackboard Learn で利用していたストリーム動画は、容易にコースに貼り付ける方
+法がありますので、別冊の移行編を参照してください。
+&lt;ul&gt;
+&lt;li&gt;&lt;a href="#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>movie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;動画を掲載する&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>reuse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;動画を再利用する&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>access res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;アクセス者を限定して動画を掲載する&lt;/a&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+    </r>
+    <rPh sb="194" eb="196">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="197" eb="199">
+      <t>ケイサイ</t>
+    </rPh>
+    <rPh sb="232" eb="234">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="235" eb="238">
+      <t>サイリヨウ</t>
+    </rPh>
+    <rPh sb="280" eb="281">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="282" eb="284">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="286" eb="288">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="289" eb="291">
+      <t>ケイサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>moodle の課題は、学生の回答方法として、ファイル提出かオンラインテキスト入力かを指定することができます。
+また課題提出後には、レポートについてのフィードバック（コメント）や評定（点数等）を追加することもできます。
+&lt;ul&gt;
+&lt;li&gt;&lt;a href="#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;課題を作成する&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>conf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;課題の提出状況を確認する&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>extend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;提出期限を延長する&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>evaluate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;課題の採点をする&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>download</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;課題提出物を一括でダウンロードする&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;採点結果を日付を指定して公開する&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>quick</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;一覧表から評定する（クイック評定）&lt;/a&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+    </r>
+    <rPh sb="182" eb="184">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;&lt;a name="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>reate"&gt;&lt;/a&gt;課題を作成する&lt;/h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>広大moodle マニュアル guide41-6</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
@@ -2151,7 +2603,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2185,15 +2637,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2237,6 +2680,9 @@
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2555,7 +3001,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2585,7 +3031,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2595,7 +3041,7 @@
     <row r="5" spans="1:2" ht="40.5">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2609,228 +3055,436 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEB116E-F9A6-4175-8412-6817F9A985E1}">
-  <dimension ref="A1:D32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CED9BC5-84B4-4D12-B0B3-4DC22ED77DC1}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="21"/>
-    <col min="2" max="2" width="104" style="21" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="9" style="18"/>
+    <col min="2" max="2" width="90" style="18" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+        <v>100</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:4" ht="81">
-      <c r="A6" s="18"/>
-      <c r="B6" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:4" ht="18.75">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" ht="27">
+      <c r="A6" s="15"/>
+      <c r="B6" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="15"/>
+      <c r="B7" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75">
+      <c r="B10" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75">
+      <c r="B11" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.75">
+      <c r="B14" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75">
+      <c r="B15" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75">
+      <c r="B16" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="2:4" ht="53.25" customHeight="1">
+      <c r="B17" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="2:4" ht="18.75">
+      <c r="B18" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="2:4" ht="18.75">
+      <c r="B19" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="2:4" ht="18.75">
+      <c r="B20" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DD84A2-8553-4736-8CDC-02E4220E2CE5}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="18"/>
+    <col min="2" max="2" width="90" style="18" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="15"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" ht="40.5">
+      <c r="A6" s="15"/>
+      <c r="B6" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="15"/>
+      <c r="B7" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" ht="18.75">
-      <c r="A8" s="18"/>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="B9" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75">
+      <c r="B10" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75">
+      <c r="B11" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="67.5">
+      <c r="B12" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="18"/>
-      <c r="B9" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75">
-      <c r="B11" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" ht="18.75">
-      <c r="B12" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" ht="40.5">
-      <c r="B13" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="111">
-      <c r="B14" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" ht="121.5">
-      <c r="B15" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" ht="124.5">
-      <c r="B16" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="2:4" ht="192">
-      <c r="B17" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="2:4" ht="219">
-      <c r="B18" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="2:4" ht="70.5">
-      <c r="B19" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="2:4" ht="165">
-      <c r="B20" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="2:4" ht="293.25" customHeight="1">
-      <c r="B21" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="2:4" ht="104.25" customHeight="1">
-      <c r="B22" s="24" t="s">
+      <c r="C12" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="96.75">
+      <c r="B13" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="1:4" ht="135">
+      <c r="B14" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27">
+      <c r="B15" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="59.25">
+      <c r="B16" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="26"/>
+    </row>
+    <row r="17" spans="2:4" ht="27">
+      <c r="B17" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="26"/>
+    </row>
+    <row r="18" spans="2:4" ht="18.75">
+      <c r="B18" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="18.75">
+      <c r="B19" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="18.75">
+      <c r="B20" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="18.75">
+      <c r="B21" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="18.75">
+      <c r="C22" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="18.75">
+      <c r="B23" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B24" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="26"/>
+    </row>
+    <row r="25" spans="2:4" ht="70.5">
+      <c r="B25" s="19" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" ht="32.25">
-      <c r="B23" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="18.75">
-      <c r="B25" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="7"/>
+      <c r="C25" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="26" spans="2:4" ht="18.75">
-      <c r="B26" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="54">
-      <c r="B28" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="2:4" ht="27">
-      <c r="B29" s="22" t="s">
-        <v>178</v>
-      </c>
+      <c r="D26" s="26"/>
+    </row>
+    <row r="27" spans="2:4" ht="18.75">
+      <c r="D27" s="26"/>
+    </row>
+    <row r="28" spans="2:4" ht="18.75">
+      <c r="D28" s="26"/>
+    </row>
+    <row r="29" spans="2:4" ht="18.75">
+      <c r="D29" s="26"/>
     </row>
     <row r="30" spans="2:4" ht="18.75">
-      <c r="B30" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="2:4" ht="18.75">
-      <c r="B31" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="2:4" ht="18.75">
-      <c r="B32" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="7"/>
+      <c r="D30" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -2839,167 +3493,254 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CED9BC5-84B4-4D12-B0B3-4DC22ED77DC1}">
-  <dimension ref="A1:D22"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5F1CFD-792A-40F7-A551-A5197A9AF048}">
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="21"/>
-    <col min="2" max="2" width="90" style="21" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="9" style="18"/>
+    <col min="2" max="2" width="90" style="18" customWidth="1"/>
+    <col min="3" max="3" width="9" style="18"/>
+    <col min="4" max="4" width="14.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+        <v>102</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:4" ht="27">
-      <c r="A6" s="18"/>
-      <c r="B6" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" ht="40.5">
+      <c r="A6" s="15"/>
+      <c r="B6" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="15"/>
+      <c r="B7" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.75">
+      <c r="B8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="21" t="s">
-        <v>66</v>
+      <c r="B9" s="18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
-      <c r="B10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="7"/>
+      <c r="B10" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
-      <c r="B11" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="20" t="s">
+      <c r="B11" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="40.5">
+      <c r="B12" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" ht="81">
+      <c r="B13" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:4" ht="18.75">
-      <c r="B14" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="7"/>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="1:4" ht="54">
+      <c r="B14" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
-      <c r="B15" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" ht="18.75">
-      <c r="B16" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="2:4" ht="53.25" customHeight="1">
-      <c r="B17" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="B15" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27">
+      <c r="B16" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="26"/>
+    </row>
+    <row r="17" spans="2:4" ht="18.75">
+      <c r="B17" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="18" spans="2:4" ht="18.75">
-      <c r="B18" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="2:4" ht="18.75">
-      <c r="B19" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="2:4" ht="18.75">
-      <c r="B20" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="21" t="s">
-        <v>77</v>
-      </c>
+      <c r="B18" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="67.5">
+      <c r="B19" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="67.5">
+      <c r="B20" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="18.75">
+      <c r="B21" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="54">
+      <c r="B22" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="18.75">
+      <c r="B23" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="26"/>
+    </row>
+    <row r="24" spans="2:4" ht="40.5">
+      <c r="B24" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="88.5">
+      <c r="B25" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="18.75">
+      <c r="D26" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -3007,640 +3748,114 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DD84A2-8553-4736-8CDC-02E4220E2CE5}">
-  <dimension ref="A1:D30"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454927E8-BBE5-4EB0-9F20-CB3C0B8D7DE8}">
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="21"/>
-    <col min="2" max="2" width="90" style="21" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="9" style="18"/>
+    <col min="2" max="2" width="90" style="18" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+        <v>103</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:4" ht="40.5">
-      <c r="A6" s="18"/>
-      <c r="B6" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" ht="69.75" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="1:4" ht="18.75">
-      <c r="B8" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75">
-      <c r="B9" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="29"/>
-    </row>
-    <row r="10" spans="1:4" ht="18.75">
-      <c r="B10" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75">
-      <c r="B11" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="67.5">
-      <c r="B12" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="96.75">
-      <c r="B13" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="29"/>
-    </row>
-    <row r="14" spans="1:4" ht="135">
-      <c r="B14" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="27">
-      <c r="B15" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="59.25">
-      <c r="B16" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="29"/>
-    </row>
-    <row r="17" spans="2:4" ht="27">
-      <c r="B17" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="29"/>
-    </row>
-    <row r="18" spans="2:4" ht="18.75">
-      <c r="B18" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="18.75">
-      <c r="B19" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="18.75">
-      <c r="B20" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="18.75">
-      <c r="B21" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="18.75">
-      <c r="C22" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="18.75">
-      <c r="B23" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B24" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="29"/>
-    </row>
-    <row r="25" spans="2:4" ht="70.5">
-      <c r="B25" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="18.75">
-      <c r="D26" s="29"/>
-    </row>
-    <row r="27" spans="2:4" ht="18.75">
-      <c r="D27" s="29"/>
-    </row>
-    <row r="28" spans="2:4" ht="18.75">
-      <c r="D28" s="29"/>
-    </row>
-    <row r="29" spans="2:4" ht="18.75">
-      <c r="D29" s="29"/>
-    </row>
-    <row r="30" spans="2:4" ht="18.75">
-      <c r="D30" s="29"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5F1CFD-792A-40F7-A551-A5197A9AF048}">
-  <dimension ref="A1:D26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="21"/>
-    <col min="2" max="2" width="90" style="21" customWidth="1"/>
-    <col min="3" max="3" width="9" style="21"/>
-    <col min="4" max="4" width="14.625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="23"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="23"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:4" ht="40.5">
-      <c r="A6" s="18"/>
-      <c r="B6" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="1:4" ht="18.75">
-      <c r="B8" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="29"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75">
-      <c r="B10" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75">
-      <c r="B11" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="40.5">
-      <c r="B12" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" s="29"/>
-    </row>
-    <row r="13" spans="1:4" ht="81">
-      <c r="B13" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="29"/>
-    </row>
-    <row r="14" spans="1:4" ht="54">
-      <c r="B14" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.75">
-      <c r="B15" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27">
-      <c r="B16" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="29"/>
-    </row>
-    <row r="17" spans="2:4" ht="18.75">
-      <c r="B17" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="18.75">
-      <c r="B18" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="67.5">
-      <c r="B19" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="67.5">
-      <c r="B20" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="18.75">
-      <c r="B21" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="54">
-      <c r="B22" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="18.75">
-      <c r="B23" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="29"/>
-    </row>
-    <row r="24" spans="2:4" ht="40.5">
-      <c r="B24" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="88.5">
-      <c r="B25" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="18.75">
-      <c r="D26" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454927E8-BBE5-4EB0-9F20-CB3C0B8D7DE8}">
-  <dimension ref="A1:D24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="21"/>
-    <col min="2" max="2" width="90" style="21" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="23"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="23"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:4" ht="69.75" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="B12" s="22"/>
+      <c r="B12" s="19"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="B13" s="22"/>
+      <c r="B13" s="19"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="B14" s="22"/>
+      <c r="B14" s="19"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="B15" s="22"/>
+      <c r="B15" s="19"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="B16" s="20"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="22"/>
+      <c r="B18" s="19"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="22"/>
+      <c r="B19" s="19"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="22"/>
+      <c r="B20" s="19"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="22"/>
+      <c r="B21" s="19"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="20"/>
+      <c r="B22" s="17"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="22"/>
+      <c r="B23" s="19"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="22"/>
+      <c r="B24" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -3653,8 +3868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E9B584-E692-492C-9839-3FDF3D30AC5F}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3689,27 +3904,33 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="121.5">
+    <row r="6" spans="1:4" ht="54">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" ht="121.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
@@ -3780,10 +4001,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22334E2-1BEA-460B-9D17-129B263B506E}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3804,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3820,87 +4041,93 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5"/>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:4" ht="67.5">
+    <row r="6" spans="1:4" ht="81">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="27">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27">
       <c r="A10" s="5"/>
       <c r="B10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>105</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5"/>
-      <c r="B12" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5"/>
       <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>279</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5"/>
+      <c r="B14" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5"/>
+      <c r="B15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5"/>
@@ -3943,6 +4170,12 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="5"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -3953,10 +4186,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609FDD9D-72C6-4385-979E-504ED293230E}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D8"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3977,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>12</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3993,131 +4226,151 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5"/>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="135">
+    <row r="6" spans="1:4" ht="67.5">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>120</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+        <v>253</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="25"/>
+        <v>256</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" s="8" t="s">
-        <v>119</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5"/>
-      <c r="B11" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>192</v>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>157</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>272</v>
-      </c>
+      <c r="B12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5"/>
       <c r="B13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5"/>
-      <c r="B14" s="8" t="s">
-        <v>16</v>
+      <c r="B14" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5"/>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="5"/>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="5"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2">
       <c r="A19" s="5"/>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="5"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:2">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:2">
       <c r="A22" s="5"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:2">
       <c r="A23" s="5"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:2">
       <c r="A24" s="5"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:2">
       <c r="A25" s="5"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:2">
       <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4126,7 +4379,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4147,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>17</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4163,7 +4416,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4173,13 +4426,13 @@
     <row r="6" spans="1:4" ht="81">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>123</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>122</v>
+        <v>260</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4187,35 +4440,35 @@
     <row r="8" spans="1:4">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>268</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>269</v>
+      <c r="C9" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>270</v>
+        <v>107</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4262,10 +4515,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1601574-9F97-41C0-8451-5E02C95F2AA9}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4287,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>19</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4303,937 +4556,510 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5"/>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="67.5">
+    <row r="6" spans="1:7" ht="243">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="40.5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="5"/>
-      <c r="B7" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="40.5">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="29"/>
+        <v>264</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="B10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5"/>
       <c r="B11" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="G11" s="29"/>
+        <v>18</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5"/>
-      <c r="B12" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="1:7" ht="27">
+      <c r="B12" s="8"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="26"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="5"/>
       <c r="B13" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="G13" s="29"/>
+        <v>265</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5"/>
       <c r="B14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:7">
+        <v>266</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="1:7" ht="27">
       <c r="A15" s="5"/>
       <c r="B15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="G15" s="29"/>
+        <v>108</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5"/>
       <c r="B16" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="1:7" ht="40.5">
+        <v>19</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="5"/>
       <c r="B17" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="G17" s="29"/>
+        <v>20</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5"/>
       <c r="B18" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="29"/>
-      <c r="G18" s="29"/>
+        <v>267</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" ht="40.5">
       <c r="A19" s="5"/>
       <c r="B19" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="29"/>
+        <v>109</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="5"/>
       <c r="B20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="1:7">
+        <v>110</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="26"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="1:7" ht="40.5">
       <c r="A21" s="5"/>
       <c r="B21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="29"/>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="1:7" ht="40.5">
+        <v>111</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="5"/>
       <c r="B22" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="G22" s="29"/>
+        <v>21</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="5"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="B23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="26"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="1:7" ht="40.5">
       <c r="A24" s="5"/>
       <c r="B24" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="G24" s="29"/>
-    </row>
-    <row r="25" spans="1:7" ht="40.5">
+        <v>112</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="5"/>
-      <c r="B25" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="G25" s="29"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="5"/>
       <c r="B26" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="27">
+        <v>23</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" s="26"/>
+    </row>
+    <row r="27" spans="1:7" ht="40.5">
       <c r="A27" s="5"/>
       <c r="B27" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="108">
+        <v>113</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="26"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="5"/>
-      <c r="B28" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="B28" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="27">
       <c r="A29" s="5"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="B29" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="108">
       <c r="A30" s="5"/>
+      <c r="B30" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="5"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="5"/>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="5"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="5"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="5"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30402F76-58EB-463D-B02C-1E24EF5472B7}">
-  <dimension ref="A1:D42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="103.875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="9" style="15"/>
-    <col min="4" max="4" width="16.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="12"/>
-      <c r="B5" s="16"/>
-    </row>
-    <row r="6" spans="1:4" ht="54">
-      <c r="A6" s="12"/>
-      <c r="B6" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="12"/>
-      <c r="B8" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:4" ht="26.25" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="114.75" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="29"/>
-    </row>
-    <row r="11" spans="1:4" ht="54">
-      <c r="A11" s="12"/>
-      <c r="B11" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="29"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="12"/>
-      <c r="B12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="29"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="12"/>
-      <c r="B13" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="29"/>
-    </row>
-    <row r="15" spans="1:4" ht="27">
-      <c r="A15" s="12"/>
-      <c r="B15" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="29"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="12"/>
-      <c r="B16" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="12"/>
-      <c r="B17" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="29"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="12"/>
-      <c r="B18" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="12"/>
-      <c r="B19" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="12"/>
-      <c r="B20" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="12"/>
-      <c r="B21" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="94.5">
-      <c r="A22" s="12"/>
-      <c r="B22" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="29"/>
-    </row>
-    <row r="23" spans="1:4" ht="27">
-      <c r="A23" s="12"/>
-      <c r="B23" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="29"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="12"/>
-      <c r="B24" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="29"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="12"/>
-      <c r="B25" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="12"/>
-      <c r="B26" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="27">
-      <c r="A27" s="12"/>
-      <c r="B27" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="12"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="12"/>
-      <c r="B29" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="29"/>
-    </row>
-    <row r="30" spans="1:4" ht="27">
-      <c r="A30" s="12"/>
-      <c r="B30" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30">
-      <c r="A31" s="12"/>
-      <c r="B31" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="12"/>
-      <c r="B32" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="12"/>
+      <c r="B33" s="13" t="s">
+        <v>271</v>
+      </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="12"/>
-      <c r="C34" s="12"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="12"/>
-      <c r="C35" s="12"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="7"/>
+    <row r="34" spans="1:4" ht="27">
+      <c r="A34" s="5"/>
+      <c r="B34" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="135">
+      <c r="A35" s="5"/>
+      <c r="B35" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="26"/>
+    </row>
+    <row r="36" spans="1:4" ht="54">
+      <c r="A36" s="5"/>
+      <c r="B36" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="26"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="7"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="26"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="7"/>
+      <c r="B38" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="12"/>
-      <c r="C39" s="12"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="C40" s="12"/>
-      <c r="D40" s="7"/>
+      <c r="B39" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="26"/>
+    </row>
+    <row r="40" spans="1:4" ht="27">
+      <c r="B40" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="C41" s="12"/>
-      <c r="D41" s="7"/>
+      <c r="B41" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="D42" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AB5327-E917-4FC1-87EA-50E5E24BBDE2}">
-  <dimension ref="A1:D30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="17"/>
-    <col min="2" max="2" width="103.875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9" style="17"/>
-    <col min="4" max="4" width="9" style="26"/>
-    <col min="5" max="16384" width="9" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="19"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20"/>
-    </row>
-    <row r="6" spans="1:4" ht="67.5">
-      <c r="A6" s="18"/>
-      <c r="B6" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="25"/>
-    </row>
-    <row r="7" spans="1:4" ht="18.75">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" ht="18.75">
-      <c r="A8" s="18"/>
-      <c r="B8" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:4" ht="18.75">
-      <c r="A9" s="18"/>
-      <c r="B9" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75">
-      <c r="A10" s="18"/>
-      <c r="B10" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="40.5">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.75">
-      <c r="A12" s="18"/>
-      <c r="B12" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="151.5">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="18"/>
-      <c r="B14" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="27"/>
-    </row>
-    <row r="15" spans="1:4" ht="18.75">
-      <c r="A15" s="18"/>
-      <c r="B15" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" ht="18.75">
-      <c r="A16" s="18"/>
-      <c r="B16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.75">
-      <c r="A17" s="18"/>
-      <c r="B17" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="18"/>
-      <c r="B18" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="27"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="18"/>
-      <c r="B19" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="18"/>
-      <c r="B20" s="17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.75">
-      <c r="A21" s="18"/>
-      <c r="B21" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.75">
-      <c r="A22" s="18"/>
-      <c r="B22" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18.75">
-      <c r="B23" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="B24" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="32.25">
-      <c r="B25" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="27"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="B26" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18.75">
-      <c r="B27" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18.75">
-      <c r="B28" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18.75">
-      <c r="B29" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30" s="17" t="s">
-        <v>206</v>
+      <c r="B42" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="26"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="B43" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="B44" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="B46" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="94.5">
+      <c r="B47" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C47" s="22"/>
+      <c r="D47" s="26"/>
+    </row>
+    <row r="48" spans="1:4" ht="27">
+      <c r="B48" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="26"/>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="26"/>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="27">
+      <c r="B52" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="13"/>
+      <c r="C53" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C54" s="22"/>
+      <c r="D54" s="26"/>
+    </row>
+    <row r="55" spans="2:4" ht="27">
+      <c r="B55" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="30">
+      <c r="B56" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -5243,59 +5069,373 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AB5327-E917-4FC1-87EA-50E5E24BBDE2}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="14"/>
+    <col min="2" max="2" width="103.875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="9" style="14"/>
+    <col min="4" max="4" width="9" style="23"/>
+    <col min="5" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="16"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="15"/>
+      <c r="B5" s="17"/>
+    </row>
+    <row r="6" spans="1:4" ht="174.75">
+      <c r="A6" s="15"/>
+      <c r="B6" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="A7" s="15"/>
+      <c r="B7" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="15"/>
+      <c r="B8" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="A9" s="15"/>
+      <c r="B9" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75">
+      <c r="A10" s="15"/>
+      <c r="B10" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="24"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="15"/>
+      <c r="B11" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="24"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.75">
+      <c r="A12" s="15"/>
+      <c r="B12" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75">
+      <c r="A13" s="15"/>
+      <c r="B13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="40.5">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75">
+      <c r="A15" s="15"/>
+      <c r="B15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="151.5">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="15"/>
+      <c r="B17" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="1:4" ht="18.75">
+      <c r="A18" s="15"/>
+      <c r="B18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4" ht="18.75">
+      <c r="A19" s="15"/>
+      <c r="B19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75">
+      <c r="A20" s="15"/>
+      <c r="B20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="15"/>
+      <c r="B21" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="15"/>
+      <c r="B22" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="15"/>
+      <c r="B23" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.75">
+      <c r="A24" s="15"/>
+      <c r="B24" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.75">
+      <c r="A25" s="15"/>
+      <c r="B25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.75">
+      <c r="B26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="32.25">
+      <c r="B28" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="24"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18.75">
+      <c r="B30" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18.75">
+      <c r="B31" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18.75">
+      <c r="B32" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F95F980-CC2B-45F9-B5BE-620AB4593CC8}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="17"/>
-    <col min="2" max="2" width="103.875" style="17" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="9" style="14"/>
+    <col min="2" max="2" width="103.875" style="14" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>51</v>
+      <c r="B2" s="17" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20"/>
-    </row>
-    <row r="6" spans="1:2" ht="54">
-      <c r="A6" s="18"/>
-      <c r="B6" s="20" t="s">
-        <v>52</v>
+      <c r="A5" s="15"/>
+      <c r="B5" s="17"/>
+    </row>
+    <row r="6" spans="1:2" ht="150.75">
+      <c r="A6" s="15"/>
+      <c r="B6" s="17" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -5304,7 +5444,248 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEB116E-F9A6-4175-8412-6817F9A985E1}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="18"/>
+    <col min="2" max="2" width="104" style="18" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="15"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" ht="198.75">
+      <c r="A6" s="15"/>
+      <c r="B6" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="A7" s="15"/>
+      <c r="B7" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="15"/>
+      <c r="B8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75">
+      <c r="B10" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75">
+      <c r="B11" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" ht="40.5">
+      <c r="B12" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="111">
+      <c r="B13" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" ht="121.5">
+      <c r="B14" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" ht="124.5">
+      <c r="B15" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" ht="192">
+      <c r="B16" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="2:4" ht="219">
+      <c r="B17" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="2:4" ht="70.5">
+      <c r="B18" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="2:4" ht="165">
+      <c r="B19" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="2:4" ht="293.25" customHeight="1">
+      <c r="B20" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="2:4" ht="104.25" customHeight="1">
+      <c r="B21" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="32.25">
+      <c r="B22" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="18.75">
+      <c r="B24" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="2:4" ht="18.75">
+      <c r="B25" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="54">
+      <c r="B27" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="2:4" ht="27">
+      <c r="B28" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="18.75">
+      <c r="B29" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="2:4" ht="18.75">
+      <c r="B30" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="2:4" ht="18.75">
+      <c r="B31" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5313,7 +5694,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -5562,25 +5943,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -5588,7 +5962,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5605,15 +5979,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41.xlsx
+++ b/guide41.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420926E1-2C3A-442D-9E16-1CD0DCB3A2F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEA5981-15A8-4F66-A0EE-F0BAF20469CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" firstSheet="2" activeTab="11" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="12615" activeTab="5" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -1938,57 +1938,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ここではコース管理のための基本的な操作を説明します。
-&lt;ul&gt;
-　&lt;li&gt;&lt;a href="#course setting"&gt;コース設定&lt;/a&gt;
-　&lt;ul&gt;
-　　&lt;li&gt;&lt;a href="#choosing course template"&gt;コーステンプレートを選択する&lt;/a&gt;&lt;/li&gt;
-　　&lt;li&gt;&lt;a href="#course edit"&gt;コースの編集をする&lt;/a&gt;&lt;/li&gt;
-　&lt;/ul&gt;
-　&lt;/li&gt;
-　&lt;li&gt;&lt;a href="#participant"&gt;参加者設定&lt;/a&gt;
-　&lt;ul&gt;
-　　&lt;li&gt;&lt;a href="#participant confirmination"&gt;コースの参加者を確認する&lt;/a&gt;&lt;/li&gt;
-　　&lt;li&gt;&lt;a href="#TA"&gt;コースにTAを登録する&lt;/a&gt;&lt;/li&gt;
-　　&lt;li&gt;&lt;a href="#teacher"&gt;コースに教員や学生支援職員を登録する&lt;/a&gt;&lt;/li&gt;
-　　&lt;li&gt;&lt;a href="#group add"&gt;グループを追加する&lt;/a&gt;&lt;/li&gt;
-　　&lt;li&gt;&lt;a href="#user add"&gt;グループにユーザを追加する&lt;/a&gt;&lt;/li&gt;
-　&lt;/ul&gt;
-　&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <rPh sb="66" eb="68">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="235" eb="238">
-      <t>サンカシャ</t>
-    </rPh>
-    <rPh sb="303" eb="305">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="344" eb="346">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="387" eb="389">
-      <t>キョウイン</t>
-    </rPh>
-    <rPh sb="390" eb="394">
-      <t>ガクセイシエン</t>
-    </rPh>
-    <rPh sb="394" eb="396">
-      <t>ショクイン</t>
-    </rPh>
-    <rPh sb="397" eb="399">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="443" eb="445">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="492" eb="494">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <r>
       <t>学生に資料を提示するために PDF や Word、Excel ファイル等をコースに掲載できます。
 &lt;ul&gt;
@@ -2436,6 +2385,49 @@
       <t xml:space="preserve">ヒロダイ </t>
     </rPh>
     <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ここではコース管理のための基本的な操作を説明します。
+&lt;ul&gt;&lt;li&gt;&lt;a href="#course setting"&gt;コース設定&lt;/a&gt;
+&lt;ul&gt;&lt;li&gt;&lt;a href="#choosing course template"&gt;コーステンプレートを選択する&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#course edit"&gt;コースの編集をする&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#participant"&gt;参加者設定&lt;/a&gt;
+&lt;ul&gt;&lt;li&gt;&lt;a href="#participant confirmination"&gt;コースの参加者を確認する&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#TA"&gt;コースにTAを登録する&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#teacher"&gt;コースに教員や学生支援職員を登録する&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#group add"&gt;グループを追加する&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#user add"&gt;グループにユーザを追加する&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+    <rPh sb="64" eb="66">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="222" eb="225">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="286" eb="288">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="325" eb="327">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="366" eb="368">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="369" eb="373">
+      <t>ガクセイシエン</t>
+    </rPh>
+    <rPh sb="373" eb="375">
+      <t>ショクイン</t>
+    </rPh>
+    <rPh sb="376" eb="378">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="420" eb="422">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="467" eb="469">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -3059,7 +3051,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3497,7 +3489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5F1CFD-792A-40F7-A551-A5197A9AF048}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -4004,7 +3996,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4189,7 +4181,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4517,7 +4509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1601574-9F97-41C0-8451-5E02C95F2AA9}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -4563,10 +4555,10 @@
       <c r="A5" s="5"/>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="243">
+    <row r="6" spans="1:7" ht="135">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5113,7 +5105,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5123,7 +5115,7 @@
     <row r="6" spans="1:4" ht="174.75">
       <c r="A6" s="15"/>
       <c r="B6" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C6" s="22"/>
     </row>
@@ -5435,7 +5427,7 @@
     <row r="6" spans="1:2" ht="150.75">
       <c r="A6" s="15"/>
       <c r="B6" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -5449,7 +5441,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5506,7 +5498,7 @@
     <row r="6" spans="1:4" ht="198.75">
       <c r="A6" s="15"/>
       <c r="B6" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -5514,7 +5506,7 @@
     <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="15"/>
       <c r="B7" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -5686,15 +5678,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -5943,6 +5926,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
@@ -5955,14 +5947,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5979,4 +5963,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>